--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.573</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.53</v>
+        <v>16.689</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2386855425.836</v>
+        <v>-0.178</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1294452.294</v>
+        <v>28.752</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.436</v>
+        <v>7.538</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-2268217.743665152</v>
+        <v>24.18878733809784</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1610150.082244217</v>
+        <v>24.18257134904216</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1546358.600483021</v>
+        <v>24.18473437695409</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1723750.019679333</v>
+        <v>24.17192985615691</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-561735.0182496558</v>
+        <v>24.20618956556983</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1098719.510177478</v>
+        <v>24.21412825050606</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-263331.5949397751</v>
+        <v>24.23371941724867</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-43368.87982377001</v>
+        <v>24.24401088271581</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-484286.9126206225</v>
+        <v>24.21974945646603</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1154445.950894096</v>
+        <v>24.27836186959883</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1316760.894844579</v>
+        <v>24.21186578232541</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-664962.1725341566</v>
+        <v>24.22564600845349</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-458937.1166042691</v>
+        <v>24.2349397822188</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1153952.453965989</v>
+        <v>24.20584989178257</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>939513.4003267452</v>
+        <v>24.27209375476363</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-1653910.456936689</v>
+        <v>24.2168788785932</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-1394591.226800043</v>
+        <v>24.21448943357308</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1162971.887821477</v>
+        <v>24.22091397639154</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2066618.731159225</v>
+        <v>24.19838379903527</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1369030.918939949</v>
+        <v>24.26177203742417</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-128866.282999056</v>
+        <v>24.21765352276825</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-65068.33213994822</v>
+        <v>24.22379411140495</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-480779.6305023421</v>
+        <v>24.19524551761759</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-726993.9029187727</v>
+        <v>24.21394712677655</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-190055.4733606417</v>
+        <v>24.23882224060026</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-117766.6864860564</v>
+        <v>24.24691278111416</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-459200.169247606</v>
+        <v>24.20654683880212</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1338315.11709148</v>
+        <v>24.32740745868503</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1588471.826263789</v>
+        <v>24.34792462609568</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1118455.279661383</v>
+        <v>24.30434603945771</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1249601.091155158</v>
+        <v>24.31872146333926</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1514799.109039879</v>
+        <v>24.40171339399584</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1788987.436635992</v>
+        <v>24.4295133554675</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1330500.639886324</v>
+        <v>24.37231908643945</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1077951.489828666</v>
+        <v>24.31300825691055</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1306168.2746234</v>
+        <v>24.33226626611224</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>826154.9559557334</v>
+        <v>24.2864743832808</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1243397.690293399</v>
+        <v>24.31797008578982</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1407602.299107927</v>
+        <v>24.39616973449381</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1678227.180763317</v>
+        <v>24.42361241653722</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1154075.211996306</v>
+        <v>24.36215612027132</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>988584.0142315152</v>
+        <v>24.27648623656669</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1242137.344001122</v>
+        <v>24.29062776516277</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>694319.5520494764</v>
+        <v>24.25717816389649</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1904809.105360882</v>
+        <v>24.30656705567537</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1862836.10061523</v>
+        <v>24.35134701172281</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2195494.765102404</v>
+        <v>24.37184819178283</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1466703.72397719</v>
+        <v>24.31911972405888</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1331434.210193792</v>
+        <v>24.2611003386619</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>589088.348866913</v>
+        <v>24.2578710058698</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>937079.2346791776</v>
+        <v>24.27292339723726</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>47341.76143232369</v>
+        <v>24.22731748523019</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-206065.6987655068</v>
+        <v>24.23607947470503</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1755738.416572054</v>
+        <v>24.28949336414263</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1432204.030166473</v>
+        <v>24.31194481524336</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1905240.740611468</v>
+        <v>24.33645846803853</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>918995.7460848187</v>
+        <v>24.27600563450829</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1092171.153601799</v>
+        <v>24.30778997216449</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1479021.313821887</v>
+        <v>24.28165305247293</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1104465.906565439</v>
+        <v>24.29742813480208</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1546046.525767421</v>
+        <v>24.32010697173546</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>367455.2494761267</v>
+        <v>24.25547470639698</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1033003.928890096</v>
+        <v>24.29637724736106</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2539969.211920938</v>
+        <v>24.28185863189107</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1608466.915846593</v>
+        <v>24.28340726761793</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2182712.392956634</v>
+        <v>24.30139450895404</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>605737.7056809303</v>
+        <v>24.24956071626845</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1366255.331973915</v>
+        <v>24.28188996099618</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>87655.18227622153</v>
+        <v>24.25481908898209</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>231570.9724745836</v>
+        <v>24.27236282924401</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-172287.6881759141</v>
+        <v>24.22043068615469</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>363604.8717384508</v>
+        <v>24.25585374179035</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>335446.5715091504</v>
+        <v>24.28454590344804</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>466669.1253676945</v>
+        <v>24.30658197663657</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>32713.43084144693</v>
+        <v>24.23405377972346</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1020277.878386192</v>
+        <v>24.36303902235045</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1269899.463686049</v>
+        <v>24.39632361676452</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>753613.7594152879</v>
+        <v>24.32664358111375</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1250964.991264608</v>
+        <v>24.35333022643164</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1149722.799103675</v>
+        <v>24.43840691855317</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1411849.787620445</v>
+        <v>24.48230993070329</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>869815.4536349594</v>
+        <v>24.38892936735775</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>942307.822525996</v>
+        <v>24.34239117543218</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1174924.090446168</v>
+        <v>24.37351046186955</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>665237.1039251229</v>
+        <v>24.30248600792851</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1258180.2973013</v>
+        <v>24.34676820419979</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1140707.413064795</v>
+        <v>24.42675342633165</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1403907.328457797</v>
+        <v>24.46939954606062</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>824562.248879533</v>
+        <v>24.37272467058859</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1011524.489772782</v>
+        <v>24.30280756311567</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1277768.077654548</v>
+        <v>24.32732052547811</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>756423.0356471365</v>
+        <v>24.27422959341042</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1705235.288162283</v>
+        <v>24.33466131575177</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1483051.965216146</v>
+        <v>24.38465053163501</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1808249.440439307</v>
+        <v>24.41827071066245</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1107975.45145471</v>
+        <v>24.33762067312677</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>67299.58713739083</v>
+        <v>24.23788032216173</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-113578.5295210568</v>
+        <v>24.23950056862001</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>136174.0791450538</v>
+        <v>24.25051584707898</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-541743.907268547</v>
+        <v>24.21071380533524</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-103574.0994390717</v>
+        <v>24.23701988717752</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1325365.960458055</v>
+        <v>24.27391117302538</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1373362.005244261</v>
+        <v>24.3022900518716</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1766077.810637153</v>
+        <v>24.32270898483478</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>950160.3821656012</v>
+        <v>24.2675515280873</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>1146745.088606388</v>
+        <v>24.31487722881295</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1067408.233508629</v>
+        <v>24.27053627471663</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1012997.074817723</v>
+        <v>24.29239951675144</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1384648.841650449</v>
+        <v>24.31136854947507</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>303012.0058475413</v>
+        <v>24.25130647785288</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1152957.625063988</v>
+        <v>24.30958309435725</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2192433.588829402</v>
+        <v>24.27061397580998</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1624888.059863857</v>
+        <v>24.27736838037683</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2168599.459813157</v>
+        <v>24.2924734989822</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>604304.4519861442</v>
+        <v>24.24418026974149</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1432500.909740649</v>
+        <v>24.29390844287398</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>135130.2397832052</v>
+        <v>24.26063386798031</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>285836.5215964295</v>
+        <v>24.27641304278488</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-150554.9429313717</v>
+        <v>24.22541835336874</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>291842.2152453711</v>
+        <v>24.24787110353567</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>317702.5369498058</v>
+        <v>24.28423976081294</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>435231.8911734719</v>
+        <v>24.30467133177638</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>30277.68210583569</v>
+        <v>24.23528865045444</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1073048.959194443</v>
+        <v>24.37518980332954</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1322279.564766628</v>
+        <v>24.40683204487484</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>789705.4342349333</v>
+        <v>24.33698172107487</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1235238.477080058</v>
+        <v>24.35428733492907</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1200795.281230555</v>
+        <v>24.4478914481663</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1442617.508075935</v>
+        <v>24.49038553662161</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>949931.3965557157</v>
+        <v>24.39909368288149</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1037263.579718462</v>
+        <v>24.36102843171291</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1282771.384832814</v>
+        <v>24.39093424104308</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>729393.2604404228</v>
+        <v>24.31889976163465</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1284535.444796304</v>
+        <v>24.35490930854273</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1216088.715203728</v>
+        <v>24.44384754188799</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1470191.254050282</v>
+        <v>24.48556689326306</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>917079.4121227022</v>
+        <v>24.389991574189</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1110428.499121851</v>
+        <v>24.31994703778567</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1435900.92136663</v>
+        <v>24.34386331651706</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>796028.8764909781</v>
+        <v>24.28921893969495</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1879660.708431956</v>
+        <v>24.34283480828431</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1658984.189828197</v>
+        <v>24.40098529361223</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2014080.43754227</v>
+        <v>24.43434307347714</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1264491.762385825</v>
+        <v>24.35379762438226</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-1640462.92034714</v>
+        <v>24.18995655738699</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-166076.266108075</v>
+        <v>24.19799362436986</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>79726.40545752269</v>
+        <v>24.20170663786376</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>642782.7327319295</v>
+        <v>24.19798168353335</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-1050300.74038515</v>
+        <v>24.19537188773115</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-627580.343988531</v>
+        <v>24.2199054488616</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>819678.9949626479</v>
+        <v>24.25603773076261</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1201638.016237723</v>
+        <v>24.26794469216333</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1264250.938732554</v>
+        <v>24.25317129702699</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1280224.539818667</v>
+        <v>24.27408388946024</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-805407.1262610329</v>
+        <v>24.21981728695796</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>561650.4063462743</v>
+        <v>24.25018990507268</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>945284.1694849363</v>
+        <v>24.26102877613669</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>817391.1253929829</v>
+        <v>24.24115289763778</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>981522.8629528676</v>
+        <v>24.26915967945246</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>-739131.8553319654</v>
+        <v>24.22117630290124</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>592965.5876088185</v>
+        <v>24.23187717832802</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1109187.796273613</v>
+        <v>24.23963072701373</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1121381.606617036</v>
+        <v>24.22508853018701</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>792383.7443529144</v>
+        <v>24.25217314586163</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-543598.0795791133</v>
+        <v>24.21125748008783</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-470379.4843024184</v>
+        <v>24.21762321358783</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-818919.201941632</v>
+        <v>24.1961774622999</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>-664959.3927399424</v>
+        <v>24.20349148415896</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-226568.2268528475</v>
+        <v>24.23466450183311</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>-152762.6513757283</v>
+        <v>24.24203023025314</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-381688.7242034924</v>
+        <v>24.21035146157822</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1303730.694379872</v>
+        <v>24.3293559774306</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1561072.517700421</v>
+        <v>24.34992371544467</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1050853.572998917</v>
+        <v>24.313438300157</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1331307.873475736</v>
+        <v>24.31675940866823</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1463477.345835871</v>
+        <v>24.40834054606317</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1713248.992730466</v>
+        <v>24.43506477033669</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>1253461.390135701</v>
+        <v>24.38659600123819</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1064202.201528993</v>
+        <v>24.31647354612545</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1295786.034402573</v>
+        <v>24.33571415655676</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>802145.5772849523</v>
+        <v>24.29679979401439</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>1187252.49378245</v>
+        <v>24.31733485735273</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>1316388.377702751</v>
+        <v>24.40433078134578</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1546474.999703529</v>
+        <v>24.43060867111628</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>1048592.24455414</v>
+        <v>24.37768332772511</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>574265.1041574607</v>
+        <v>24.27072552699159</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>835206.1649426939</v>
+        <v>24.28493946649486</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>334337.7252730638</v>
+        <v>24.25773779959947</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>1423081.813126866</v>
+        <v>24.29611678854534</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1406268.441409501</v>
+        <v>24.34636099325486</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>1689998.257401003</v>
+        <v>24.36599047759459</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>1089787.67046528</v>
+        <v>24.32107461910834</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-591184.6880734923</v>
+        <v>24.2240240437301</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-961824.1154508336</v>
+        <v>24.21796933896844</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>-692201.0476438315</v>
+        <v>24.22804968606803</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-1842281.449285523</v>
+        <v>24.19096045813236</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29705.50989405259</v>
+        <v>24.2338703869388</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1311254.080915858</v>
+        <v>24.26219448612555</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>714688.925081415</v>
+        <v>24.28325493286187</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>1116282.803715289</v>
+        <v>24.30219353214893</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-726294.719797409</v>
+        <v>24.25067010257899</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1460707.682301959</v>
+        <v>24.3129715518074</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>1469073.154277565</v>
+        <v>24.26234795410993</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>671422.7098698819</v>
+        <v>24.27812990006822</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1081645.175025564</v>
+        <v>24.2960150912755</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1150982.135915965</v>
+        <v>24.2400007874422</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1436171.694337645</v>
+        <v>24.30880289845792</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>2861719.518585211</v>
+        <v>24.26179929963583</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>922102.5671768719</v>
+        <v>24.26114000465089</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>1501720.447341539</v>
+        <v>24.27505119229156</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-1484178.566518682</v>
+        <v>24.22985500152512</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2159039.046316055</v>
+        <v>24.29712442463168</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>441219.2529450955</v>
+        <v>24.26005944927413</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>632964.0202951934</v>
+        <v>24.27525557709788</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>124689.1660065603</v>
+        <v>24.22997862017949</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>169398.4511910177</v>
+        <v>24.23114696852897</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>390178.3191461378</v>
+        <v>24.26653011020322</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>516965.9339643939</v>
+        <v>24.28272680997809</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>118174.0702351408</v>
+        <v>24.22612120454465</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>1614131.78336539</v>
+        <v>24.37850262174159</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>1943812.671619956</v>
+        <v>24.40873150587896</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>1302821.226733711</v>
+        <v>24.34597504450845</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1415337.801708099</v>
+        <v>24.33362336315257</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1545423.868858769</v>
+        <v>24.42721690900426</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>1837215.515517971</v>
+        <v>24.46364185791415</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1288095.255243569</v>
+        <v>24.3879499750471</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>1537665.328163869</v>
+        <v>24.36623594606775</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>1872889.017349513</v>
+        <v>24.39519053872444</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>1173991.61388491</v>
+        <v>24.33019507000139</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>1372050.564072565</v>
+        <v>24.33357866984349</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>1465299.565865766</v>
+        <v>24.42240279102076</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>1762667.134912343</v>
+        <v>24.45844815744086</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>1134192.525585117</v>
+        <v>24.37859106556363</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1845959.513202976</v>
+        <v>24.3260843170864</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2332613.923907924</v>
+        <v>24.3488665714925</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1476354.779822754</v>
+        <v>24.29920121637008</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2488811.200903906</v>
+        <v>24.32783662605687</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2243026.888561487</v>
+        <v>24.382494877987</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>2689523.589493659</v>
+        <v>24.41073717086862</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1781809.618735684</v>
+        <v>24.34246060580801</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>289746.0038819084</v>
+        <v>24.24988526593703</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-314526.8604929334</v>
+        <v>24.21808216630269</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>-151372.9483301507</v>
+        <v>24.23335341794555</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-861187.566401398</v>
+        <v>24.16134690210202</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>245004.9419664991</v>
+        <v>24.27377962283554</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>602575.2014960257</v>
+        <v>24.2851332209998</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>194303.3070852131</v>
+        <v>24.28380103964519</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>362220.6859532509</v>
+        <v>24.31026553519344</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-610105.5347387497</v>
+        <v>24.21778762438613</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>781715.3004618199</v>
+        <v>24.36103655780986</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>681976.7469429023</v>
+        <v>24.28042468905219</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>253231.7737690322</v>
+        <v>24.27251214223244</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>422317.7249143604</v>
+        <v>24.29738116738959</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-756676.7498240082</v>
+        <v>24.19956622599511</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>791454.4384413912</v>
+        <v>24.35316512234063</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1493480.018261638</v>
+        <v>24.28404975095532</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>531256.6455558238</v>
+        <v>24.26063890458358</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>810335.0754224182</v>
+        <v>24.28061671554279</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-878739.573016789</v>
+        <v>24.20039260195442</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>1188727.613481634</v>
+        <v>24.3368070016443</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>321802.1586216008</v>
+        <v>24.30467068904034</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>451939.880544976</v>
+        <v>24.33262808361632</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>160387.4057487898</v>
+        <v>24.25433996531091</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>229892.6250147275</v>
+        <v>24.26439695402901</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>256169.2426782681</v>
+        <v>24.30705641664253</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>342023.0912991375</v>
+        <v>24.33669322239017</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>88809.56730045582</v>
+        <v>24.24153216167938</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>767762.9122956089</v>
+        <v>24.43901624139876</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>946436.8452963771</v>
+        <v>24.48666481789869</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>594492.2784817967</v>
+        <v>24.38454238241324</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>722195.1752980376</v>
+        <v>24.38285981155791</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>717130.7989743504</v>
+        <v>24.49714317121655</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>868677.8301851611</v>
+        <v>24.55346098560041</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>567410.3525019103</v>
+        <v>24.4321261609578</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>765464.6526688806</v>
+        <v>24.4208229194353</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>951861.8441148824</v>
+        <v>24.46647079129132</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>574633.9756343807</v>
+        <v>24.3619290349247</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>795165.6868764098</v>
+        <v>24.3819074384172</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>772621.9018320937</v>
+        <v>24.49089255089804</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>933655.210218622</v>
+        <v>24.54646979136469</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>598134.9733498092</v>
+        <v>24.42021727926777</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>988100.3110731354</v>
+        <v>24.36954521502981</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>1238914.814284016</v>
+        <v>24.406593251381</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>791987.1249946203</v>
+        <v>24.32479028394794</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>1151138.649804489</v>
+        <v>24.37546464171396</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1030301.30336026</v>
+        <v>24.44303705495994</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1246692.808775855</v>
+        <v>24.48784293270507</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>779634.9048426714</v>
+        <v>24.37986934920857</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-1211144.463527323</v>
+        <v>24.16826152688952</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-827555.6882384376</v>
+        <v>24.1600779562326</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-805790.2939668056</v>
+        <v>24.16055021710361</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-931197.9828213227</v>
+        <v>24.1445411407801</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-336100.6687320999</v>
+        <v>24.20384260821858</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>-763935.0096357079</v>
+        <v>24.18764633984279</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>-312769.9020313937</v>
+        <v>24.20738105452388</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>-229902.8765315816</v>
+        <v>24.21756795403482</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-467310.4350383022</v>
+        <v>24.18690462231247</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>348382.260053045</v>
+        <v>24.28767970147797</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-947001.9289320901</v>
+        <v>24.17937432829822</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>-528517.6158264072</v>
+        <v>24.19022777697621</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>-463092.439084683</v>
+        <v>24.19878426541986</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-800383.4906140517</v>
+        <v>24.16188315976118</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>303209.0440716202</v>
+        <v>24.2794863077729</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-1288159.300289252</v>
+        <v>24.19179668601728</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-837520.6944914116</v>
+        <v>24.18488834262606</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>-752241.3267564153</v>
+        <v>24.19084650484168</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-1186926.412252416</v>
+        <v>24.16167939825273</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>307665.5574273466</v>
+        <v>24.26828838092748</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-145873.776956125</v>
+        <v>24.214316645525</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>-95725.40736021349</v>
+        <v>24.22463720907447</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-276371.1951043422</v>
+        <v>24.18211260828738</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-250336.9126812239</v>
+        <v>24.20487119912022</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-48389.29264327095</v>
+        <v>24.24095805486441</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>-3815.66545794891</v>
+        <v>24.25643623643865</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-168078.3094119871</v>
+        <v>24.19849276831195</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>362974.8528222929</v>
+        <v>24.33939701337612</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>469785.1568787983</v>
+        <v>24.36801033456605</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>241357.4109278098</v>
+        <v>24.30516008143845</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>531140.6327382434</v>
+        <v>24.34377229574237</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>591295.5388686046</v>
+        <v>24.45029934529539</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>710658.3432465607</v>
+        <v>24.49147076165973</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>496821.5670759666</v>
+        <v>24.41055769703524</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>298408.1771927034</v>
+        <v>24.31997758509954</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>396442.8017653355</v>
+        <v>24.34644135830831</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>169709.8686470491</v>
+        <v>24.28105933647867</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>590727.3371677716</v>
+        <v>24.34813593189345</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>614111.5828874244</v>
+        <v>24.44859606095022</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>737722.8600648224</v>
+        <v>24.48883763613818</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>496189.248236914</v>
+        <v>24.4024597401039</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>224920.0269483859</v>
+        <v>24.27925284486209</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>347685.1337421114</v>
+        <v>24.29942711288912</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>92257.90521223821</v>
+        <v>24.25078730614632</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>885298.8934325031</v>
+        <v>24.33497042338381</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>863156.3322782628</v>
+        <v>24.39554827792719</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1035893.22228504</v>
+        <v>24.42681776883357</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>680433.5785203929</v>
+        <v>24.35232183512581</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-2206839.813988035</v>
+        <v>24.16769883122748</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-1492157.053265836</v>
+        <v>24.15060199597973</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-1476312.603906778</v>
+        <v>24.14990087527741</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-1423888.005417021</v>
+        <v>24.13560632720783</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-1176961.803539727</v>
+        <v>24.14730095227852</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>-1573326.72128458</v>
+        <v>24.18565613175494</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-878716.3997466479</v>
+        <v>24.19407195372493</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>-751600.9046701911</v>
+        <v>24.20170230274661</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-958916.1353019456</v>
+        <v>24.17425363809891</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-521074.0068355551</v>
+        <v>24.19840878528393</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-1715439.639107137</v>
+        <v>24.18591637762216</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>-1145081.57716147</v>
+        <v>24.18824308482615</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1024316.530692209</v>
+        <v>24.19475406297026</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-1377029.576589863</v>
+        <v>24.16174645600856</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-641078.2031262928</v>
+        <v>24.19360031987291</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-2600256.321065021</v>
+        <v>24.19426769379449</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-1995703.761225096</v>
+        <v>24.18104760820936</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>-1900290.255942725</v>
+        <v>24.18518051087994</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-2242831.401464598</v>
+        <v>24.15985481437672</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>-1275535.96522472</v>
+        <v>24.19646074738903</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-626124.86850572</v>
+        <v>24.14008429740617</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-649957.1284065484</v>
+        <v>24.13741752935872</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-831737.9592712126</v>
+        <v>24.11432471917369</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>-725960.8984653216</v>
+        <v>24.16380238936212</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-464548.1920234869</v>
+        <v>24.1673517314524</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-485975.802045088</v>
+        <v>24.16466548036044</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-718775.2147784645</v>
+        <v>24.12660196577218</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-152160.6075180065</v>
+        <v>24.22595674520337</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-84241.29946877992</v>
+        <v>24.23760245554033</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-376126.4550728767</v>
+        <v>24.19806222788401</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>301937.9899713938</v>
+        <v>24.24837851541539</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>343356.8530213732</v>
+        <v>24.30870957569933</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>436319.5048523819</v>
+        <v>24.32613446457368</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>70807.66452661536</v>
+        <v>24.26945698019949</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-330034.0862077601</v>
+        <v>24.21235698383153</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-279044.5704219213</v>
+        <v>24.22272808255591</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-578522.77674898</v>
+        <v>24.18030660309141</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>258494.565242921</v>
+        <v>24.24830960049236</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>186679.6285285502</v>
+        <v>24.30376449483601</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>255578.6308034107</v>
+        <v>24.32094114883663</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>-164946.6994856137</v>
+        <v>24.25923312693272</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>-943908.6983717394</v>
+        <v>24.19150697484069</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-888444.7176048168</v>
+        <v>24.19841837433465</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-1093511.071328533</v>
+        <v>24.16891605297904</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>464390.3617129871</v>
+        <v>24.24987851330732</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>244218.0552962764</v>
+        <v>24.27470155990665</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>308560.1160689457</v>
+        <v>24.28670769964288</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-215850.7471590687</v>
+        <v>24.23426587619593</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>1087517.741521964</v>
+        <v>24.27598249853241</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>262492.6028798726</v>
+        <v>24.26919558470365</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>465732.7159741996</v>
+        <v>24.28344032155429</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>123416.4324154244</v>
+        <v>24.23439884492732</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>-208416.1257719191</v>
+        <v>24.21649633609351</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>1593675.163958104</v>
+        <v>24.31466109158362</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1283959.404609188</v>
+        <v>24.33859283821207</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1583362.940292391</v>
+        <v>24.36379437559937</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1032535.040825731</v>
+        <v>24.2978695559904</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>574975.1407899264</v>
+        <v>24.29922609470938</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1468550.568320626</v>
+        <v>24.30600522366276</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>1137765.9008343</v>
+        <v>24.32236655755152</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>1419749.672722015</v>
+        <v>24.34602305649608</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>661642.1986103936</v>
+        <v>24.27438970704546</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>566890.7372878924</v>
+        <v>24.29326557810024</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>2212041.3573666</v>
+        <v>24.29674344591165</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>1293055.444742194</v>
+        <v>24.29496997557548</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>1620671.355999779</v>
+        <v>24.31378061283679</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>524815.1817076992</v>
+        <v>24.25502853771637</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>642509.7497140279</v>
+        <v>24.27672354005147</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-33628.14315674949</v>
+        <v>24.23262168242327</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>77419.1750552803</v>
+        <v>24.2518547495326</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-190708.1390310343</v>
+        <v>24.19463153593</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>205843.5008813106</v>
+        <v>24.25011599507922</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>215955.7785177209</v>
+        <v>24.2801074692438</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>298001.8288522705</v>
+        <v>24.30259674977908</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>46566.03779519016</v>
+        <v>24.22907783188161</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>597470.3694082625</v>
+        <v>24.35708218075077</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>765155.8058075347</v>
+        <v>24.39465964797335</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>449745.1021259528</v>
+        <v>24.31716888564206</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>798799.6179830744</v>
+        <v>24.36227904872067</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>765826.7171442456</v>
+        <v>24.45647652725717</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>926479.7293320384</v>
+        <v>24.50410106662529</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>626483.3618687119</v>
+        <v>24.40769691588495</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>561700.1553008716</v>
+        <v>24.34137909652507</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>727089.409398357</v>
+        <v>24.37721603320516</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>394680.8174630941</v>
+        <v>24.2968553923276</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>877692.6418898948</v>
+        <v>24.36248276506311</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>807182.5392746204</v>
+        <v>24.45165242544268</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>975666.3318217063</v>
+        <v>24.49874006411295</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>637068.0984019872</v>
+        <v>24.39691067646819</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>479463.2704790025</v>
+        <v>24.29567614130737</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>692123.1820226636</v>
+        <v>24.32437487517591</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>307294.1717540624</v>
+        <v>24.26215001459927</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1228796.140872627</v>
+        <v>24.35146669788663</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1080751.944771323</v>
+        <v>24.4062345295723</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>1306772.798853766</v>
+        <v>24.44387484280915</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>839749.3251601846</v>
+        <v>24.35636310371777</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2001438.39704859</v>
+        <v>24.15864041341557</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-1361723.885174691</v>
+        <v>24.14945554221575</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-1364812.681050719</v>
+        <v>24.14774141516584</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-1467215.381109202</v>
+        <v>24.1390719385164</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-994885.9061520252</v>
+        <v>24.15950795265865</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>-1042898.076947099</v>
+        <v>24.18553940741924</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-504635.9846140985</v>
+        <v>24.20180230322719</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>-412564.616263453</v>
+        <v>24.20854118508798</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-649874.9721854979</v>
+        <v>24.18643899550495</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>221218.8457860042</v>
+        <v>24.24304373348456</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-1272612.840145904</v>
+        <v>24.17857118222445</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>-795899.5131117201</v>
+        <v>24.18713386234047</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-735113.645965184</v>
+        <v>24.19207909132192</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-1062704.553658884</v>
+        <v>24.1650496380361</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>15647.89100440552</v>
+        <v>24.22818596224469</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2100294.481816203</v>
+        <v>24.18406162578179</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-1403939.642678906</v>
+        <v>24.1767222065185</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>-1337890.507657317</v>
+        <v>24.17911524599522</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1662028.751465966</v>
+        <v>24.16009325152648</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-544779.8804051534</v>
+        <v>24.20656746097936</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-607976.5603849754</v>
+        <v>24.15339236913213</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-579813.1363000561</v>
+        <v>24.15398522672661</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-727632.4601035493</v>
+        <v>24.12811395171426</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>-757023.7908401503</v>
+        <v>24.18363872238711</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-412045.316865831</v>
+        <v>24.19536297737432</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-398335.6094598954</v>
+        <v>24.19754187611581</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-497061.4356590343</v>
+        <v>24.15541668043671</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>241903.3460907385</v>
+        <v>24.27340345328619</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>346495.5020032015</v>
+        <v>24.28924650796119</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>93080.39078730284</v>
+        <v>24.24549827378901</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>614128.3955941327</v>
+        <v>24.31490454361255</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>663421.2153794816</v>
+        <v>24.38783742544967</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>771358.8013307207</v>
+        <v>24.41146588409663</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>524675.2912138748</v>
+        <v>24.34826725175235</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30531.78425139267</v>
+        <v>24.24791748978447</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>103263.9889126439</v>
+        <v>24.26139499542605</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-111553.4927347334</v>
+        <v>24.2160740152381</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>554754.630235855</v>
+        <v>24.30778529129937</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>557591.6574381267</v>
+        <v>24.3743245727676</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>641797.6873326993</v>
+        <v>24.39658241006201</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>373138.40757853</v>
+        <v>24.3294190399015</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>-530878.2345884966</v>
+        <v>24.20063816187753</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-467059.4785632619</v>
+        <v>24.20914491790786</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-614089.6357480367</v>
+        <v>24.17925424328924</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>613437.973557647</v>
+        <v>24.27753634323621</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>554160.5148211253</v>
+        <v>24.30971583279825</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>646866.5392482349</v>
+        <v>24.32493635583402</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>316889.4100262774</v>
+        <v>24.27025384304926</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>-2682041.900655032</v>
+        <v>24.14667561045825</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-2015771.862390166</v>
+        <v>24.1271522102422</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-2050535.189061668</v>
+        <v>24.13126777248588</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-1977874.743317666</v>
+        <v>24.10460377460864</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-242179.9744213595</v>
+        <v>24.21512815408909</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>-1983215.005831106</v>
+        <v>24.1637756258712</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>-1240267.091363566</v>
+        <v>24.16802289561508</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-1202451.244293678</v>
+        <v>24.18068926173435</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-1339481.158279615</v>
+        <v>24.13923814182904</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>631256.5218434134</v>
+        <v>24.28016924599638</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-1851858.147807634</v>
+        <v>24.16666775909723</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-1249798.962429476</v>
+        <v>24.1654483426</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>-1242253.64800707</v>
+        <v>24.17675120415877</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-1562064.021983114</v>
+        <v>24.1300751668402</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>680584.5239540871</v>
+        <v>24.27715957422321</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-2114873.224181072</v>
+        <v>24.1891896367162</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-1546542.201455145</v>
+        <v>24.17664908823432</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>-1485510.137864636</v>
+        <v>24.1853581091136</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1852226.167206874</v>
+        <v>24.14889039452812</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>806002.0551393392</v>
+        <v>24.27080313212876</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-35327.97661417456</v>
+        <v>24.23293853001051</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>66021.73082537681</v>
+        <v>24.24501700400642</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-231229.8826603898</v>
+        <v>24.20613154187127</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-55446.25303399864</v>
+        <v>24.23011263264879</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>55198.44327900589</v>
+        <v>24.26463047308413</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>135382.6472395707</v>
+        <v>24.2816112710363</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-158440.3390594049</v>
+        <v>24.22284459577111</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>627044.6949662803</v>
+        <v>24.33399202466545</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>814200.6658625836</v>
+        <v>24.36149569010844</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>421063.4121903647</v>
+        <v>24.3041221561018</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>891196.020871145</v>
+        <v>24.32901379738113</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>902418.3989951384</v>
+        <v>24.42160785480675</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1101223.374156658</v>
+        <v>24.46035866254784</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>701303.6566336494</v>
+        <v>24.38000899281225</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>643451.7352540987</v>
+        <v>24.32246035006953</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>829196.4449039305</v>
+        <v>24.34818458378189</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>419320.4835171956</v>
+        <v>24.28842505347304</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1041062.284850837</v>
+        <v>24.33324684017325</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1012885.6284003</v>
+        <v>24.42174149924715</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>1225407.503558996</v>
+        <v>24.45965504975322</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>770936.0082120454</v>
+        <v>24.37490790948164</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>645251.5632221205</v>
+        <v>24.29089103295639</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>887681.803018575</v>
+        <v>24.31126115508102</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>452759.9423584738</v>
+        <v>24.26775176103448</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1483117.428471706</v>
+        <v>24.32710272753223</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>1372968.160870374</v>
+        <v>24.38362943712769</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>1675302.352178606</v>
+        <v>24.41373108138027</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1074267.30180215</v>
+        <v>24.34288411435971</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1958145.096717971</v>
+        <v>24.18408624776639</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-1218977.136817038</v>
+        <v>24.17797083424903</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-1214683.265212899</v>
+        <v>24.17814411722562</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1300599.329311396</v>
+        <v>24.16665790428113</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-1455852.514209291</v>
+        <v>24.15178268422541</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>-1069549.392403516</v>
+        <v>24.19912913011644</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>-305177.2603112829</v>
+        <v>24.21558576359073</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>-181870.1065142023</v>
+        <v>24.22285300791085</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-445940.5324466375</v>
+        <v>24.19955200050926</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-368939.09243</v>
+        <v>24.2007945868763</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-1220754.027895702</v>
+        <v>24.19633758905781</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-549175.6393941673</v>
+        <v>24.20626213413166</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-450516.9240950145</v>
+        <v>24.21204594910838</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-871888.1807540025</v>
+        <v>24.18364423191997</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-483040.1416540151</v>
+        <v>24.19392894802971</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1906916.135927617</v>
+        <v>24.20102823487342</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1128751.00678031</v>
+        <v>24.19618872126463</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-988688.8239663186</v>
+        <v>24.2003612562455</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1472090.191349682</v>
+        <v>24.17867240165389</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-1033284.30532483</v>
+        <v>24.18928183365297</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-946230.1739491404</v>
+        <v>24.14027109222442</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-954335.769517631</v>
+        <v>24.13925612742802</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-1063245.093945976</v>
+        <v>24.12014754273168</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-645733.2716759244</v>
+        <v>24.18489795965065</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-333103.8965694595</v>
+        <v>24.19601213992051</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-297041.398589003</v>
+        <v>24.19971832739028</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-482979.8079209536</v>
+        <v>24.16226877529766</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-161226.8169689643</v>
+        <v>24.21882857989285</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-87150.12218349257</v>
+        <v>24.23029260932181</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-296255.453820481</v>
+        <v>24.19645587583228</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>299567.6411795476</v>
+        <v>24.26734877985538</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>503225.3499859712</v>
+        <v>24.32959774331433</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>635628.4769281184</v>
+        <v>24.35150118008228</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>323891.2842159847</v>
+        <v>24.29625801489809</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-281278.5547665184</v>
+        <v>24.20327998582593</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-224879.0753471644</v>
+        <v>24.21293446061126</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-428838.2561491992</v>
+        <v>24.1767198394855</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>319801.5649025658</v>
+        <v>24.26674037673188</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>499109.6886791637</v>
+        <v>24.32419473980617</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>629360.6040530343</v>
+        <v>24.34517400684809</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>269407.1616242712</v>
+        <v>24.2854007943643</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-849083.995348832</v>
+        <v>24.1780007593199</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-788729.3107157385</v>
+        <v>24.18498686171052</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-968689.5603526806</v>
+        <v>24.1605215177973</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>333272.7562789196</v>
+        <v>24.25725094770718</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>480790.355968361</v>
+        <v>24.28608774532274</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>659749.224035874</v>
+        <v>24.30228430011687</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>214408.9923169231</v>
+        <v>24.2519674254521</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>-2592479.600164186</v>
+        <v>24.14962153015534</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-1719086.329960272</v>
+        <v>24.13577554361022</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-1752350.806049403</v>
+        <v>24.13317146597514</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-1662190.870674115</v>
+        <v>24.13437726125742</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-1719552.677289626</v>
+        <v>24.11501124307795</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-2053867.671048975</v>
+        <v>24.14980628607474</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-1178522.518582768</v>
+        <v>24.15611916166141</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>-1147027.294486096</v>
+        <v>24.15996630957991</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-1201926.176860442</v>
+        <v>24.15039452386193</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1112016.877642613</v>
+        <v>24.13849088130275</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-2100950.717294499</v>
+        <v>24.15087480057449</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-1298877.741297431</v>
+        <v>24.15138450611357</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1288005.011013332</v>
+        <v>24.15372222106149</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-1444010.580890556</v>
+        <v>24.13885338652581</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-1267125.083377583</v>
+        <v>24.13371945725649</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-2816565.115094134</v>
+        <v>24.17063341264866</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-1825387.763043361</v>
+        <v>24.1592926834536</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>-1768479.485812079</v>
+        <v>24.16071896980135</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-1904353.815277379</v>
+        <v>24.15080883363562</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>-1837018.190713045</v>
+        <v>24.15226383971794</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-1118004.834701607</v>
+        <v>24.09583599610976</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1140178.828565313</v>
+        <v>24.09213338790567</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-1126968.834242829</v>
+        <v>24.08728075627615</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>-842378.972779989</v>
+        <v>24.14783663336754</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-498633.4674052219</v>
+        <v>24.15231961223135</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-492027.7299645407</v>
+        <v>24.1518846398027</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-564063.1032179894</v>
+        <v>24.13147491447461</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-725452.4223961697</v>
+        <v>24.14509264425811</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-699174.1727968024</v>
+        <v>24.15309441398391</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-756842.5436616549</v>
+        <v>24.13475636864239</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-197446.0891148574</v>
+        <v>24.20844947929496</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>78918.46502301622</v>
+        <v>24.26131285049704</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>148302.3450884538</v>
+        <v>24.27828795985272</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-15014.06266272212</v>
+        <v>24.2414480537623</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-857206.8010616826</v>
+        <v>24.13214964315339</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-850358.1898375793</v>
+        <v>24.1382565072245</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-877249.2504194928</v>
+        <v>24.11742128361365</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-191972.26495026</v>
+        <v>24.210171905561</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>68784.74159009368</v>
+        <v>24.25884475981665</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>131196.806524639</v>
+        <v>24.27483342355168</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>-55909.63343217069</v>
+        <v>24.23332123473193</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-1319295.570396559</v>
+        <v>24.13414970627673</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-1301202.771087234</v>
+        <v>24.13839742474912</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-1265630.092407017</v>
+        <v>24.12739945820228</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-255847.3846304195</v>
+        <v>24.22031004040267</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-4164.112907840622</v>
+        <v>24.24352275210835</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>99818.72459697888</v>
+        <v>24.25569265197571</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-130278.5648837564</v>
+        <v>24.22139637200119</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-1198795.852510149</v>
+        <v>24.21151407839319</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-637400.8661890281</v>
+        <v>24.21650897136863</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-506360.977674495</v>
+        <v>24.22108677314106</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-638061.7072387534</v>
+        <v>24.20910074150576</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-1389412.457476738</v>
+        <v>24.15388302419488</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>546971.4372612836</v>
+        <v>24.25337052048143</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>1188014.700926585</v>
+        <v>24.2917399430373</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>1490417.027946262</v>
+        <v>24.30590337469169</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>1128485.257906716</v>
+        <v>24.28078705597122</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-167957.5432930783</v>
+        <v>24.23397775886939</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>899563.1771507376</v>
+        <v>24.25539506649977</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>1346724.381907415</v>
+        <v>24.28794908021854</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>1657422.981972409</v>
+        <v>24.30090302556189</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>1138894.029119209</v>
+        <v>24.27021655331518</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-88733.00790483713</v>
+        <v>24.23594531453348</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>256825.505957135</v>
+        <v>24.23986242262269</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>489050.0409753906</v>
+        <v>24.24824399202364</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>780907.5373147065</v>
+        <v>24.257334435298</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>315077.4842405837</v>
+        <v>24.23418428242189</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-163683.7631378105</v>
+        <v>24.22175627752603</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-836950.4562870176</v>
+        <v>24.15705327316616</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-816747.9836792821</v>
+        <v>24.16184217469648</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-940395.6835949498</v>
+        <v>24.14144287219551</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-641790.377073762</v>
+        <v>24.18634889960895</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-374222.7150740928</v>
+        <v>24.20441727979668</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>-339711.9862161023</v>
+        <v>24.21085298799691</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-531742.2660968179</v>
+        <v>24.17398337915757</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>280240.3415564505</v>
+        <v>24.28110596550352</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>425769.929838375</v>
+        <v>24.30200805167507</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>220907.9003742341</v>
+        <v>24.26533379007181</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>716139.2511382212</v>
+        <v>24.30707354670296</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>878255.6325406223</v>
+        <v>24.3927760581831</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>1059148.049393512</v>
+        <v>24.42138128999867</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>752844.9994076706</v>
+        <v>24.36581419972754</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>290473.7085164144</v>
+        <v>24.27568510020399</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>424852.2766474333</v>
+        <v>24.29521410089931</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>209260.7154654036</v>
+        <v>24.25564444638665</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>829411.9388833193</v>
+        <v>24.31515473275022</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>906024.2193937707</v>
+        <v>24.39747367798854</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>1084709.417809028</v>
+        <v>24.4257447390759</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>726069.6259755959</v>
+        <v>24.36500780018203</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>-81679.06857830237</v>
+        <v>24.2301547858641</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>64149.53911851194</v>
+        <v>24.24414609983066</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-143915.8061578348</v>
+        <v>24.216961802133</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1027116.050509226</v>
+        <v>24.29227885746359</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>899293.7741845604</v>
+        <v>24.33455052889482</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1090297.613572177</v>
+        <v>24.35523004152491</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>605485.4322549501</v>
+        <v>24.30342697968599</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>1013212.158992527</v>
+        <v>24.25274929624223</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>709997.666756056</v>
+        <v>24.25560528180273</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>973463.38775868</v>
+        <v>24.26658972764902</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>124551.6293088273</v>
+        <v>24.23072731527125</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-430659.3354386805</v>
+        <v>24.21462093086264</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>1759006.947958757</v>
+        <v>24.28221257329884</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>1725258.493373208</v>
+        <v>24.30980355374714</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>2128515.80579313</v>
+        <v>24.32952641664446</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>1293917.407435448</v>
+        <v>24.27993541658008</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>722381.7803433604</v>
+        <v>24.28437432066178</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>1517433.353953222</v>
+        <v>24.27507370946102</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>1400313.641680305</v>
+        <v>24.29613242486423</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>1769467.136994945</v>
+        <v>24.31417330424688</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>761616.175398155</v>
+        <v>24.26044159829142</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>694385.2861507832</v>
+        <v>24.2735561276635</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>2265698.955189792</v>
+        <v>24.27359057339717</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>1862014.622550039</v>
+        <v>24.28003007292363</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>2347493.925029368</v>
+        <v>24.29409121309813</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>920307.3691150125</v>
+        <v>24.2515463634799</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>776583.2326911635</v>
+        <v>24.26179492853022</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-151871.9500804838</v>
+        <v>24.22146496320908</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-48839.14624017337</v>
+        <v>24.23346288641445</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-367013.2243201594</v>
+        <v>24.19207752849519</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40290.09500082249</v>
+        <v>24.23266280907616</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>128787.6349741407</v>
+        <v>24.25046671965322</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>209006.6013766727</v>
+        <v>24.26567593952405</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-120195.4008286348</v>
+        <v>24.20475527870025</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>693830.4005232449</v>
+        <v>24.32480375658395</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>898341.3246654229</v>
+        <v>24.35135837264646</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>488945.9536781425</v>
+        <v>24.29346441889078</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>1015096.597946544</v>
+        <v>24.32915953460678</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>988561.8512063288</v>
+        <v>24.40008644302396</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>1195069.323476074</v>
+        <v>24.43564222710765</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>753863.3904398225</v>
+        <v>24.35509111950537</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>648773.3083739354</v>
+        <v>24.30539239798896</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>837174.6357895134</v>
+        <v>24.32993213732989</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>424433.2763805232</v>
+        <v>24.27061274860053</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>982185.2937200401</v>
+        <v>24.32218065794639</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>941158.5146892256</v>
+        <v>24.38825958373148</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1144734.478773324</v>
+        <v>24.4226667441893</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>662018.3410288652</v>
+        <v>24.33879830123349</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>566171.5672888167</v>
+        <v>24.27173204073255</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>783109.8526133635</v>
+        <v>24.29065301599273</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>367183.7995693431</v>
+        <v>24.24742994548448</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>1383745.609858463</v>
+        <v>24.31112453533759</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>1227525.378761813</v>
+        <v>24.34982904913057</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1475759.192091313</v>
+        <v>24.37643401772381</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>881185.3337423576</v>
+        <v>24.30686473875775</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>1882454.856985545</v>
+        <v>24.24051583894156</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>451401.4265292773</v>
+        <v>24.23287984573996</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>809410.6721288994</v>
+        <v>24.2410470978219</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>75373.13838847965</v>
+        <v>24.21340314702742</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-458660.5999327336</v>
+        <v>24.21278203578172</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>2417778.098546326</v>
+        <v>24.27077141112936</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>1822701.745436936</v>
+        <v>24.28894109279155</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>2324339.902543328</v>
+        <v>24.3057202508622</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>1281674.62648675</v>
+        <v>24.2655988108249</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>1026068.429248198</v>
+        <v>24.27980358404141</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>2244496.571146758</v>
+        <v>24.26760998817905</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1512055.84552083</v>
+        <v>24.2803133251861</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>1997150.578716025</v>
+        <v>24.29604357525753</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>561081.6511746889</v>
+        <v>24.25132982100595</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>934784.5951749142</v>
+        <v>24.27449646729083</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>3622609.301046812</v>
+        <v>24.26424244522245</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>1703515.785683057</v>
+        <v>24.26141933360833</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>2273904.503678902</v>
+        <v>24.27334963335226</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>279789.1080922179</v>
+        <v>24.23745850769888</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>1402228.780751491</v>
+        <v>24.26563474193825</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-181683.2322710837</v>
+        <v>24.22170448932432</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-53049.08103233737</v>
+        <v>24.23285121380216</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-534250.533202508</v>
+        <v>24.19571551366272</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>50095.65312264532</v>
+        <v>24.22623520392201</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>138347.5503539874</v>
+        <v>24.2459025199927</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>233854.6746399711</v>
+        <v>24.2586968741212</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-235224.1692640785</v>
+        <v>24.20934211229793</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>1156070.874451833</v>
+        <v>24.32487714468418</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>1462219.903718963</v>
+        <v>24.35058848612681</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>909487.4612218987</v>
+        <v>24.29808571960076</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1331138.469186421</v>
+        <v>24.31777964150033</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1377106.043032965</v>
+        <v>24.39218570497387</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1672248.948075367</v>
+        <v>24.42473753311542</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1097647.069168044</v>
+        <v>24.35827238410238</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>994962.3537228806</v>
+        <v>24.31196226830166</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>1295185.382280339</v>
+        <v>24.33646566299243</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>688248.6374009175</v>
+        <v>24.28169492593829</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>1354668.772930988</v>
+        <v>24.31657194274381</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>1302503.054293723</v>
+        <v>24.3866554521166</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>1602532.987499827</v>
+        <v>24.41889153769574</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>940301.9166401345</v>
+        <v>24.34823605954671</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>900736.6209422221</v>
+        <v>24.27851988859742</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>1258412.88100792</v>
+        <v>24.29731759111384</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>571003.3313506818</v>
+        <v>24.25597410013767</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>2172829.852857408</v>
+        <v>24.31006853822924</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>1868537.707891836</v>
+        <v>24.34988157516622</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>2247673.502989766</v>
+        <v>24.37465834543313</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>1354383.423402773</v>
+        <v>24.31409522463613</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>2717070.498949273</v>
+        <v>24.24430398211586</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>-167081.2686880906</v>
+        <v>24.23182346584348</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>202521.6317424822</v>
+        <v>24.23644232086088</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-1100009.310540658</v>
+        <v>24.2192501543571</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>1852975.756184934</v>
+        <v>24.2466629936393</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>4623666.445909603</v>
+        <v>24.26959976681909</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>2965813.096310088</v>
+        <v>24.2761402024088</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>3709460.282073709</v>
+        <v>24.28693246913506</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>1751268.466786447</v>
+        <v>24.26071649076767</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3726007.364979677</v>
+        <v>24.29852296394042</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>5809583.125158472</v>
+        <v>24.27258130761088</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>3429724.008530728</v>
+        <v>24.27609347173669</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>4265973.384966787</v>
+        <v>24.28622328606438</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>1602624.780405305</v>
+        <v>24.25639913830804</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>4079290.344432264</v>
+        <v>24.29937268606012</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>7680959.913662313</v>
+        <v>24.26816011724143</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>3141516.264529407</v>
+        <v>24.26105607443002</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>4215956.533853015</v>
+        <v>24.26877609407084</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>736737.3712221427</v>
+        <v>24.24473214156084</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5687902.305745794</v>
+        <v>24.28933071784605</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>252970.1239763703</v>
+        <v>24.23571152073316</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>365745.1408043557</v>
+        <v>24.24117921982202</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-311323.603266506</v>
+        <v>24.21783837694992</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>2042074.243601349</v>
+        <v>24.25568861520647</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>856052.7767737883</v>
+        <v>24.25180444071397</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>971871.8681766784</v>
+        <v>24.25760016815834</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>291315.9344820881</v>
+        <v>24.22686563867198</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2197575.031441868</v>
+        <v>24.31306897905793</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>2573702.48275676</v>
+        <v>24.32886242684073</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>1834422.418083595</v>
+        <v>24.29458895856982</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>3849628.607659892</v>
+        <v>24.32913484701622</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2789368.628044759</v>
+        <v>24.36514968181941</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>3206311.480002527</v>
+        <v>24.38499110740814</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>2387157.499480721</v>
+        <v>24.34225711161342</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>2246454.71539651</v>
+        <v>24.30967662719858</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>2645462.624289248</v>
+        <v>24.32471532032261</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>1776619.185175263</v>
+        <v>24.28850586374823</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>4320159.367178611</v>
+        <v>24.33340770113323</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>2894878.195944309</v>
+        <v>24.36764563756355</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>3326849.097403285</v>
+        <v>24.38739976708347</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>2328471.204130125</v>
+        <v>24.3412486046309</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>2427434.109276703</v>
+        <v>24.28455146363461</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>2993486.42613417</v>
+        <v>24.29613128119415</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>1870663.728128261</v>
+        <v>24.26875276798205</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>6304286.721038125</v>
+        <v>24.32148044142484</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>4016843.788714484</v>
+        <v>24.33578620494696</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>4612925.436456393</v>
+        <v>24.35096624611992</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>3174909.192145871</v>
+        <v>24.31076839159195</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-900317.3583140274</v>
+        <v>24.22405966678327</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-498376.6828437371</v>
+        <v>24.22295146618542</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-263319.8275186074</v>
+        <v>24.2315039425435</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-935377.2552227582</v>
+        <v>24.19996351777369</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-887869.3746756058</v>
+        <v>24.19653881880608</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>1711641.804058669</v>
+        <v>24.27006393436875</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>1864468.004166523</v>
+        <v>24.29544256427567</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2355293.64003911</v>
+        <v>24.31322185768278</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>1411758.738816918</v>
+        <v>24.26672985712587</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>869587.0119310578</v>
+        <v>24.27833152377509</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>1467266.523964977</v>
+        <v>24.26739500029388</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1457137.274835789</v>
+        <v>24.2871187665568</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1909065.546799998</v>
+        <v>24.30351261536984</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>659116.9755215741</v>
+        <v>24.25266811383917</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>858071.3461564505</v>
+        <v>24.27290240959228</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>487022.7364492211</v>
+        <v>24.25385531985406</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1046764.279075216</v>
+        <v>24.25756930680376</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1489539.266114773</v>
+        <v>24.2694696471005</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>22316.38016962317</v>
+        <v>24.23027440124461</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>286053.545656472</v>
+        <v>24.24850735536693</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-511579.9939424146</v>
+        <v>24.19840455265634</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>-414624.5101345757</v>
+        <v>24.2085670580849</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-808053.3927533746</v>
+        <v>24.17045712672712</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-379648.3378845904</v>
+        <v>24.21101308965967</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-124701.1929067779</v>
+        <v>24.22399222534834</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>-43586.20236152997</v>
+        <v>24.23544413833435</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-382652.682913624</v>
+        <v>24.18437551693211</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>842031.9113730947</v>
+        <v>24.31440656364857</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1101537.072937431</v>
+        <v>24.33965363652525</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>580245.3568890323</v>
+        <v>24.28348036818613</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1167720.915254849</v>
+        <v>24.32107961841038</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1209215.426081504</v>
+        <v>24.38739387460864</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1471538.862219895</v>
+        <v>24.41943504905051</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>965429.1075329757</v>
+        <v>24.34748715596131</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>755801.7968487142</v>
+        <v>24.30144443010867</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>997379.3353840313</v>
+        <v>24.32505768331657</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>460058.3171781725</v>
+        <v>24.26691025632062</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1198249.342965445</v>
+        <v>24.31870741398024</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1169892.318110094</v>
+        <v>24.38089820259248</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>1425129.490603033</v>
+        <v>24.41217929467119</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>857485.5036246874</v>
+        <v>24.33632172248801</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>45464.73228383988</v>
+        <v>24.25439190837555</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>253028.4129292583</v>
+        <v>24.27167127794015</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>-285462.7498320013</v>
+        <v>24.22994381151275</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>1343127.318026303</v>
+        <v>24.29209682037007</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>1248180.947116974</v>
+        <v>24.32574565971865</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1519562.493296372</v>
+        <v>24.34873888420255</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>832272.4689383903</v>
+        <v>24.28699951946186</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>-2243673.365478714</v>
+        <v>24.18319333932812</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-1560531.72709203</v>
+        <v>24.17455688440692</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1528936.18783814</v>
+        <v>24.17615390963198</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-1679812.407742657</v>
+        <v>24.16314394904904</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-1153315.874278385</v>
+        <v>24.18922147181122</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>-958433.6487289395</v>
+        <v>24.20773478888151</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>-272659.2739690919</v>
+        <v>24.22166330009746</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>-96195.96940925719</v>
+        <v>24.23074629193646</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-515582.8647925584</v>
+        <v>24.20638463387472</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>631056.002260194</v>
+        <v>24.26283846073527</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-1058169.204226855</v>
+        <v>24.20505308726069</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>-503931.8917177176</v>
+        <v>24.21361104250435</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-353873.5733590309</v>
+        <v>24.22148932062428</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-946478.3217218838</v>
+        <v>24.19294991274506</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>313812.6169904918</v>
+        <v>24.25678146198356</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1395369.300605369</v>
+        <v>24.21261164938363</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-970750.4242114398</v>
+        <v>24.20778417140994</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>-821956.8093314208</v>
+        <v>24.21299628944127</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1540508.279591343</v>
+        <v>24.19114016716261</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>596011.5403481839</v>
+        <v>24.2491842261828</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-685484.5227191515</v>
+        <v>24.18619868366746</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-618727.8939953996</v>
+        <v>24.19098889862356</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-920854.8990987135</v>
+        <v>24.16443573957169</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>-897788.3461073389</v>
+        <v>24.19735770661914</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-602921.810486275</v>
+        <v>24.20335417084841</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>-563021.2609101831</v>
+        <v>24.20897019408559</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-792046.6043401753</v>
+        <v>24.17075884810346</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>686862.7901019278</v>
+        <v>24.29266382338285</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>900436.0305029292</v>
+        <v>24.31078125188145</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>453629.8392931473</v>
+        <v>24.26929925404025</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1098975.706048167</v>
+        <v>24.30820232360435</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1143080.477409126</v>
+        <v>24.36697548592002</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1368254.42894587</v>
+        <v>24.39102756201107</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>937524.338097071</v>
+        <v>24.33564561079973</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>410142.5394765446</v>
+        <v>24.279482748452</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>581219.1873056919</v>
+        <v>24.29604839511994</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>173605.4836965895</v>
+        <v>24.25298659952146</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>1096333.92149385</v>
+        <v>24.30792540470813</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>1062857.746533674</v>
+        <v>24.36291299049399</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>1260780.655552082</v>
+        <v>24.3862690526277</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>778091.5886169858</v>
+        <v>24.32732833124047</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>321318.5386479706</v>
+        <v>24.25088216442729</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>482069.8318186685</v>
+        <v>24.26268404309362</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>15912.24344588803</v>
+        <v>24.23185681811493</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>1332426.019242831</v>
+        <v>24.29232565080513</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>1035301.907728549</v>
+        <v>24.31924429468727</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>1177685.989008337</v>
+        <v>24.33613463786301</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>533820.6645324996</v>
+        <v>24.28644629704671</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-4488853.978116978</v>
+        <v>24.21084503094021</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-3061180.86197421</v>
+        <v>24.20278811639499</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-2957742.447959357</v>
+        <v>24.20550114779701</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-3078933.915133031</v>
+        <v>24.19269374730986</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-1834585.966376074</v>
+        <v>24.19745512590298</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-1157987.708491539</v>
+        <v>24.23790034654423</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>671708.4325662388</v>
+        <v>24.24957714414509</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>1180805.771920508</v>
+        <v>24.25829917785012</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>216607.5895381983</v>
+        <v>24.23673462364299</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>575214.7668771103</v>
+        <v>24.25107540567041</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>1424368.023032913</v>
+        <v>24.24419295109604</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>2025216.342715993</v>
+        <v>24.25300957143108</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>2668155.870343423</v>
+        <v>24.2611314316114</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>986900.7351077393</v>
+        <v>24.23586510498848</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>1230453.68718224</v>
+        <v>24.25584119165043</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>1774765.01462861</v>
+        <v>24.24250733326797</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>1384893.871205241</v>
+        <v>24.23981697013832</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>2200830.531958333</v>
+        <v>24.24580958070029</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>283907.0088643212</v>
+        <v>24.22575082081342</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>1725917.6825152</v>
+        <v>24.25015677186612</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-1320145.343760674</v>
+        <v>24.19018801749878</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-1307091.007646973</v>
+        <v>24.19337672429831</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-1852379.568159431</v>
+        <v>24.1730519234766</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-1797271.91357585</v>
+        <v>24.19622354547087</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-1259061.928115292</v>
+        <v>24.19513501047051</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>-1295676.291052588</v>
+        <v>24.1982855792188</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-1729196.841424562</v>
+        <v>24.17114451794009</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>911839.3719694495</v>
+        <v>24.27011659049057</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>1202979.814082292</v>
+        <v>24.28343596560943</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>560642.5982195023</v>
+        <v>24.25229240266201</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1271208.839753926</v>
+        <v>24.27296357899046</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>1541489.891198194</v>
+        <v>24.31287736799954</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>1841669.511677091</v>
+        <v>24.32986116518079</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>1163151.24403554</v>
+        <v>24.29079025494242</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>1189381.376774418</v>
+        <v>24.27085167975286</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>1511361.350415824</v>
+        <v>24.28348257499022</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>706534.4479133226</v>
+        <v>24.25034502757571</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>1937538.34443473</v>
+        <v>24.28175984282007</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>1762503.547897406</v>
+        <v>24.3201417720928</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>2084812.983955189</v>
+        <v>24.33711604829075</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>1189096.215854174</v>
+        <v>24.29452857329169</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>963227.9462019015</v>
+        <v>24.24921857934471</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>1416014.87718433</v>
+        <v>24.25870277706265</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>381890.4035519481</v>
+        <v>24.2340951585216</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>2370482.759851061</v>
+        <v>24.2741686642821</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1841262.159244813</v>
+        <v>24.29158573958828</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>2225681.326405883</v>
+        <v>24.30433557441099</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>1011963.531833133</v>
+        <v>24.26737238816456</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>1563418.859305638</v>
+        <v>24.25515625522196</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>574769.7374414174</v>
+        <v>24.25497343874852</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>814501.9296946357</v>
+        <v>24.26429327888554</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>269666.966259397</v>
+        <v>24.23276278605619</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-238860.5626499502</v>
+        <v>24.22680550709081</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>2050146.397220097</v>
+        <v>24.2840215386952</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1641449.047057468</v>
+        <v>24.30941997292477</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>1992026.089530396</v>
+        <v>24.32711916184487</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>1160677.229304162</v>
+        <v>24.28291047973513</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>801446.8854172359</v>
+        <v>24.28831532859579</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>1957189.484086761</v>
+        <v>24.27939930350113</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>1443147.777002256</v>
+        <v>24.29883895320337</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1749352.575924528</v>
+        <v>24.31529331399894</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>615344.1287275825</v>
+        <v>24.26614102346482</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>823469.9876221865</v>
+        <v>24.28492252705556</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>2985700.359294591</v>
+        <v>24.27319178015188</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>1828175.395830585</v>
+        <v>24.27584746661118</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>2205713.182245667</v>
+        <v>24.28894322503792</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>570424.4806510626</v>
+        <v>24.2481497400027</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>1148836.85893043</v>
+        <v>24.27828500419449</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>18968.37365882268</v>
+        <v>24.23882518641553</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>149831.158637884</v>
+        <v>24.25004146105424</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-199775.6906486779</v>
+        <v>24.21328324708947</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34460.79387845659</v>
+        <v>24.23037567894684</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>195726.9664219228</v>
+        <v>24.252764563545</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>287661.4567303951</v>
+        <v>24.26540133491363</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-65847.68124744367</v>
+        <v>24.21416174017703</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>855401.7311931994</v>
+        <v>24.33388677069512</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>1084218.709345621</v>
+        <v>24.35935903268019</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>654690.3118962412</v>
+        <v>24.30712655470863</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>1063538.30928831</v>
+        <v>24.32374378061001</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>1073301.531804658</v>
+        <v>24.39962580736844</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>1300685.955839517</v>
+        <v>24.43193560169986</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>848148.2103867981</v>
+        <v>24.363115983023</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>816304.8636775746</v>
+        <v>24.32293194372019</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>1037369.917679054</v>
+        <v>24.34700090582629</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>574832.0509612106</v>
+        <v>24.29203728183779</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>1195863.48420176</v>
+        <v>24.32691235073173</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>1116782.205895954</v>
+        <v>24.39894565195003</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>1345617.011194305</v>
+        <v>24.4308214484355</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>825363.9553340636</v>
+        <v>24.35714999613564</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>889622.5789266827</v>
+        <v>24.29271906469054</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>1187417.236621583</v>
+        <v>24.31187244014408</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>600454.7429217834</v>
+        <v>24.26920989850009</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>1655064.687751442</v>
+        <v>24.31617123010874</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>1456498.356298064</v>
+        <v>24.35779925410812</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>1742999.192152124</v>
+        <v>24.38303760916261</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>1015933.377860958</v>
+        <v>24.31839600158241</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-1180963.641201049</v>
+        <v>24.2183654922597</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>-916688.193333294</v>
+        <v>24.21348012878139</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-709202.9561034089</v>
+        <v>24.22262688436316</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-1276017.157274614</v>
+        <v>24.19096401036612</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-586934.5591152142</v>
+        <v>24.20399399191677</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>1627905.183201425</v>
+        <v>24.2691948919493</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>1639156.975599084</v>
+        <v>24.29092757254575</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>2100239.114312158</v>
+        <v>24.30958833085053</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>1233270.932940199</v>
+        <v>24.26280517281985</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>849138.6372828883</v>
+        <v>24.2873808633522</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>1584875.764956519</v>
+        <v>24.26839975131656</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>1406868.820715113</v>
+        <v>24.2847926172333</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>1848604.923941035</v>
+        <v>24.30209878455022</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>676999.4878984011</v>
+        <v>24.2508317356612</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>856498.8691439305</v>
+        <v>24.28282061466906</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>1008775.346757404</v>
+        <v>24.25320321219786</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>927308.672265752</v>
+        <v>24.25423394086087</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>1383379.744928433</v>
+        <v>24.2669031231367</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-45727.32662407488</v>
+        <v>24.22725128009165</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>792659.3252377729</v>
+        <v>24.25794503453077</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-215292.4691931159</v>
+        <v>24.20658222331852</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>-95727.0630635062</v>
+        <v>24.21776884179517</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-471965.0613859887</v>
+        <v>24.17991959271752</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>-420575.2075317955</v>
+        <v>24.20754681402694</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-211481.9017230316</v>
+        <v>24.21578816793989</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>-148259.9903500945</v>
+        <v>24.22743915660313</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-479742.464900482</v>
+        <v>24.17566756743006</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>906344.5480175908</v>
+        <v>24.32425297714954</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>1174381.561326922</v>
+        <v>24.35088452256702</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>682825.1912790124</v>
+        <v>24.29480156710067</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>1125989.611297927</v>
+        <v>24.32119761319206</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>1099492.188330077</v>
+        <v>24.38283530071407</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>1341871.343512794</v>
+        <v>24.41543845764094</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>839832.8412340349</v>
+        <v>24.34258797081433</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>848624.6561336736</v>
+        <v>24.31231608637747</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>1103844.217219221</v>
+        <v>24.33733443294235</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>592215.4655663603</v>
+        <v>24.27914565857894</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1135830.733378058</v>
+        <v>24.31963325703855</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1045456.589904684</v>
+        <v>24.3773958038527</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>1279227.626292103</v>
+        <v>24.40928257092166</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>721310.5034351444</v>
+        <v>24.33239597808696</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>603067.2291861475</v>
+        <v>24.26509621552136</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>871341.7821795682</v>
+        <v>24.28360177523769</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>346156.8661234502</v>
+        <v>24.24175823491191</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>1099371.279433594</v>
+        <v>24.2905749582552</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>979929.0092212206</v>
+        <v>24.32044100597233</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>1213084.904273556</v>
+        <v>24.34394104677975</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>563430.2690828601</v>
+        <v>24.28110204227529</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.573</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.689</v>
+        <v>16.53</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.178</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.752</v>
+        <v>17.187</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.925</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.538</v>
+        <v>4.436</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.18878733809784</v>
+        <v>12.25826457352366</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.18257134904216</v>
+        <v>12.90023290991048</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.18473437695409</v>
+        <v>13.47452265412115</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.17192985615691</v>
+        <v>11.61670385013499</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.20618956556983</v>
+        <v>20.91734765941965</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.21412825050606</v>
+        <v>19.01855031410201</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.23371941724867</v>
+        <v>24.68733330600902</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>24.24401088271581</v>
+        <v>26.94969162805217</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>24.21974945646603</v>
+        <v>22.33104128015692</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>24.27836186959883</v>
+        <v>42.60645363821654</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>24.21186578232541</v>
+        <v>17.81190606024337</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.22564600845349</v>
+        <v>20.86701212297621</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>24.2349397822188</v>
+        <v>22.88981286238042</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>24.20584989178257</v>
+        <v>15.87556049491848</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>24.27209375476363</v>
+        <v>39.21253584989919</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>24.2168788785932</v>
+        <v>18.71251779664703</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.21448943357308</v>
+        <v>17.51895690719771</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>24.22091397639154</v>
+        <v>19.15934893672987</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.19838379903527</v>
+        <v>12.51346300807995</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>24.26177203742417</v>
+        <v>39.81664481867556</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.21765352276825</v>
+        <v>25.39080960008913</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>24.22379411140495</v>
+        <v>26.38332521410382</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>24.19524551761759</v>
+        <v>19.79031052922165</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.21394712677655</v>
+        <v>17.0436218880018</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.23882224060026</v>
+        <v>23.74484568301678</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>24.24691278111416</v>
+        <v>25.13339651390505</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24.20654683880212</v>
+        <v>18.42674799670939</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>24.32740745868503</v>
+        <v>51.18217548638563</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>24.34792462609568</v>
+        <v>55.62835222566692</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>24.30434603945771</v>
+        <v>47.6085972144832</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.31872146333926</v>
+        <v>47.72428546388636</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>24.40171339399584</v>
+        <v>60.63763535050323</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24.4295133554675</v>
+        <v>66.6546872552461</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.37231908643945</v>
+        <v>57.08395611449326</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.31300825691055</v>
+        <v>45.68475810746438</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>24.33226626611224</v>
+        <v>49.55682537110411</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>24.2864743832808</v>
+        <v>41.64821169028109</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>24.31797008578982</v>
+        <v>46.70501596212928</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>24.39616973449381</v>
+        <v>56.88279046154757</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>24.42361241653722</v>
+        <v>62.55200983185987</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>24.36215612027132</v>
+        <v>51.97808939960862</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>24.27648623656669</v>
+        <v>39.49467262560404</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.29062776516277</v>
+        <v>42.59783426761009</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>24.25717816389649</v>
+        <v>36.03608046626608</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.30656705567537</v>
+        <v>48.73355092350342</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>24.35134701172281</v>
+        <v>55.54506918518581</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>24.37184819178283</v>
+        <v>60.57189860080846</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>24.31911972405888</v>
+        <v>49.93159824050477</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>24.2611003386619</v>
+        <v>38.80144251792993</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>24.2578710058698</v>
+        <v>34.20305028036935</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>24.27292339723726</v>
+        <v>38.22433331888246</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24.22731748523019</v>
+        <v>27.95197157107997</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.23607947470503</v>
+        <v>24.3451452108676</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>24.28949336414263</v>
+        <v>44.57895915367479</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>24.31194481524336</v>
+        <v>46.30366974033949</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24.33645846803853</v>
+        <v>52.54871467516828</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>24.27600563450829</v>
+        <v>39.73219608445077</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>24.30778997216449</v>
+        <v>45.86685180572771</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>24.28165305247293</v>
+        <v>41.21358809143878</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>24.29742813480208</v>
+        <v>41.31486941957437</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>24.32010697173546</v>
+        <v>46.87995015386078</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.25547470639698</v>
+        <v>32.10442082782486</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.29637724736106</v>
+        <v>44.07301779184984</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>24.28185863189107</v>
+        <v>44.51306131909702</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.28340726761793</v>
+        <v>42.01800331197261</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>24.30139450895404</v>
+        <v>47.23834365383523</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>24.24956071626845</v>
+        <v>32.99496152852457</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.28188996099618</v>
+        <v>43.30675931034087</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>24.25481908898209</v>
+        <v>29.14588072574588</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>24.27236282924401</v>
+        <v>32.01975302688964</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.22043068615469</v>
+        <v>23.89721356907238</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.25585374179035</v>
+        <v>34.04140791110459</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24.28454590344804</v>
+        <v>35.66606152553571</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.30658197663657</v>
+        <v>38.90145968293722</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.23405377972346</v>
+        <v>28.21547668266982</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>24.36303902235045</v>
+        <v>50.67210718321333</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.39632361676452</v>
+        <v>56.36699411921835</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.32664358111375</v>
+        <v>44.8773783117748</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.35333022643164</v>
+        <v>53.51778066419229</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.43840691855317</v>
+        <v>59.78118647912096</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.48230993070329</v>
+        <v>67.16490165103987</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.38892936735775</v>
+        <v>52.30842947801344</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.34239117543218</v>
+        <v>47.91728393344893</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>24.37351046186955</v>
+        <v>52.98326772756747</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.30248600792851</v>
+        <v>42.12665655568304</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>24.34676820419979</v>
+        <v>52.47564134436315</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>24.42675342633165</v>
+        <v>58.0684316164471</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.46939954606062</v>
+        <v>65.14576552202882</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.37272467058859</v>
+        <v>49.94007699764563</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>24.30280756311567</v>
+        <v>43.28618512678899</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.32732052547811</v>
+        <v>47.46874955234745</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.27422959341042</v>
+        <v>39.4783805222482</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>24.33466131575177</v>
+        <v>51.91512760170482</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>24.38465053163501</v>
+        <v>56.16153910848915</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>24.41827071066245</v>
+        <v>62.46923686627633</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>24.33762067312677</v>
+        <v>49.24756915782621</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>24.23788032216173</v>
+        <v>27.97231352553902</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24.23950056862001</v>
+        <v>26.0832330236874</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24.25051584707898</v>
+        <v>28.96930265941693</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>24.21071380533524</v>
+        <v>21.0302497469193</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.23701988717752</v>
+        <v>25.86237275439346</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.27391117302538</v>
+        <v>40.36695667109325</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>24.3022900518716</v>
+        <v>45.52683555055789</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.32270898483478</v>
+        <v>50.71148147156681</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24.2675515280873</v>
+        <v>40.1505479339199</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.31487722881295</v>
+        <v>46.78983048004561</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>24.27053627471663</v>
+        <v>37.36807706881588</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>24.29239951675144</v>
+        <v>40.1621208359368</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>24.31136854947507</v>
+        <v>44.84591355130107</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.25130647785288</v>
+        <v>31.27861533280706</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>24.30958309435725</v>
+        <v>46.00962157181057</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>24.27061397580998</v>
+        <v>42.17096910691081</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.27736838037683</v>
+        <v>42.16728434942059</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.2924734989822</v>
+        <v>47.11004605782874</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.24418026974149</v>
+        <v>32.9817131351039</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>24.29390844287398</v>
+        <v>44.07823776593099</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>24.26063386798031</v>
+        <v>30.09391604957298</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>24.27641304278488</v>
+        <v>33.10338852173474</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.22541835336874</v>
+        <v>24.33849181767981</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>24.24787110353567</v>
+        <v>32.72974818748494</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>24.28423976081294</v>
+        <v>35.22856800761462</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.30467133177638</v>
+        <v>38.12634925721406</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>24.23528865045444</v>
+        <v>28.15441192393866</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>24.37518980332954</v>
+        <v>51.87603086766866</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>24.40683204487484</v>
+        <v>57.56199796070128</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>24.33698172107487</v>
+        <v>45.71461628304544</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.35428733492907</v>
+        <v>53.18938372822535</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>24.4478914481663</v>
+        <v>61.2198199570454</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>24.49038553662161</v>
+        <v>68.0315811395503</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>24.39909368288149</v>
+        <v>54.6031038085903</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.36102843171291</v>
+        <v>49.98525764567579</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>24.39093424104308</v>
+        <v>55.33199703393626</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>24.31889976163465</v>
+        <v>43.54735191686758</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>24.35490930854273</v>
+        <v>53.00099628363414</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>24.44384754188799</v>
+        <v>60.09540280554537</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>24.48556689326306</v>
+        <v>66.92811212077399</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>24.389991574189</v>
+        <v>52.46963801762997</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>24.31994703778567</v>
+        <v>44.83992166684867</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>24.34386331651706</v>
+        <v>49.95294386434816</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24.28921893969495</v>
+        <v>40.11102778264006</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.34283480828431</v>
+        <v>54.42318179491524</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>24.40098529361223</v>
+        <v>59.57401117010777</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>24.43434307347714</v>
+        <v>66.46164092174618</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.35379762438226</v>
+        <v>52.33446677092633</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.18995655738699</v>
+        <v>16.18549014334844</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>24.19799362436986</v>
+        <v>25.86484207539809</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.20170663786376</v>
+        <v>28.13071760230684</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>24.19798168353335</v>
+        <v>33.42071152106625</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>24.19537188773115</v>
+        <v>14.99264840520561</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.2199054488616</v>
+        <v>22.49615424862093</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>24.25603773076261</v>
+        <v>36.02825433516514</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.26794469216333</v>
+        <v>40.05088510238262</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24.25317129702699</v>
+        <v>40.93408277551513</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>24.27408388946024</v>
+        <v>44.66776408646618</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.21981728695796</v>
+        <v>21.3933143736625</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.25018990507268</v>
+        <v>33.04226668499278</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>24.26102877613669</v>
+        <v>36.89910083898798</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>24.24115289763778</v>
+        <v>35.75145308590659</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>24.26915967945246</v>
+        <v>40.03664301367346</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.22117630290124</v>
+        <v>23.42232800254563</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>24.23187717832802</v>
+        <v>31.69597988722987</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>24.23963072701373</v>
+        <v>35.43958986973688</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>24.22508853018701</v>
+        <v>35.66470023140894</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>24.25217314586163</v>
+        <v>34.75708670326674</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>24.21125748008783</v>
+        <v>18.7361580685527</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>24.21762321358783</v>
+        <v>19.90251933817002</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>24.1961774622999</v>
+        <v>14.13106301151194</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>24.20349148415896</v>
+        <v>17.70012514142545</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>24.23466450183311</v>
+        <v>22.9392275292157</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.24203023025314</v>
+        <v>24.39087478138018</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.21035146157822</v>
+        <v>19.76204494012752</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.3293559774306</v>
+        <v>51.12257059835484</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>24.34992371544467</v>
+        <v>55.80602202428435</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>24.313438300157</v>
+        <v>46.84181384720134</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>24.31675940866823</v>
+        <v>49.57231923914673</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>24.40834054606317</v>
+        <v>60.28072031567321</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>24.43506477033669</v>
+        <v>65.89325466722801</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.38659600123819</v>
+        <v>56.03492544797579</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>24.31647354612545</v>
+        <v>45.88400631441024</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>24.33571415655676</v>
+        <v>49.90732679008276</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>24.29679979401439</v>
+        <v>41.56550239810905</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24.31733485735273</v>
+        <v>46.27477534044426</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24.40433078134578</v>
+        <v>55.63257967739569</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>24.43060867111628</v>
+        <v>60.56804365059969</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.37768332772511</v>
+        <v>50.26627595158399</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.27072552699159</v>
+        <v>34.5923074930561</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>24.28493946649486</v>
+        <v>37.86238904131513</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>24.25773779959947</v>
+        <v>31.6559841493067</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>24.29611678854534</v>
+        <v>43.71908103915314</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.34636099325486</v>
+        <v>49.15489155886643</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>24.36599047759459</v>
+        <v>53.54506182481508</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>24.32107461910834</v>
+        <v>44.54137727477257</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.2240240437301</v>
+        <v>23.45041198380472</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.21796933896844</v>
+        <v>18.73685785348411</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>24.22804968606803</v>
+        <v>21.16416881051497</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>24.19096045813236</v>
+        <v>10.53167620245831</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.2338703869388</v>
+        <v>27.73830175974659</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>24.26219448612555</v>
+        <v>37.39357923636339</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>24.28325493286187</v>
+        <v>34.74646019681868</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.30219353214893</v>
+        <v>38.87692954899835</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>24.25067010257899</v>
+        <v>19.8001085163828</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>24.3129715518074</v>
+        <v>46.64170626325973</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>24.26234795410993</v>
+        <v>38.08834729154999</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.27812990006822</v>
+        <v>33.98794208003604</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.2960150912755</v>
+        <v>38.01559930887085</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>24.2400007874422</v>
+        <v>15.90521392449344</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>24.30880289845792</v>
+        <v>45.4593190121698</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.26179929963583</v>
+        <v>42.42050084318337</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.26114000465089</v>
+        <v>33.92642120299077</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>24.27505119229156</v>
+        <v>38.03143486458453</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.22985500152512</v>
+        <v>16.70779748449019</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.29712442463168</v>
+        <v>46.98418386310072</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>24.26005944927413</v>
+        <v>34.25972761593604</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>24.27525557709788</v>
+        <v>37.24273369901325</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.22997862017949</v>
+        <v>29.36801199020882</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.23114696852897</v>
+        <v>29.80778712465067</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>24.26653011020322</v>
+        <v>34.89019961034813</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>24.28272680997809</v>
+        <v>37.32558489641811</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>24.22612120454465</v>
+        <v>29.7035813072028</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>24.37850262174159</v>
+        <v>56.08442116250875</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>24.40873150587896</v>
+        <v>61.94402613410021</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>24.34597504450845</v>
+        <v>50.9405143156825</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>24.33362336315257</v>
+        <v>50.42051547442504</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>24.42721690900426</v>
+        <v>61.30969448232715</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.46364185791415</v>
+        <v>67.71305052126496</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.3879499750471</v>
+        <v>56.13773047055993</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.36623594606775</v>
+        <v>53.48454770515315</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>24.39519053872444</v>
+        <v>59.17216035844611</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>24.33019507000139</v>
+        <v>47.64901748480912</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>24.33357866984349</v>
+        <v>48.70293763658879</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>24.42240279102076</v>
+        <v>58.09146891090806</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>24.45844815744086</v>
+        <v>64.32091083150831</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>24.37859106556363</v>
+        <v>51.55457370098467</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>24.3260843170864</v>
+        <v>49.98782908945977</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>24.3488665714925</v>
+        <v>55.94384355625847</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>24.29920121637008</v>
+        <v>45.76804031772823</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>24.32783662605687</v>
+        <v>55.27559011798077</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.382494877987</v>
+        <v>61.29015999574146</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>24.41073717086862</v>
+        <v>68.03720430821841</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>24.34246060580801</v>
+        <v>54.77321876643796</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.24988526593703</v>
+        <v>31.32018955976076</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>24.21808216630269</v>
+        <v>21.64875073893567</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.23335341794555</v>
+        <v>24.62976647629171</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>24.16134690210202</v>
+        <v>11.39613106083956</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>24.27377962283554</v>
+        <v>33.13004435015174</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>24.2851332209998</v>
+        <v>36.72010353235894</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.28380103964519</v>
+        <v>31.45139306572328</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>24.31026553519344</v>
+        <v>34.95654116525897</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>24.21778762438613</v>
+        <v>14.44590130233813</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>24.36103655780986</v>
+        <v>48.29908702820528</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>24.28042468905219</v>
+        <v>37.46968428769193</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.27251214223244</v>
+        <v>32.44151278389983</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>24.29738116738959</v>
+        <v>35.81080744823188</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>24.19956622599511</v>
+        <v>12.06411233808195</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.35316512234063</v>
+        <v>47.59866618049882</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>24.28404975095532</v>
+        <v>43.30954553450449</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.26063890458358</v>
+        <v>35.03180725078179</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>24.28061671554279</v>
+        <v>39.04322147245462</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.20039260195442</v>
+        <v>14.552516229615</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>24.3368070016443</v>
+        <v>49.28419067269375</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>24.30467068904034</v>
+        <v>37.55573334998024</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>24.33262808361632</v>
+        <v>41.66469629159241</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>24.25433996531091</v>
+        <v>32.54433251401053</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>24.26439695402901</v>
+        <v>34.03905672608323</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>24.30705641664253</v>
+        <v>37.38152994186959</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.33669322239017</v>
+        <v>40.72847837135237</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.24153216167938</v>
+        <v>30.91531141928339</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>24.43901624139876</v>
+        <v>55.08996155387105</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>24.48666481789869</v>
+        <v>61.53512849492303</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.38454238241324</v>
+        <v>49.20012676426398</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>24.38285981155791</v>
+        <v>51.23979033478017</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>24.49714317121655</v>
+        <v>59.33456509847554</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.55346098560041</v>
+        <v>66.0842054835914</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.4321261609578</v>
+        <v>53.09101739102245</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>24.4208229194353</v>
+        <v>53.75347587507016</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.46647079129132</v>
+        <v>60.17196901177267</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>24.3619290349247</v>
+        <v>47.51488383627085</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>24.3819074384172</v>
+        <v>52.45712546559396</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>24.49089255089804</v>
+        <v>60.24377555158693</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>24.54646979136469</v>
+        <v>67.09029207155697</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.42021727926777</v>
+        <v>53.25267487127806</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.36954521502981</v>
+        <v>51.93873861229969</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>24.406593251381</v>
+        <v>58.16871114877085</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.32479028394794</v>
+        <v>47.39812607051822</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>24.37546464171396</v>
+        <v>53.56667653870429</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.44303705495994</v>
+        <v>58.99307170564165</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.48784293270507</v>
+        <v>65.62949261185877</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>24.37986934920857</v>
+        <v>51.70735615679543</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.16826152688952</v>
+        <v>10.99104031381197</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>24.1600779562326</v>
+        <v>12.27510478124108</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.16055021710361</v>
+        <v>12.67278438324022</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>24.1445411407801</v>
+        <v>10.09545738902712</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>24.20384260821858</v>
+        <v>19.52852194952506</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.18764633984279</v>
+        <v>15.57416159212598</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>24.20738105452388</v>
+        <v>20.86662389387146</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>24.21756795403482</v>
+        <v>22.59641028586313</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>24.18690462231247</v>
+        <v>17.47674082409163</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>24.28767970147797</v>
+        <v>36.71136134261246</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>24.17937432829822</v>
+        <v>13.40665516367608</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>24.19022777697621</v>
+        <v>16.86396758060354</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>24.19878426541986</v>
+        <v>18.16766370328974</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.16188315976118</v>
+        <v>11.17855068270373</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>24.2794863077729</v>
+        <v>35.13530157235775</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>24.19179668601728</v>
+        <v>13.66973088019442</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>24.18488834262606</v>
+        <v>15.35729177212725</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.19084650484168</v>
+        <v>16.58307933554061</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.16167939825273</v>
+        <v>10.04824805720001</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>24.26828838092748</v>
+        <v>33.06073327019737</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>24.214316645525</v>
+        <v>22.78935309088804</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.22463720907447</v>
+        <v>24.37273559679356</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>24.18211260828738</v>
+        <v>18.52235061710877</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>24.20487119912022</v>
+        <v>20.16058805424888</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>24.24095805486441</v>
+        <v>25.5085419762232</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.25643623643865</v>
+        <v>27.24621167770703</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>24.19849276831195</v>
+        <v>20.73240451742311</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.33939701337612</v>
+        <v>40.48835417201069</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>24.36801033456605</v>
+        <v>44.34123986779785</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>24.30516008143845</v>
+        <v>36.24766001891523</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>24.34377229574237</v>
+        <v>44.93175673747258</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>24.45029934529539</v>
+        <v>53.73008214229134</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.49147076165973</v>
+        <v>59.0462932120379</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>24.41055769703524</v>
+        <v>49.89427365656462</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>24.31997758509954</v>
+        <v>37.67062205608052</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>24.34644135830831</v>
+        <v>41.0463948351512</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.28105933647867</v>
+        <v>33.33716819379845</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>24.34813593189345</v>
+        <v>46.01365652307152</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.44859606095022</v>
+        <v>53.50452683271021</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>24.48883763613818</v>
+        <v>58.76000260805881</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>24.4024597401039</v>
+        <v>48.84548383725148</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>24.27925284486209</v>
+        <v>32.98213064264049</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>24.29942711288912</v>
+        <v>36.03148876974537</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.25078730614632</v>
+        <v>29.72544630437688</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>24.33497042338381</v>
+        <v>47.52277928267799</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.39554827792719</v>
+        <v>53.86697223918021</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>24.42681776883357</v>
+        <v>59.16456793691471</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>24.35232183512581</v>
+        <v>48.61385626682402</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>24.16769883122748</v>
+        <v>8.120321397739332</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>24.15060199597973</v>
+        <v>9.81463907088121</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.14990087527741</v>
+        <v>10.00132340968505</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.13560632720783</v>
+        <v>10.33702015703909</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>24.14730095227852</v>
+        <v>9.630880179502526</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>24.18565613175494</v>
+        <v>11.69585194854844</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.19407195372493</v>
+        <v>15.56733223799256</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>24.20170230274661</v>
+        <v>17.27842351622101</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>24.17425363809891</v>
+        <v>14.27080941236245</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.19840878528393</v>
+        <v>18.41010944422705</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>24.18591637762216</v>
+        <v>11.05493263861921</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.18824308482615</v>
+        <v>12.6816411526723</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>24.19475406297026</v>
+        <v>14.23344448625126</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>24.16174645600856</v>
+        <v>9.403748629662552</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.19360031987291</v>
+        <v>16.84267251732792</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>24.19426769379449</v>
+        <v>9.52871278346618</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>24.18104760820936</v>
+        <v>8.897499864186219</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.18518051087994</v>
+        <v>9.781892359099743</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>24.15985481437672</v>
+        <v>6.257439286426155</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>24.19646074738903</v>
+        <v>12.24985770803212</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>24.14008429740617</v>
+        <v>14.64712400712747</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.13741752935872</v>
+        <v>14.16188220270085</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.11432471917369</v>
+        <v>10.1760474477713</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>24.16380238936212</v>
+        <v>13.86639006443473</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>24.1673517314524</v>
+        <v>15.71692468242743</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>24.16466548036044</v>
+        <v>15.17824952853797</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.12660196577218</v>
+        <v>9.022112808050895</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>24.22595674520337</v>
+        <v>23.85591572231496</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>24.23760245554033</v>
+        <v>25.43581785226802</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.19806222788401</v>
+        <v>18.49907634742518</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>24.24837851541539</v>
+        <v>33.82407604730184</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>24.30870957569933</v>
+        <v>37.2567414798571</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>24.32613446457368</v>
+        <v>39.92670706635345</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>24.26945698019949</v>
+        <v>29.46306769876542</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>24.21235698383153</v>
+        <v>20.06689895484752</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.22272808255591</v>
+        <v>21.1991391354365</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.18030660309141</v>
+        <v>14.33319035997189</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.24830960049236</v>
+        <v>32.64926422366236</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>24.30376449483601</v>
+        <v>32.51345092345692</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>24.32094114883663</v>
+        <v>34.40244604429816</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.25923312693272</v>
+        <v>22.7969335556861</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.19150697484069</v>
+        <v>12.27643976057122</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>24.19841837433465</v>
+        <v>13.16483962037578</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.16891605297904</v>
+        <v>9.585763937848483</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>24.24987851330732</v>
+        <v>34.20401693378306</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>24.27470155990665</v>
+        <v>32.22535876291877</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.28670769964288</v>
+        <v>33.49784366847955</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>24.23426587619593</v>
+        <v>23.05487591163505</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>24.27598249853241</v>
+        <v>40.03998239441986</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.26919558470365</v>
+        <v>31.51250796191336</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>24.28344032155429</v>
+        <v>34.70010505509056</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.23439884492732</v>
+        <v>29.36377856601089</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>24.21649633609351</v>
+        <v>23.20801707977114</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>24.31466109158362</v>
+        <v>48.56470727908232</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>24.33859283821207</v>
+        <v>50.40196986273544</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.36379437559937</v>
+        <v>55.76678631682973</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.2978695559904</v>
+        <v>46.20782096253163</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>24.29922609470938</v>
+        <v>40.5935403908002</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>24.30600522366276</v>
+        <v>46.0170270776311</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.32236655755152</v>
+        <v>46.85685089788255</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.34602305649608</v>
+        <v>51.68013454042552</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.27438970704546</v>
+        <v>38.90304908187689</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>24.29326557810024</v>
+        <v>39.81720711865169</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>24.29674344591165</v>
+        <v>47.62853984695241</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>24.29496997557548</v>
+        <v>43.34991354818614</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>24.31378061283679</v>
+        <v>47.39216608460133</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.25502853771637</v>
+        <v>33.97989813567447</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>24.27672354005147</v>
+        <v>37.55115702794069</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.23262168242327</v>
+        <v>26.48386685225838</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.2518547495326</v>
+        <v>29.49357453244479</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>24.19463153593</v>
+        <v>22.13965043590834</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>24.25011599507922</v>
+        <v>32.50177712205411</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>24.2801074692438</v>
+        <v>34.62183497220548</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>24.30259674977908</v>
+        <v>37.36741526486271</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>24.22907783188161</v>
+        <v>28.97957074482687</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.35708218075077</v>
+        <v>45.89538821544888</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>24.39465964797335</v>
+        <v>51.0876375143617</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>24.31716888564206</v>
+        <v>41.55524273557697</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>24.36227904872067</v>
+        <v>50.03448641553167</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>24.45647652725717</v>
+        <v>56.67362537800432</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>24.50410106662529</v>
+        <v>62.81561801971386</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.40769691588495</v>
+        <v>51.74888541335542</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>24.34137909652507</v>
+        <v>43.99817912787269</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.37721603320516</v>
+        <v>48.88682099426812</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>24.2968553923276</v>
+        <v>39.25742419011318</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>24.36248276506311</v>
+        <v>51.14110262216889</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.45165242544268</v>
+        <v>56.85368619647723</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>24.49874006411295</v>
+        <v>63.0026125594113</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>24.39691067646819</v>
+        <v>51.03601877598405</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>24.29567614130737</v>
+        <v>37.61839198358142</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.32437487517591</v>
+        <v>42.15265107755999</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.26215001459927</v>
+        <v>34.057579447739</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>24.35146669788663</v>
+        <v>51.3763252756976</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>24.4062345295723</v>
+        <v>55.84692659535327</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.44387484280915</v>
+        <v>61.79709754895452</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>24.35636310371777</v>
+        <v>49.87391005464017</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>24.15864041341557</v>
+        <v>6.545656650969612</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.14945554221575</v>
+        <v>8.259639385645592</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>24.14774141516584</v>
+        <v>8.216233216698146</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.1390719385164</v>
+        <v>6.430631204036374</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>24.15950795265865</v>
+        <v>9.485305778641496</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>24.18553940741924</v>
+        <v>14.98342657833121</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>24.20180230322719</v>
+        <v>19.29373672850127</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>24.20854118508798</v>
+        <v>20.77192854803667</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.18643899550495</v>
+        <v>16.78657183308528</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.24304373348456</v>
+        <v>31.94528480188352</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>24.17857118222445</v>
+        <v>12.93710513113983</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>24.18713386234047</v>
+        <v>15.19770759530352</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>24.19207909132192</v>
+        <v>16.12930776023601</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>24.1650496380361</v>
+        <v>10.83491495103155</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.22818596224469</v>
+        <v>27.70271195021655</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>24.18406162578179</v>
+        <v>10.18305334719575</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.1767222065185</v>
+        <v>11.87489037746402</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.17911524599522</v>
+        <v>12.60507695313741</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.16009325152648</v>
+        <v>8.712828436242752</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.20656746097936</v>
+        <v>19.68033143119882</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.15339236913213</v>
+        <v>12.63111729240334</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.15398522672661</v>
+        <v>13.31504460876963</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.12811395171426</v>
+        <v>9.428358069059193</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>24.18363872238711</v>
+        <v>10.56877092433048</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>24.19536297737432</v>
+        <v>15.04058021393904</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.19754187611581</v>
+        <v>15.45164749397737</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>24.15541668043671</v>
+        <v>12.24097124912926</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>24.27340345328619</v>
+        <v>34.1066271733713</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.28924650796119</v>
+        <v>37.00842772812676</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>24.24549827378901</v>
+        <v>30.02108136235559</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>24.31490454361255</v>
+        <v>42.9905467344693</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.38783742544967</v>
+        <v>50.12083181425864</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>24.41146588409663</v>
+        <v>53.81827384015986</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>24.34826725175235</v>
+        <v>45.67011045267883</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.24791748978447</v>
+        <v>28.20391922197017</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>24.26139499542605</v>
+        <v>30.13018380583007</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.2160740152381</v>
+        <v>24.39121434585094</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>24.30778529129937</v>
+        <v>40.84324505220706</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.3743245727676</v>
+        <v>45.62845173880626</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.39658241006201</v>
+        <v>48.38199946082759</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.3294190399015</v>
+        <v>39.80187680460732</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.20063816187753</v>
+        <v>17.25350085890232</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>24.20914491790786</v>
+        <v>18.47270742192397</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>24.17925424328924</v>
+        <v>15.46661930505546</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>24.27753634323621</v>
+        <v>38.12218076874689</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>24.30971583279825</v>
+        <v>40.46686437759899</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>24.32493635583402</v>
+        <v>42.65360434501279</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>24.27025384304926</v>
+        <v>34.99576253467007</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>24.14667561045825</v>
+        <v>2.298932450206213</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>24.1271522102422</v>
+        <v>1.951328680208888</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.13126777248588</v>
+        <v>1.512523833841072</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>24.10460377460864</v>
+        <v>2.010058503484551</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.21512815408909</v>
+        <v>23.47948561217444</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.1637756258712</v>
+        <v>6.194204747061768</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>24.16802289561508</v>
+        <v>9.509799024499792</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>24.18068926173435</v>
+        <v>10.05513967037533</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>24.13923814182904</v>
+        <v>7.754359299751307</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>24.28016924599638</v>
+        <v>39.05732445474813</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>24.16666775909723</v>
+        <v>8.497312421762338</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.1654483426</v>
+        <v>10.19064307916731</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.17675120415877</v>
+        <v>10.2945135548609</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>24.1300751668402</v>
+        <v>5.530494131882016</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>24.27715957422321</v>
+        <v>39.39779342270487</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>24.1891896367162</v>
+        <v>11.82748863804524</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.17664908823432</v>
+        <v>12.03840706411899</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.1853581091136</v>
+        <v>12.64446285107802</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.14889039452812</v>
+        <v>8.693778822382889</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>24.27080313212876</v>
+        <v>37.64880991871378</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.23293853001051</v>
+        <v>26.62482927215989</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.24501700400642</v>
+        <v>28.83555483381544</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>24.20613154187127</v>
+        <v>22.26686573864662</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.23011263264879</v>
+        <v>26.28848214487248</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>24.26463047308413</v>
+        <v>28.88191074974321</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>24.2816112710363</v>
+        <v>31.04145140066753</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>24.22284459577111</v>
+        <v>23.05640435677772</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>24.33399202466545</v>
+        <v>43.0215982949869</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>24.36149569010844</v>
+        <v>47.68561363091369</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>24.3041221561018</v>
+        <v>38.06480276965598</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>24.32901379738113</v>
+        <v>47.72333666098694</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>24.42160785480675</v>
+        <v>55.16189938401214</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.46035866254784</v>
+        <v>61.27897373593879</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>24.38000899281225</v>
+        <v>49.33643152799849</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.32246035006953</v>
+        <v>42.70248177021783</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>24.34818458378189</v>
+        <v>47.12117121105909</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>24.28842505347304</v>
+        <v>37.53826489802274</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>24.33324684017325</v>
+        <v>50.06365282393524</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.42174149924715</v>
+        <v>57.14595839145787</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.45965504975322</v>
+        <v>63.3882045855552</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>24.37490790948164</v>
+        <v>50.41993973277992</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>24.29089103295639</v>
+        <v>38.46806484047687</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.31126115508102</v>
+        <v>42.62816308135334</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>24.26775176103448</v>
+        <v>35.29549092392089</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>24.32710272753223</v>
+        <v>50.69023957814371</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>24.38362943712769</v>
+        <v>56.48503272187364</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>24.41373108138027</v>
+        <v>62.89069869550734</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.34288411435971</v>
+        <v>50.53890062411579</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.18408624776639</v>
+        <v>10.62147023054955</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>24.17797083424903</v>
+        <v>13.309563219262</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.17814411722562</v>
+        <v>13.35918197008353</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.16665790428113</v>
+        <v>12.11374334519288</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>24.15178268422541</v>
+        <v>5.844009582303521</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.19912913011644</v>
+        <v>16.92821362766432</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>24.21558576359073</v>
+        <v>23.36670948252453</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.22285300791085</v>
+        <v>24.99461425026265</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>24.19955200050926</v>
+        <v>21.40938894333751</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>24.2007945868763</v>
+        <v>21.1559051275892</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>24.19633758905781</v>
+        <v>15.99083319920027</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>24.20626213413166</v>
+        <v>20.47462347430088</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>24.21204594910838</v>
+        <v>21.71798355829404</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>24.18364423191997</v>
+        <v>16.22290156729674</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.19392894802971</v>
+        <v>19.597101073564</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>24.20102823487342</v>
+        <v>14.54486568771461</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>24.19618872126463</v>
+        <v>17.13455239152103</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>24.2003612562455</v>
+        <v>18.40782713630954</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>24.17867240165389</v>
+        <v>13.78839569818799</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.18928183365297</v>
+        <v>15.36235613781262</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.14027109222442</v>
+        <v>8.500095550131778</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.13925612742802</v>
+        <v>8.338233904815194</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>24.12014754273168</v>
+        <v>5.806534311662471</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.18489795965065</v>
+        <v>15.59298006677894</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.19601213992051</v>
+        <v>19.1824092192176</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>24.19971832739028</v>
+        <v>20.0715592630663</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.16226877529766</v>
+        <v>15.28693329725537</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>24.21882857989285</v>
+        <v>23.7171639785855</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.23029260932181</v>
+        <v>25.40715565494427</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.19645587583228</v>
+        <v>20.52299812350812</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>24.26734877985538</v>
+        <v>33.65095124550609</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>24.32959774331433</v>
+        <v>41.57034504433393</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>24.35150118008228</v>
+        <v>45.29993802804022</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>24.29625801489809</v>
+        <v>36.67211375435849</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>24.20327998582593</v>
+        <v>21.26966889994018</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>24.21293446061126</v>
+        <v>22.49795293738001</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.1767198394855</v>
+        <v>17.89908630725077</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.26674037673188</v>
+        <v>33.77030486062918</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>24.32419473980617</v>
+        <v>40.81614138771246</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.34517400684809</v>
+        <v>44.31853316558246</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>24.2854007943643</v>
+        <v>34.76128617073783</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.1780007593199</v>
+        <v>14.05688078306207</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.18498686171052</v>
+        <v>15.0050251454132</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.1605215177973</v>
+        <v>11.92214804558068</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>24.25725094770718</v>
+        <v>32.18774855513132</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.28608774532274</v>
+        <v>36.72115661157643</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.30228430011687</v>
+        <v>40.19233500885937</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>24.2519674254521</v>
+        <v>31.62417800166234</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.14962153015534</v>
+        <v>3.13699947783665</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.13577554361022</v>
+        <v>5.69628239846778</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>24.13317146597514</v>
+        <v>5.276396998611517</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.13437726125742</v>
+        <v>6.061796864937634</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.11501124307795</v>
+        <v>-0.4099468250470686</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>24.14980628607474</v>
+        <v>5.438893394015309</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.15611916166141</v>
+        <v>10.40021475781295</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.15996630957991</v>
+        <v>10.85440598137947</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>24.15039452386193</v>
+        <v>9.771374956806682</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>24.13849088130275</v>
+        <v>6.852182772828403</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.15087480057449</v>
+        <v>5.955292327946715</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.15138450611357</v>
+        <v>9.515013698854236</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>24.15372222106149</v>
+        <v>9.664690120998308</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.13885338652581</v>
+        <v>7.182959402636563</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.13371945725649</v>
+        <v>5.049539835429464</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>24.17063341264866</v>
+        <v>6.662082980908</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>24.1592926834536</v>
+        <v>9.269436848688844</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.16071896980135</v>
+        <v>9.834542937404628</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>24.15080883363562</v>
+        <v>8.167444622441579</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>24.15226383971794</v>
+        <v>4.027029028772368</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>24.09583599610976</v>
+        <v>3.008565686846289</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>24.09213338790567</v>
+        <v>2.524887773244767</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>24.08728075627615</v>
+        <v>2.399846824797216</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.14783663336754</v>
+        <v>10.57712891361364</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.15231961223135</v>
+        <v>13.96597387157745</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.1518846398027</v>
+        <v>14.1438812127727</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.13147491447461</v>
+        <v>11.94845749578997</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>24.14509264425811</v>
+        <v>9.316730280542338</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>24.15309441398391</v>
+        <v>9.971596692475668</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>24.13475636864239</v>
+        <v>8.217450448920999</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.20844947929496</v>
+        <v>22.89171582633581</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>24.26131285049704</v>
+        <v>29.82344736176551</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>24.27828795985272</v>
+        <v>31.95833534855065</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.2414480537623</v>
+        <v>26.92543766344767</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.13214964315339</v>
+        <v>7.003246829811662</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>24.1382565072245</v>
+        <v>7.166168757211015</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.11742128361365</v>
+        <v>6.175682363420858</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>24.210171905561</v>
+        <v>23.21540623829025</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>24.25884475981665</v>
+        <v>29.41558869123664</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.27483342355168</v>
+        <v>31.24877162599347</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>24.23332123473193</v>
+        <v>25.72541869235576</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>24.13414970627673</v>
+        <v>4.756473903852072</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.13839742474912</v>
+        <v>5.066945991172766</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.12739945820228</v>
+        <v>5.312327442471819</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.22031004040267</v>
+        <v>23.37712376869714</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.24352275210835</v>
+        <v>27.30722352615371</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.25569265197571</v>
+        <v>29.51034624000981</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.22139637200119</v>
+        <v>24.58878620780849</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>24.21151407839319</v>
+        <v>16.92500259805256</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.21650897136863</v>
+        <v>19.885648167318</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.22108677314106</v>
+        <v>21.42960178728443</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.20910074150576</v>
+        <v>19.75149730281346</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>24.15388302419488</v>
+        <v>6.424208597970278</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.25337052048143</v>
+        <v>32.85387318252534</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>24.2917399430373</v>
+        <v>43.38743047761877</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>24.30590337469169</v>
+        <v>47.45804345810681</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>24.28078705597122</v>
+        <v>42.84142284079209</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.23397775886939</v>
+        <v>24.49928263128972</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>24.25539506649977</v>
+        <v>35.96477715297132</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>24.28794908021854</v>
+        <v>44.70078002576822</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>24.30090302556189</v>
+        <v>48.69318625104076</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>24.27021655331518</v>
+        <v>42.2761771185628</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>24.23594531453348</v>
+        <v>25.93492911630971</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.23986242262269</v>
+        <v>29.16056626688014</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.24824399202364</v>
+        <v>31.92880563028758</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>24.257334435298</v>
+        <v>34.63404718474953</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>24.23418428242189</v>
+        <v>30.36532808411797</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.22175627752603</v>
+        <v>25.452107131903</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.15705327316616</v>
+        <v>10.35456471732467</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.16184217469648</v>
+        <v>10.76590146435797</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.14144287219551</v>
+        <v>7.92651376958645</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>24.18634889960895</v>
+        <v>15.43500612111132</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>24.20441727979668</v>
+        <v>17.98764410222313</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>24.21085298799691</v>
+        <v>18.85521972823438</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>24.17398337915757</v>
+        <v>13.80301922995684</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>24.28110596550352</v>
+        <v>33.91419222803718</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.30200805167507</v>
+        <v>37.29942263013685</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>24.26533379007181</v>
+        <v>32.62039217319072</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>24.30707354670296</v>
+        <v>42.64292704631097</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>24.3927760581831</v>
+        <v>52.61948453253396</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.42138128999867</v>
+        <v>57.81486696131149</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>24.36581419972754</v>
+        <v>49.38099854946675</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.27568510020399</v>
+        <v>33.84549337229943</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>24.29521410089931</v>
+        <v>36.82941686918039</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.25564444638665</v>
+        <v>32.12022139740095</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>24.31515473275022</v>
+        <v>44.25291341845283</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>24.39747367798854</v>
+        <v>52.23562943813385</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>24.4257447390759</v>
+        <v>57.13461863722908</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.36500780018203</v>
+        <v>47.63641220531461</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>24.2301547858641</v>
+        <v>26.08728910163913</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>24.24414609983066</v>
+        <v>28.42311341215475</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.216961802133</v>
+        <v>25.05165322423329</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.29227885746359</v>
+        <v>42.4540909023189</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>24.33455052889482</v>
+        <v>45.18070949732996</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>24.35523004152491</v>
+        <v>48.95816859028069</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>24.30342697968599</v>
+        <v>39.57135752369277</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>24.25274929624223</v>
+        <v>35.65364319151017</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>24.25560528180273</v>
+        <v>35.20156405179097</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.26658972764902</v>
+        <v>38.09815084005059</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>24.23072731527125</v>
+        <v>28.78808179201986</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>24.21462093086264</v>
+        <v>21.33020950131881</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>24.28221257329884</v>
+        <v>43.77439746583128</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>24.30980355374714</v>
+        <v>49.06576826643736</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>24.32952641664446</v>
+        <v>54.13087531049344</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>24.27993541658008</v>
+        <v>43.92107548503822</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.28437432066178</v>
+        <v>39.01914103614787</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>24.27507370946102</v>
+        <v>40.88355775511668</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.29613242486423</v>
+        <v>44.18576949098047</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>24.31417330424688</v>
+        <v>48.61200078966358</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>24.26044159829142</v>
+        <v>36.68113020973558</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>24.2735561276635</v>
+        <v>38.06140656132905</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>24.27359057339717</v>
+        <v>41.92274070445367</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>24.28003007292363</v>
+        <v>43.50039489472192</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>24.29409121309813</v>
+        <v>47.69931497711637</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>24.2515463634799</v>
+        <v>35.48933305652754</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>24.26179492853022</v>
+        <v>36.00012669042734</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.22146496320908</v>
+        <v>24.51013521571931</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>24.23346288641445</v>
+        <v>26.46762810617978</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>24.19207752849519</v>
+        <v>20.30551660433621</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>24.23266280907616</v>
+        <v>28.09618076797316</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>24.25046671965322</v>
+        <v>30.41644597840052</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>24.26567593952405</v>
+        <v>32.29819615259748</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.20475527870025</v>
+        <v>24.52848293102469</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>24.32480375658395</v>
+        <v>42.45533110092853</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>24.35135837264646</v>
+        <v>46.89433100191006</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>24.29346441889078</v>
+        <v>38.18659240389235</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.32915953460678</v>
+        <v>47.56240987324604</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>24.40008644302396</v>
+        <v>53.88839151049437</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.43564222710765</v>
+        <v>59.42271604856274</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.35509111950537</v>
+        <v>47.9381208876772</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.30539239798896</v>
+        <v>40.83803400086916</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>24.32993213732989</v>
+        <v>44.74170605654781</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>24.27061274860053</v>
+        <v>36.33751597124152</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>24.32218065794639</v>
+        <v>46.0226626742154</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>24.38825958373148</v>
+        <v>51.472884013285</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>24.4226667441893</v>
+        <v>56.68094541342637</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>24.33879830123349</v>
+        <v>44.61632434763941</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>24.27173204073255</v>
+        <v>35.8577023894549</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>24.29065301599273</v>
+        <v>39.10009305316866</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>24.24742994548448</v>
+        <v>32.97583729417553</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>24.31112453533759</v>
+        <v>46.32558758463494</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>24.34982904913057</v>
+        <v>50.04821830077938</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>24.37643401772381</v>
+        <v>54.62911294944207</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.30686473875775</v>
+        <v>43.93018671284676</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.24051583894156</v>
+        <v>39.19883101146441</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.23287984573996</v>
+        <v>31.21371437060681</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>24.2410470978219</v>
+        <v>34.24172662777625</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>24.21340314702742</v>
+        <v>28.04400969512054</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>24.21278203578172</v>
+        <v>22.42614446081519</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.27077141112936</v>
+        <v>44.71500942095835</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>24.28894109279155</v>
+        <v>45.00834447829909</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.3057202508622</v>
+        <v>49.85562215768803</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.2655988108249</v>
+        <v>39.98861150092073</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>24.27980358404141</v>
+        <v>40.09702543844537</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.26760998817905</v>
+        <v>42.74379597780009</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.2803133251861</v>
+        <v>41.34326310124484</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.29604357525753</v>
+        <v>45.81786742842726</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.25132982100595</v>
+        <v>32.65828510631894</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>24.27449646729083</v>
+        <v>38.44171351634429</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.26424244522245</v>
+        <v>45.26458790820678</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.26141933360833</v>
+        <v>38.73065218120288</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>24.27334963335226</v>
+        <v>42.52588807966615</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>24.23745850769888</v>
+        <v>29.28878833932938</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>24.26563474193825</v>
+        <v>39.3481222496208</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.22170448932432</v>
+        <v>24.74016576569177</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>24.23285121380216</v>
+        <v>26.6202699636181</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>24.19571551366272</v>
+        <v>19.45582439366902</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>24.22623520392201</v>
+        <v>28.0658407818913</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.2459025199927</v>
+        <v>29.89218429043543</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>24.2586968741212</v>
+        <v>31.61572533659711</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>24.20934211229793</v>
+        <v>23.07927661832297</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.32487714468418</v>
+        <v>46.69987243230204</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>24.35058848612681</v>
+        <v>51.81200926554155</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>24.29808571960076</v>
+        <v>42.837624534675</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>24.31777964150033</v>
+        <v>47.74055468088873</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>24.39218570497387</v>
+        <v>55.78754477135748</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>24.42473753311542</v>
+        <v>61.87256685618155</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>24.35827238410238</v>
+        <v>50.40624179438636</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>24.31196226830166</v>
+        <v>43.25536717159947</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>24.33646566299243</v>
+        <v>48.0409443877116</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.28169492593829</v>
+        <v>38.55071557229461</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.31657194274381</v>
+        <v>47.16018867372271</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>24.3866554521166</v>
+        <v>53.03025427810519</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>24.41889153769574</v>
+        <v>58.93518952794413</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>24.34823605954671</v>
+        <v>46.21275973354274</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.27851988859742</v>
+        <v>37.75257104381377</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.29731759111384</v>
+        <v>41.8652064659518</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>24.25597410013767</v>
+        <v>34.07157686887646</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>24.31006853822924</v>
+        <v>50.2632835211858</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>24.34988157516622</v>
+        <v>53.92288920684268</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.37465834543313</v>
+        <v>59.30540252581319</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>24.31409522463613</v>
+        <v>46.94672016912108</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>24.24430398211586</v>
+        <v>37.18187158634034</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>24.23182346584348</v>
+        <v>26.58414061565139</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>24.23644232086088</v>
+        <v>28.37983973725833</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>24.2192501543571</v>
+        <v>21.96172208173562</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.2466629936393</v>
+        <v>38.92862956705354</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.26959976681909</v>
+        <v>46.42124235317571</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>24.2761402024088</v>
+        <v>43.8580047309968</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>24.28693246913506</v>
+        <v>47.98571387559147</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>24.26071649076767</v>
+        <v>37.27989988323153</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>24.29852296394042</v>
+        <v>53.89007987321961</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.27258130761088</v>
+        <v>50.21569440181526</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.27609347173669</v>
+        <v>45.56869455908144</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.28622328606438</v>
+        <v>49.99966343036704</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>24.25639913830804</v>
+        <v>36.03031266110448</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>24.29937268606012</v>
+        <v>55.08522165690431</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.26816011724143</v>
+        <v>49.15909457692032</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.26105607443002</v>
+        <v>39.40313220866599</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.26877609407084</v>
+        <v>43.50975618762746</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>24.24473214156084</v>
+        <v>30.25914116363493</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.28933071784605</v>
+        <v>55.24559286837935</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.23571152073316</v>
+        <v>29.51967911951657</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.24117921982202</v>
+        <v>30.46651203582038</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.21783837694992</v>
+        <v>24.73806333866625</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.25568861520647</v>
+        <v>43.08844627676064</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.25180444071397</v>
+        <v>36.26978317475094</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.25760016815834</v>
+        <v>37.47039005742327</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.22686563867198</v>
+        <v>30.46634591697733</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.31306897905793</v>
+        <v>48.47467578886505</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.32886242684073</v>
+        <v>52.08245064438435</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>24.29458895856982</v>
+        <v>45.28709464759584</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.32913484701622</v>
+        <v>61.19346972011698</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>24.36514968181941</v>
+        <v>60.43041899122447</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.38499110740814</v>
+        <v>65.36830610320274</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>24.34225711161342</v>
+        <v>56.1421764778314</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.30967662719858</v>
+        <v>47.96523581138185</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.32471532032261</v>
+        <v>51.61871504913292</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>24.28850586374823</v>
+        <v>43.93664742741458</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.33340770113323</v>
+        <v>63.60246929312513</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>24.36764563756355</v>
+        <v>60.12343420939757</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>24.38739976708347</v>
+        <v>65.00703168266682</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.3412486046309</v>
+        <v>54.16243532553889</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.28455146363461</v>
+        <v>43.42875979501997</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.29613128119415</v>
+        <v>47.16746722838764</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>24.26875276798205</v>
+        <v>39.95902554258865</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>24.32148044142484</v>
+        <v>65.50810911614339</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>24.33578620494696</v>
+        <v>60.15325664142824</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>24.35096624611992</v>
+        <v>65.01431559520137</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.31076839159195</v>
+        <v>53.72243869479266</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>24.22405966678327</v>
+        <v>21.22465801744183</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.22295146618542</v>
+        <v>22.78762083080337</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.2315039425435</v>
+        <v>24.96103462810579</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.19996351777369</v>
+        <v>18.60159574495966</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.19653881880608</v>
+        <v>16.87889069345232</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.27006393436875</v>
+        <v>40.7996722411698</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.29544256427567</v>
+        <v>47.09130337412953</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>24.31322185768278</v>
+        <v>52.27620696126192</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>24.26672985712587</v>
+        <v>42.55970375901332</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>24.27833152377509</v>
+        <v>39.16337552790256</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.26739500029388</v>
+        <v>38.36431032175414</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>24.2871187665568</v>
+        <v>42.0895723834766</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.30351261536984</v>
+        <v>46.6468312812363</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>24.25266811383917</v>
+        <v>34.15402061369602</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.27290240959228</v>
+        <v>38.48035936325773</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.25385531985406</v>
+        <v>30.02207575418569</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>24.25756930680376</v>
+        <v>35.0100062894992</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>24.2694696471005</v>
+        <v>38.23075646515655</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>24.23027440124461</v>
+        <v>27.56088595976401</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.24850735536693</v>
+        <v>30.06132612976039</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>24.19840455265634</v>
+        <v>19.22139210433594</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>24.2085670580849</v>
+        <v>20.77058010094239</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.17045712672712</v>
+        <v>14.26721827554584</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>24.21101308965967</v>
+        <v>21.84327901133873</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.22399222534834</v>
+        <v>24.93533446108413</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.23544413833435</v>
+        <v>26.53560384132501</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.18437551693211</v>
+        <v>19.71946895532824</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.31440656364857</v>
+        <v>42.76660559928578</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>24.33965363652525</v>
+        <v>47.50380532124261</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>24.28348036818613</v>
+        <v>38.16578435943328</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.32107961841038</v>
+        <v>46.90652255015056</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>24.38739387460864</v>
+        <v>54.64999985801434</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>24.41943504905051</v>
+        <v>60.562525200655</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>24.34748715596131</v>
+        <v>49.52101118793669</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>24.30144443010867</v>
+        <v>40.5661167160372</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.32505768331657</v>
+        <v>44.77583457588128</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.26691025632062</v>
+        <v>35.54724604435941</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>24.31870741398024</v>
+        <v>46.50764452095407</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>24.38089820259248</v>
+        <v>52.56656200912971</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>24.41217929467119</v>
+        <v>58.05818343744755</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>24.33632172248801</v>
+        <v>46.15497897586619</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>24.25439190837555</v>
+        <v>27.96717911099933</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>24.27167127794015</v>
+        <v>30.57626016339261</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.22994381151275</v>
+        <v>23.74709460823691</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.29209682037007</v>
+        <v>42.84886629363717</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.32574565971865</v>
+        <v>46.7675841619175</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>24.34873888420255</v>
+        <v>50.97947152203901</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>24.28699951946186</v>
+        <v>40.52971509285189</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>24.18319333932812</v>
+        <v>12.42206832076655</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>24.17455688440692</v>
+        <v>13.34692754219968</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>24.17615390963198</v>
+        <v>13.6313698165497</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>24.16314394904904</v>
+        <v>12.0189053918069</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>24.18922147181122</v>
+        <v>14.09477518832322</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.20773478888151</v>
+        <v>20.08817064978902</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.22166330009746</v>
+        <v>24.59139635475722</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>24.23074629193646</v>
+        <v>26.40635497351965</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>24.20638463387472</v>
+        <v>22.00374625753149</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>24.26283846073527</v>
+        <v>35.71035645220049</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.20505308726069</v>
+        <v>19.69404229853335</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>24.21361104250435</v>
+        <v>22.44804395248714</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.22148932062428</v>
+        <v>23.92135056541174</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>24.19294991274506</v>
+        <v>17.94682675849663</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>24.25678146198356</v>
+        <v>31.34270428743903</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.21261164938363</v>
+        <v>20.06991186665761</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>24.20778417140994</v>
+        <v>20.52071434862255</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>24.21299628944127</v>
+        <v>21.57451176023254</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.19114016716261</v>
+        <v>16.30214953654549</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>24.2491842261828</v>
+        <v>32.80324029009644</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>24.18619868366746</v>
+        <v>16.73140461092936</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>24.19098889862356</v>
+        <v>17.76994888163206</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>24.16443573957169</v>
+        <v>12.82891207684453</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.19735770661914</v>
+        <v>14.61159702258986</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>24.20335417084841</v>
+        <v>15.81435023209492</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>24.20897019408559</v>
+        <v>16.58077533980747</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>24.17075884810346</v>
+        <v>11.92584527217239</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>24.29266382338285</v>
+        <v>39.6035446649494</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>24.31078125188145</v>
+        <v>43.39950271358903</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>24.26929925404025</v>
+        <v>35.59367098080886</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>24.30820232360435</v>
+        <v>45.27388879365277</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>24.36697548592002</v>
+        <v>52.48028481668723</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>24.39102756201107</v>
+        <v>57.42171819523867</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>24.33564561079973</v>
+        <v>48.31515806340458</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.279482748452</v>
+        <v>34.35429800414698</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>24.29604839511994</v>
+        <v>37.25689032761814</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>24.25298659952146</v>
+        <v>30.39056369635916</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>24.30792540470813</v>
+        <v>44.42118131015999</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>24.36291299049399</v>
+        <v>49.6608658428335</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>24.3862690526277</v>
+        <v>53.80707879550845</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>24.32732833124047</v>
+        <v>43.96936443993562</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.25088216442729</v>
+        <v>31.32821458402616</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>24.26268404309362</v>
+        <v>33.29560048790457</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>24.23185681811493</v>
+        <v>27.5937079799684</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>24.29232565080513</v>
+        <v>42.32166882202129</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>24.31924429468727</v>
+        <v>43.04013945594168</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>24.33613463786301</v>
+        <v>45.19171572465846</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>24.28644629704671</v>
+        <v>35.59779540141606</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.21084503094021</v>
+        <v>11.2828087137788</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.20278811639499</v>
+        <v>12.57311256568566</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.20550114779701</v>
+        <v>13.07397987047167</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.19269374730986</v>
+        <v>12.23656212073051</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>24.19745512590298</v>
+        <v>16.01580008497044</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.23790034654423</v>
+        <v>22.64702770715971</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>24.24957714414509</v>
+        <v>31.11179237759204</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>24.25829917785012</v>
+        <v>33.92813577028372</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>24.23673462364299</v>
+        <v>28.61429742548286</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.25107540567041</v>
+        <v>31.47227104369738</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>24.24419295109604</v>
+        <v>32.97203118249234</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>24.25300957143108</v>
+        <v>38.09079125808557</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.2611314316114</v>
+        <v>41.48607168132056</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>24.23586510498848</v>
+        <v>32.69517615026693</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>24.25584119165043</v>
+        <v>35.71992954367261</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.24250733326797</v>
+        <v>32.40770528787314</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>24.23981697013832</v>
+        <v>32.67140383767479</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.24580958070029</v>
+        <v>35.77955218578692</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>24.22575082081342</v>
+        <v>28.49558924334835</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>24.25015677186612</v>
+        <v>35.81820345931835</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>24.19018801749878</v>
+        <v>16.34929805240106</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>24.19337672429831</v>
+        <v>16.45853206012872</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>24.1730519234766</v>
+        <v>11.63522562535228</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.19622354547087</v>
+        <v>13.63068428327825</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.19513501047051</v>
+        <v>14.38775144827638</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>24.1982855792188</v>
+        <v>14.00947022241969</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>24.17114451794009</v>
+        <v>9.230272274171497</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>24.27011659049057</v>
+        <v>36.11273497707151</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>24.28343596560943</v>
+        <v>38.89596796964339</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>24.25229240266201</v>
+        <v>32.84545718961608</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.27296357899046</v>
+        <v>38.51893555941769</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>24.31287736799954</v>
+        <v>45.59053442628864</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>24.32986116518079</v>
+        <v>49.1336756179206</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>24.29079025494242</v>
+        <v>41.35560333636718</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>24.27085167975286</v>
+        <v>38.24975774157798</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>24.28348257499022</v>
+        <v>41.18806109345535</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.25034502757571</v>
+        <v>33.95179263468246</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>24.28175984282007</v>
+        <v>43.57964755643943</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>24.3201417720928</v>
+        <v>47.2547503378492</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>24.33711604829075</v>
+        <v>50.88637551586822</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>24.29452857329169</v>
+        <v>41.01906646355084</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>24.24921857934471</v>
+        <v>33.73654159021446</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>24.25870277706265</v>
+        <v>36.71712598106815</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>24.2340951585216</v>
+        <v>29.95199049523658</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>24.2741686642821</v>
+        <v>41.67848929765486</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>24.29158573958828</v>
+        <v>42.36103789319506</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>24.30433557441099</v>
+        <v>45.48548229657428</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>24.26737238816456</v>
+        <v>35.75898603633114</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>24.25515625522196</v>
+        <v>39.29575120990625</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>24.25497343874852</v>
+        <v>33.2972096555256</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>24.26429327888554</v>
+        <v>35.75866498394449</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.23276278605619</v>
+        <v>30.21109370658803</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.22680550709081</v>
+        <v>24.25389053417283</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>24.2840215386952</v>
+        <v>45.22359643964441</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>24.30941997292477</v>
+        <v>46.65041809609365</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>24.32711916184487</v>
+        <v>50.7627960635936</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>24.28291047973513</v>
+        <v>41.23965076831652</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>24.28831532859579</v>
+        <v>39.43904276338565</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>24.27939930350113</v>
+        <v>43.64255682522609</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.29883895320337</v>
+        <v>43.55571421129918</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>24.31529331399894</v>
+        <v>46.98451526273564</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>24.26614102346482</v>
+        <v>34.40199505017672</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>24.28492252705556</v>
+        <v>39.20818989882495</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>24.27319178015188</v>
+        <v>45.27389860481688</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>24.27584746661118</v>
+        <v>42.16266132555636</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.28894322503792</v>
+        <v>45.21217432361266</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>24.2481497400027</v>
+        <v>32.08077898128245</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>24.27828500419449</v>
+        <v>39.28334481502925</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>24.23882518641553</v>
+        <v>27.73210095373755</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>24.25004146105424</v>
+        <v>30.05400360598588</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>24.21328324708947</v>
+        <v>23.7913320041519</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>24.23037567894684</v>
+        <v>27.95523600889127</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>24.252764563545</v>
+        <v>31.68327208527353</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>24.26540133491363</v>
+        <v>33.69730493483883</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>24.21416174017703</v>
+        <v>25.92863188315093</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>24.33388677069512</v>
+        <v>44.735188956994</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>24.35935903268019</v>
+        <v>49.37350187149151</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>24.30712655470863</v>
+        <v>40.88964978914188</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.32374378061001</v>
+        <v>47.12831674063972</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>24.39962580736844</v>
+        <v>54.25829933409941</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>24.43193560169986</v>
+        <v>59.94935375095356</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>24.363115983023</v>
+        <v>48.97986792527961</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>24.32293194372019</v>
+        <v>43.19142044852028</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>24.34700090582629</v>
+        <v>47.46914322609686</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>24.29203728183779</v>
+        <v>38.70574736129635</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>24.32691235073173</v>
+        <v>48.5761231091026</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>24.39894565195003</v>
+        <v>54.07755268063416</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>24.4308214484355</v>
+        <v>59.54487716673419</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>24.35714999613564</v>
+        <v>47.44641779966801</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>24.29271906469054</v>
+        <v>39.81326080705425</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>24.31187244014408</v>
+        <v>43.96996590018315</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>24.26920989850009</v>
+        <v>35.91783743289292</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>24.31617123010874</v>
+        <v>48.54083882421484</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>24.35779925410812</v>
+        <v>52.49722392827157</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>24.38303760916261</v>
+        <v>57.43485267191511</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>24.31839600158241</v>
+        <v>45.1986934734977</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.2183654922597</v>
+        <v>19.04228793286318</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.21348012878139</v>
+        <v>18.64889860872411</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>24.22262688436316</v>
+        <v>20.62868467476146</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>24.19096401036612</v>
+        <v>15.01559822063776</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>24.20399399191677</v>
+        <v>20.22128194292364</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>24.2691948919493</v>
+        <v>40.55131481073686</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>24.29092757254575</v>
+        <v>45.26453888038169</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.30958833085053</v>
+        <v>50.29089563060263</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>24.26280517281985</v>
+        <v>41.06584977499116</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>24.2873808633522</v>
+        <v>39.25386213118675</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.26839975131656</v>
+        <v>39.6221011760225</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>24.2847926172333</v>
+        <v>42.03602467652948</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>24.30209878455022</v>
+        <v>46.63285686657722</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>24.2508317356612</v>
+        <v>34.55920342380787</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>24.28282061466906</v>
+        <v>38.81361763700517</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>24.25320321219786</v>
+        <v>33.00937404926113</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>24.25423394086087</v>
+        <v>34.35663597439647</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>24.2669031231367</v>
+        <v>37.78011798995944</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>24.22725128009165</v>
+        <v>27.04680152127758</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>24.25794503453077</v>
+        <v>35.01809757382697</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>24.20658222331852</v>
+        <v>23.84562956150627</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.21776884179517</v>
+        <v>25.81713896321065</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>24.17991959271752</v>
+        <v>19.4825547580019</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>24.20754681402694</v>
+        <v>21.04814744798683</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>24.21578816793989</v>
+        <v>23.08994158383664</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>24.22743915660313</v>
+        <v>24.37706786727903</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>24.17566756743006</v>
+        <v>17.46428898720482</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>24.32425297714954</v>
+        <v>44.4693300160433</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>24.35088452256702</v>
+        <v>49.51863994079145</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>24.29480156710067</v>
+        <v>40.47484205987212</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>24.32119761319206</v>
+        <v>46.81046445943248</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>24.38283530071407</v>
+        <v>52.96886183681089</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>24.41543845764094</v>
+        <v>58.60644230429845</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>24.34258797081433</v>
+        <v>47.25766958519348</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>24.31231608637747</v>
+        <v>42.65620953509973</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>24.33733443294235</v>
+        <v>47.24577912285385</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>24.27914565857894</v>
+        <v>38.22423800780987</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>24.31963325703855</v>
+        <v>46.09100167669126</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>24.3773958038527</v>
+        <v>50.60804615231803</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>24.40928257092166</v>
+        <v>55.7985430035688</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>24.33239597808696</v>
+        <v>43.68009838993276</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>24.26509621552136</v>
+        <v>35.21849813819627</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>24.28360177523769</v>
+        <v>38.69848216980814</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>24.24175823491191</v>
+        <v>31.96139299989722</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>24.2905749582552</v>
+        <v>40.44856933938019</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>24.32044100597233</v>
+        <v>43.09027715821914</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>24.34394104677975</v>
+        <v>46.82453584386831</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>24.28110204227529</v>
+        <v>36.57123962561042</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.25826457352366</v>
+        <v>12.25826457352369</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.90023290991048</v>
+        <v>12.90023290991046</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.47452265412115</v>
+        <v>13.47452265412116</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.61670385013499</v>
+        <v>11.61670385013495</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.91734765941965</v>
+        <v>20.91734765941964</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.01855031410201</v>
+        <v>19.01855031410208</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.68733330600902</v>
+        <v>24.68733330600898</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.94969162805217</v>
+        <v>26.94969162805223</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.33104128015692</v>
+        <v>22.3310412801569</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.60645363821654</v>
+        <v>42.60645363821652</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.81190606024337</v>
+        <v>17.81190606024347</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.86701212297621</v>
+        <v>20.86701212297615</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.88981286238042</v>
+        <v>22.88981286238029</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.87556049491848</v>
+        <v>15.87556049491861</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.71251779664703</v>
+        <v>18.71251779664692</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.51895690719771</v>
+        <v>17.51895690719768</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.15934893672987</v>
+        <v>19.15934893672996</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.51346300807995</v>
+        <v>12.51346300808001</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39.81664481867556</v>
+        <v>39.81664481867558</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.39080960008913</v>
+        <v>25.3908096000891</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.38332521410382</v>
+        <v>26.38332521410372</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.79031052922165</v>
+        <v>19.79031052922161</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.0436218880018</v>
+        <v>17.04362188800184</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.74484568301678</v>
+        <v>23.74484568301672</v>
       </c>
     </row>
     <row r="27">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18.42674799670939</v>
+        <v>18.42674799670941</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>51.18217548638563</v>
+        <v>51.18217548638553</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.62835222566692</v>
+        <v>55.62835222566679</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.6085972144832</v>
+        <v>47.60859721448315</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.72428546388636</v>
+        <v>47.72428546388635</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60.63763535050323</v>
+        <v>60.63763535050304</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>66.6546872552461</v>
+        <v>66.65468725524617</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>57.08395611449326</v>
+        <v>57.08395611449322</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.68475810746438</v>
+        <v>45.68475810746432</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.55682537110411</v>
+        <v>49.55682537110408</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.64821169028109</v>
+        <v>41.6482116902811</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.70501596212928</v>
+        <v>46.70501596212934</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.88279046154757</v>
+        <v>56.88279046154751</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>62.55200983185987</v>
+        <v>62.55200983185988</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.97808939960862</v>
+        <v>51.97808939960865</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>39.49467262560404</v>
+        <v>39.49467262560394</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.59783426761009</v>
+        <v>42.5978342676101</v>
       </c>
     </row>
     <row r="45">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.73355092350342</v>
+        <v>48.73355092350332</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>55.54506918518581</v>
+        <v>55.54506918518568</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>60.57189860080846</v>
+        <v>60.57189860080854</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>49.93159824050477</v>
+        <v>49.93159824050479</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.80144251792993</v>
+        <v>38.80144251792991</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.20305028036935</v>
+        <v>34.20305028036936</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.22433331888246</v>
+        <v>38.22433331888243</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.95197157107997</v>
+        <v>27.95197157107998</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.3451452108676</v>
+        <v>24.34514521086762</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.57895915367479</v>
+        <v>44.57895915367484</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.30366974033949</v>
+        <v>46.3036697403395</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.54871467516828</v>
+        <v>52.5487146751683</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.73219608445077</v>
+        <v>39.73219608445078</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.86685180572771</v>
+        <v>45.8668518057278</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.21358809143878</v>
+        <v>41.21358809143881</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.31486941957437</v>
+        <v>41.31486941957435</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.87995015386078</v>
+        <v>46.8799501538607</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.10442082782486</v>
+        <v>32.10442082782485</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.07301779184984</v>
+        <v>44.07301779184986</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.51306131909702</v>
+        <v>44.51306131909713</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.01800331197261</v>
+        <v>42.01800331197258</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.23834365383523</v>
+        <v>47.23834365383527</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.99496152852457</v>
+        <v>32.99496152852448</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.30675931034087</v>
+        <v>43.30675931034091</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.14588072574588</v>
+        <v>29.14588072574584</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.01975302688964</v>
+        <v>32.0197530268897</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.89721356907238</v>
+        <v>23.89721356907242</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.04140791110459</v>
+        <v>34.04140791110462</v>
       </c>
     </row>
     <row r="74">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.90145968293722</v>
+        <v>38.90145968293716</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.21547668266982</v>
+        <v>28.21547668266985</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50.67210718321333</v>
+        <v>50.67210718321336</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>56.36699411921835</v>
+        <v>56.36699411921818</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.8773783117748</v>
+        <v>44.87737831177478</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53.51778066419229</v>
+        <v>53.51778066419226</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>59.78118647912096</v>
+        <v>59.7811864791209</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>67.16490165103987</v>
+        <v>67.1649016510398</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>52.30842947801344</v>
+        <v>52.30842947801348</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.91728393344893</v>
+        <v>47.91728393344884</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.98326772756747</v>
+        <v>52.98326772756749</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.12665655568304</v>
+        <v>42.126656555683</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.47564134436315</v>
+        <v>52.47564134436318</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>58.0684316164471</v>
+        <v>58.06843161644706</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>65.14576552202882</v>
+        <v>65.14576552202888</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.94007699764563</v>
+        <v>49.9400769976456</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.28618512678899</v>
+        <v>43.28618512678901</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>47.46874955234745</v>
+        <v>47.46874955234748</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.4783805222482</v>
+        <v>39.47838052224817</v>
       </c>
     </row>
     <row r="94">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>62.46923686627633</v>
+        <v>62.46923686627641</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>49.24756915782621</v>
+        <v>49.24756915782628</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.97231352553902</v>
+        <v>27.97231352553898</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.0832330236874</v>
+        <v>26.08323302368739</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.96930265941693</v>
+        <v>28.96930265941695</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.0302497469193</v>
+        <v>21.03024974691929</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.86237275439346</v>
+        <v>25.86237275439348</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.36695667109325</v>
+        <v>40.3669566710933</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>45.52683555055789</v>
+        <v>45.52683555055795</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50.71148147156681</v>
+        <v>50.71148147156686</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.1505479339199</v>
+        <v>40.15054793391992</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>46.78983048004561</v>
+        <v>46.78983048004568</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.36807706881588</v>
+        <v>37.36807706881594</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.1621208359368</v>
+        <v>40.16212083593684</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.84591355130107</v>
+        <v>44.84591355130113</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.27861533280706</v>
+        <v>31.2786153328071</v>
       </c>
     </row>
     <row r="112">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.17096910691081</v>
+        <v>42.17096910691087</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.16728434942059</v>
+        <v>42.16728434942051</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.11004605782874</v>
+        <v>47.11004605782871</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.9817131351039</v>
+        <v>32.98171313510385</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.07823776593099</v>
+        <v>44.07823776593101</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.09391604957298</v>
+        <v>30.09391604957299</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.10338852173474</v>
+        <v>33.10338852173478</v>
       </c>
     </row>
     <row r="120">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.72974818748494</v>
+        <v>32.72974818748492</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.22856800761462</v>
+        <v>35.22856800761458</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.12634925721406</v>
+        <v>38.12634925721403</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.15441192393866</v>
+        <v>28.15441192393868</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.87603086766866</v>
+        <v>51.87603086766865</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>57.56199796070128</v>
+        <v>57.56199796070116</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.71461628304544</v>
+        <v>45.71461628304536</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>53.18938372822535</v>
+        <v>53.18938372822527</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>61.2198199570454</v>
+        <v>61.21981995704549</v>
       </c>
     </row>
     <row r="130">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.6031038085903</v>
+        <v>54.60310380859039</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.98525764567579</v>
+        <v>49.98525764567569</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.33199703393626</v>
+        <v>55.33199703393622</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.54735191686758</v>
+        <v>43.54735191686757</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.00099628363414</v>
+        <v>53.00099628363421</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60.09540280554537</v>
+        <v>60.09540280554538</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>66.92811212077399</v>
+        <v>66.92811212077397</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.46963801762997</v>
+        <v>52.46963801762995</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.83992166684867</v>
+        <v>44.83992166684875</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.95294386434816</v>
+        <v>49.95294386434806</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>40.11102778264006</v>
+        <v>40.11102778264004</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>54.42318179491524</v>
+        <v>54.42318179491526</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>59.57401117010777</v>
+        <v>59.57401117010781</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>66.46164092174618</v>
+        <v>66.46164092174621</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>52.33446677092633</v>
+        <v>52.33446677092637</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.18549014334844</v>
+        <v>16.1854901433484</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.86484207539809</v>
+        <v>25.8648420753981</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.13071760230684</v>
+        <v>28.13071760230677</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.42071152106625</v>
+        <v>33.42071152106626</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.99264840520561</v>
+        <v>14.99264840520562</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.49615424862093</v>
+        <v>22.49615424862095</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.02825433516514</v>
+        <v>36.0282543351651</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.05088510238262</v>
+        <v>40.05088510238261</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.93408277551513</v>
+        <v>40.93408277551518</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.66776408646618</v>
+        <v>44.66776408646619</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.3933143736625</v>
+        <v>21.39331437366248</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.04226668499278</v>
+        <v>33.0422666849928</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.89910083898798</v>
+        <v>36.89910083898785</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.75145308590659</v>
+        <v>35.75145308590648</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.03664301367346</v>
+        <v>40.0366430136734</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.42232800254563</v>
+        <v>23.42232800254567</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.69597988722987</v>
+        <v>31.69597988722986</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.43958986973688</v>
+        <v>35.43958986973684</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.66470023140894</v>
+        <v>35.6647002314089</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.75708670326674</v>
+        <v>34.75708670326672</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.7361580685527</v>
+        <v>18.73615806855273</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.90251933817002</v>
+        <v>19.90251933817004</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.13106301151194</v>
+        <v>14.13106301151196</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.70012514142545</v>
+        <v>17.70012514142536</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.9392275292157</v>
+        <v>22.93922752921573</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.39087478138018</v>
+        <v>24.39087478138015</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.76204494012752</v>
+        <v>19.76204494012758</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>51.12257059835484</v>
+        <v>51.12257059835477</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.80602202428435</v>
+        <v>55.80602202428427</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.84181384720134</v>
+        <v>46.84181384720137</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.57231923914673</v>
+        <v>49.57231923914671</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.28072031567321</v>
+        <v>60.28072031567311</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>65.89325466722801</v>
+        <v>65.89325466722811</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.03492544797579</v>
+        <v>56.03492544797591</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.88400631441024</v>
+        <v>45.88400631441017</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.90732679008276</v>
+        <v>49.90732679008278</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.56550239810905</v>
+        <v>41.56550239810906</v>
       </c>
     </row>
     <row r="183">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>55.63257967739569</v>
+        <v>55.63257967739573</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>60.56804365059969</v>
+        <v>60.56804365059974</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.26627595158399</v>
+        <v>50.26627595158398</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.5923074930561</v>
+        <v>34.59230749305603</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.86238904131513</v>
+        <v>37.86238904131512</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.6559841493067</v>
+        <v>31.65598414930662</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>43.71908103915314</v>
+        <v>43.71908103915315</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.15489155886643</v>
+        <v>49.15489155886646</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.54506182481508</v>
+        <v>53.54506182481515</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.54137727477257</v>
+        <v>44.54137727477254</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.45041198380472</v>
+        <v>23.45041198380459</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.73685785348411</v>
+        <v>18.73685785348414</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.16416881051497</v>
+        <v>21.16416881051498</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.53167620245831</v>
+        <v>10.5316762024583</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.73830175974659</v>
+        <v>27.73830175974652</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.39357923636339</v>
+        <v>37.39357923636344</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.74646019681868</v>
+        <v>34.74646019681864</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.87692954899835</v>
+        <v>38.87692954899832</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.8001085163828</v>
+        <v>19.80010851638281</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>46.64170626325973</v>
+        <v>46.64170626325974</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.08834729154999</v>
+        <v>38.08834729155001</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.98794208003604</v>
+        <v>33.98794208003606</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>38.01559930887085</v>
+        <v>38.01559930887082</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15.90521392449344</v>
+        <v>15.90521392449342</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.4593190121698</v>
+        <v>45.45931901216977</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.42050084318337</v>
+        <v>42.42050084318342</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.92642120299077</v>
+        <v>33.92642120299066</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.03143486458453</v>
+        <v>38.03143486458448</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.70779748449019</v>
+        <v>16.70779748449015</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.98418386310072</v>
+        <v>46.9841838631007</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.25972761593604</v>
+        <v>34.25972761593607</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.24273369901325</v>
+        <v>37.24273369901326</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.36801199020882</v>
+        <v>29.36801199020879</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.80778712465067</v>
+        <v>29.80778712465072</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.89019961034813</v>
+        <v>34.89019961034812</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.32558489641811</v>
+        <v>37.32558489641815</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.7035813072028</v>
+        <v>29.70358130720281</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>56.08442116250875</v>
+        <v>56.08442116250885</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.94402613410021</v>
+        <v>61.94402613410014</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>50.9405143156825</v>
+        <v>50.94051431568251</v>
       </c>
     </row>
     <row r="224">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.30969448232715</v>
+        <v>61.30969448232714</v>
       </c>
     </row>
     <row r="226">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>56.13773047055993</v>
+        <v>56.13773047055987</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>53.48454770515315</v>
+        <v>53.4845477051532</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.17216035844611</v>
+        <v>59.17216035844604</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>47.64901748480912</v>
+        <v>47.64901748480916</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.70293763658879</v>
+        <v>48.70293763658874</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>58.09146891090806</v>
+        <v>58.09146891090809</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.32091083150831</v>
+        <v>64.32091083150839</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.55457370098467</v>
+        <v>51.5545737009847</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.98782908945977</v>
+        <v>49.98782908945989</v>
       </c>
     </row>
     <row r="236">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.76804031772823</v>
+        <v>45.76804031772824</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.27559011798077</v>
+        <v>55.27559011798078</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>61.29015999574146</v>
+        <v>61.29015999574135</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>68.03720430821841</v>
+        <v>68.03720430821842</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>54.77321876643796</v>
+        <v>54.77321876643801</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.32018955976076</v>
+        <v>31.32018955976078</v>
       </c>
     </row>
     <row r="243">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.39613106083956</v>
+        <v>11.39613106083955</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.13004435015174</v>
+        <v>33.13004435015175</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.72010353235894</v>
+        <v>36.72010353235893</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.45139306572328</v>
+        <v>31.45139306572332</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.95654116525897</v>
+        <v>34.956541165259</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14.44590130233813</v>
+        <v>14.44590130233812</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.29908702820528</v>
+        <v>48.29908702820521</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.46968428769193</v>
+        <v>37.46968428769195</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.44151278389983</v>
+        <v>32.4415127838998</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.81080744823188</v>
+        <v>35.81080744823183</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.06411233808195</v>
+        <v>12.06411233808194</v>
       </c>
     </row>
     <row r="256">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>43.30954553450449</v>
+        <v>43.30954553450452</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.03180725078179</v>
+        <v>35.0318072507818</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>39.04322147245462</v>
+        <v>39.04322147245455</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.552516229615</v>
+        <v>14.55251622961501</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.28419067269375</v>
+        <v>49.28419067269371</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.55573334998024</v>
+        <v>37.55573334998023</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>41.66469629159241</v>
+        <v>41.66469629159236</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.54433251401053</v>
+        <v>32.54433251401051</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.03905672608323</v>
+        <v>34.03905672608322</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.38152994186959</v>
+        <v>37.38152994186963</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.72847837135237</v>
+        <v>40.72847837135241</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.91531141928339</v>
+        <v>30.91531141928338</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>55.08996155387105</v>
+        <v>55.08996155387103</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>61.53512849492303</v>
+        <v>61.53512849492305</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>49.20012676426398</v>
+        <v>49.200126764264</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>51.23979033478017</v>
+        <v>51.23979033478015</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>59.33456509847554</v>
+        <v>59.33456509847559</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>66.0842054835914</v>
+        <v>66.08420548359138</v>
       </c>
     </row>
     <row r="275">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.75347587507016</v>
+        <v>53.75347587507018</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>60.17196901177267</v>
+        <v>60.17196901177265</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>47.51488383627085</v>
+        <v>47.51488383627088</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>52.45712546559396</v>
+        <v>52.45712546559395</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>60.24377555158693</v>
+        <v>60.24377555158691</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>67.09029207155697</v>
+        <v>67.09029207155699</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>53.25267487127806</v>
+        <v>53.25267487127801</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.93873861229969</v>
+        <v>51.93873861229967</v>
       </c>
     </row>
     <row r="284">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.39812607051822</v>
+        <v>47.39812607051823</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>53.56667653870429</v>
+        <v>53.56667653870433</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>58.99307170564165</v>
+        <v>58.9930717056416</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>65.62949261185877</v>
+        <v>65.62949261185875</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.70735615679543</v>
+        <v>51.70735615679548</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.99104031381197</v>
+        <v>10.99104031381193</v>
       </c>
     </row>
     <row r="291">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>12.67278438324022</v>
+        <v>12.67278438324018</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.09545738902712</v>
+        <v>10.09545738902716</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.52852194952506</v>
+        <v>19.52852194952511</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.57416159212598</v>
+        <v>15.57416159212597</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.86662389387146</v>
+        <v>20.86662389387143</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.59641028586313</v>
+        <v>22.5964102858631</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.47674082409163</v>
+        <v>17.47674082409165</v>
       </c>
     </row>
     <row r="299">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.40665516367608</v>
+        <v>13.40665516367604</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.86396758060354</v>
+        <v>16.86396758060351</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.16766370328974</v>
+        <v>18.16766370328969</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>11.17855068270373</v>
+        <v>11.17855068270375</v>
       </c>
     </row>
     <row r="304">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.66973088019442</v>
+        <v>13.66973088019441</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.35729177212725</v>
+        <v>15.35729177212722</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.58307933554061</v>
+        <v>16.58307933554059</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.04824805720001</v>
+        <v>10.04824805719997</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.06073327019737</v>
+        <v>33.06073327019734</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.78935309088804</v>
+        <v>22.78935309088802</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.37273559679356</v>
+        <v>24.37273559679355</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>18.52235061710877</v>
+        <v>18.52235061710879</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.16058805424888</v>
+        <v>20.16058805424889</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.5085419762232</v>
+        <v>25.50854197622317</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.24621167770703</v>
+        <v>27.24621167770706</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.73240451742311</v>
+        <v>20.73240451742306</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>40.48835417201069</v>
+        <v>40.4883541720107</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.34123986779785</v>
+        <v>44.34123986779788</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.24766001891523</v>
+        <v>36.24766001891525</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.93175673747258</v>
+        <v>44.93175673747267</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.73008214229134</v>
+        <v>53.7300821422914</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>59.0462932120379</v>
+        <v>59.04629321203792</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.89427365656462</v>
+        <v>49.89427365656458</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.67062205608052</v>
+        <v>37.67062205608057</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.0463948351512</v>
+        <v>41.04639483515127</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.33716819379845</v>
+        <v>33.33716819379843</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.01365652307152</v>
+        <v>46.01365652307154</v>
       </c>
     </row>
     <row r="328">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>58.76000260805881</v>
+        <v>58.76000260805885</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>48.84548383725148</v>
+        <v>48.84548383725141</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.98213064264049</v>
+        <v>32.98213064264053</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.03148876974537</v>
+        <v>36.03148876974539</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.72544630437688</v>
+        <v>29.72544630437686</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>47.52277928267799</v>
+        <v>47.52277928267797</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.86697223918021</v>
+        <v>53.86697223918023</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>59.16456793691471</v>
+        <v>59.16456793691469</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>48.61385626682402</v>
+        <v>48.61385626682398</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.120321397739332</v>
+        <v>8.120321397739378</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9.81463907088121</v>
+        <v>9.814639070881157</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.00132340968505</v>
+        <v>10.00132340968517</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.33702015703909</v>
+        <v>10.33702015703919</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9.630880179502526</v>
+        <v>9.630880179502451</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>11.69585194854844</v>
+        <v>11.69585194854836</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.56733223799256</v>
+        <v>15.56733223799258</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.27842351622101</v>
+        <v>17.27842351622103</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.27080941236245</v>
+        <v>14.27080941236249</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.41010944422705</v>
+        <v>18.41010944422707</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.05493263861921</v>
+        <v>11.05493263861927</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.6816411526723</v>
+        <v>12.68164115267222</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.23344448625126</v>
+        <v>14.2334444862512</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>9.403748629662552</v>
+        <v>9.403748629662587</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.84267251732792</v>
+        <v>16.84267251732791</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.52871278346618</v>
+        <v>9.528712783466119</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.897499864186219</v>
+        <v>8.897499864186038</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.781892359099743</v>
+        <v>9.781892359099629</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>6.257439286426155</v>
+        <v>6.257439286426145</v>
       </c>
     </row>
     <row r="357">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.64712400712747</v>
+        <v>14.64712400712745</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.16188220270085</v>
+        <v>14.1618822027008</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.1760474477713</v>
+        <v>10.17604744777127</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.86639006443473</v>
+        <v>13.86639006443479</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.71692468242743</v>
+        <v>15.71692468242747</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.17824952853797</v>
+        <v>15.17824952853802</v>
       </c>
     </row>
     <row r="364">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.85591572231496</v>
+        <v>23.85591572231497</v>
       </c>
     </row>
     <row r="366">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.49907634742518</v>
+        <v>18.49907634742521</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.82407604730184</v>
+        <v>33.82407604730186</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.2567414798571</v>
+        <v>37.25674147985708</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.92670706635345</v>
+        <v>39.92670706635339</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.46306769876542</v>
+        <v>29.46306769876541</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.06689895484752</v>
+        <v>20.06689895484756</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.1991391354365</v>
+        <v>21.19913913543648</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.33319035997189</v>
+        <v>14.33319035997186</v>
       </c>
     </row>
     <row r="375">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.51345092345692</v>
+        <v>32.51345092345691</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.40244604429816</v>
+        <v>34.40244604429815</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.7969335556861</v>
+        <v>22.79693355568612</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.27643976057122</v>
+        <v>12.27643976057117</v>
       </c>
     </row>
     <row r="380">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.585763937848483</v>
+        <v>9.585763937848466</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.20401693378306</v>
+        <v>34.20401693378302</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.22535876291877</v>
+        <v>32.2253587629188</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.49784366847955</v>
+        <v>33.49784366847953</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.05487591163505</v>
+        <v>23.05487591163508</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.03998239441986</v>
+        <v>40.03998239441987</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.51250796191336</v>
+        <v>31.51250796191339</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.70010505509056</v>
+        <v>34.7001050550906</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.36377856601089</v>
+        <v>29.36377856601093</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.20801707977114</v>
+        <v>23.20801707977117</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.56470727908232</v>
+        <v>48.56470727908234</v>
       </c>
     </row>
     <row r="392">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.76678631682973</v>
+        <v>55.76678631682979</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.20782096253163</v>
+        <v>46.20782096253162</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.5935403908002</v>
+        <v>40.59354039080022</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.0170270776311</v>
+        <v>46.01702707763112</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.85685089788255</v>
+        <v>46.85685089788259</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.68013454042552</v>
+        <v>51.68013454042553</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.90304908187689</v>
+        <v>38.90304908187694</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.81720711865169</v>
+        <v>39.81720711865171</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.62853984695241</v>
+        <v>47.62853984695244</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.34991354818614</v>
+        <v>43.34991354818611</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.39216608460133</v>
+        <v>47.39216608460129</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.97989813567447</v>
+        <v>33.97989813567445</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.55115702794069</v>
+        <v>37.55115702794066</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.48386685225838</v>
+        <v>26.48386685225845</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.49357453244479</v>
+        <v>29.49357453244478</v>
       </c>
     </row>
     <row r="408">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.50177712205411</v>
+        <v>32.50177712205419</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.62183497220548</v>
+        <v>34.62183497220545</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>37.36741526486271</v>
+        <v>37.36741526486273</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.97957074482687</v>
+        <v>28.97957074482691</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.89538821544888</v>
+        <v>45.89538821544889</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.0876375143617</v>
+        <v>51.08763751436172</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.55524273557697</v>
+        <v>41.5552427355769</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.03448641553167</v>
+        <v>50.03448641553166</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.67362537800432</v>
+        <v>56.67362537800435</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.81561801971386</v>
+        <v>62.81561801971389</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.74888541335542</v>
+        <v>51.74888541335537</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.99817912787269</v>
+        <v>43.99817912787272</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48.88682099426812</v>
+        <v>48.88682099426815</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.25742419011318</v>
+        <v>39.25742419011323</v>
       </c>
     </row>
     <row r="423">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>56.85368619647723</v>
+        <v>56.85368619647727</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>63.0026125594113</v>
+        <v>63.0026125594114</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>51.03601877598405</v>
+        <v>51.03601877598413</v>
       </c>
     </row>
     <row r="427">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.15265107755999</v>
+        <v>42.15265107755993</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.057579447739</v>
+        <v>34.05757944773903</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.3763252756976</v>
+        <v>51.37632527569757</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>55.84692659535327</v>
+        <v>55.8469265953532</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>61.79709754895452</v>
+        <v>61.79709754895451</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.87391005464017</v>
+        <v>49.87391005464013</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.545656650969612</v>
+        <v>6.54565665096958</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.259639385645592</v>
+        <v>8.259639385645595</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>8.216233216698146</v>
+        <v>8.216233216698157</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.430631204036374</v>
+        <v>6.43063120403637</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>9.485305778641496</v>
+        <v>9.485305778641511</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.98342657833121</v>
+        <v>14.98342657833126</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.29373672850127</v>
+        <v>19.29373672850125</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.77192854803667</v>
+        <v>20.77192854803668</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.78657183308528</v>
+        <v>16.78657183308525</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.94528480188352</v>
+        <v>31.94528480188343</v>
       </c>
     </row>
     <row r="444">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.19770759530352</v>
+        <v>15.19770759530345</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.12930776023601</v>
+        <v>16.12930776023595</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.83491495103155</v>
+        <v>10.83491495103151</v>
       </c>
     </row>
     <row r="448">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.87489037746402</v>
+        <v>11.87489037746397</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.60507695313741</v>
+        <v>12.60507695313732</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.712828436242752</v>
+        <v>8.712828436242823</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.68033143119882</v>
+        <v>19.68033143119881</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.63111729240334</v>
+        <v>12.63111729240332</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.31504460876963</v>
+        <v>13.31504460876967</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.428358069059193</v>
+        <v>9.428358069059183</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.56877092433048</v>
+        <v>10.56877092433045</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.04058021393904</v>
+        <v>15.04058021393902</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.45164749397737</v>
+        <v>15.45164749397734</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.24097124912926</v>
+        <v>12.24097124912922</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.1066271733713</v>
+        <v>34.10662717337128</v>
       </c>
     </row>
     <row r="462">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.02108136235559</v>
+        <v>30.0210813623556</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.9905467344693</v>
+        <v>42.99054673446929</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>50.12083181425864</v>
+        <v>50.12083181425857</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>53.81827384015986</v>
+        <v>53.81827384015985</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>45.67011045267883</v>
+        <v>45.6701104526788</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.20391922197017</v>
+        <v>28.20391922197024</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.13018380583007</v>
+        <v>30.13018380583011</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.39121434585094</v>
+        <v>24.39121434585092</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.84324505220706</v>
+        <v>40.84324505220708</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.62845173880626</v>
+        <v>45.62845173880624</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.38199946082759</v>
+        <v>48.38199946082758</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.80187680460732</v>
+        <v>39.80187680460733</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.25350085890232</v>
+        <v>17.25350085890233</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>18.47270742192397</v>
+        <v>18.47270742192407</v>
       </c>
     </row>
     <row r="477">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.12218076874689</v>
+        <v>38.12218076874691</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.46686437759899</v>
+        <v>40.46686437759896</v>
       </c>
     </row>
     <row r="480">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.99576253467007</v>
+        <v>34.99576253467013</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>2.298932450206213</v>
+        <v>2.298932450206237</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1.951328680208888</v>
+        <v>1.951328680208899</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1.512523833841072</v>
+        <v>1.51252383384103</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.010058503484551</v>
+        <v>2.010058503484494</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.47948561217444</v>
+        <v>23.47948561217443</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>6.194204747061768</v>
+        <v>6.194204747061708</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>9.509799024499792</v>
+        <v>9.50979902449971</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.05513967037533</v>
+        <v>10.05513967037532</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>7.754359299751307</v>
+        <v>7.754359299751357</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.05732445474813</v>
+        <v>39.0573244547481</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>8.497312421762338</v>
+        <v>8.497312421762309</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.19064307916731</v>
+        <v>10.19064307916739</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>10.2945135548609</v>
+        <v>10.29451355486084</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>5.530494131882016</v>
+        <v>5.530494131882058</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.39779342270487</v>
+        <v>39.39779342270481</v>
       </c>
     </row>
     <row r="497">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.03840706411899</v>
+        <v>12.038407064119</v>
       </c>
     </row>
     <row r="499">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.693778822382889</v>
+        <v>8.693778822382853</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.64880991871378</v>
+        <v>37.64880991871381</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.62482927215989</v>
+        <v>26.62482927215991</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.83555483381544</v>
+        <v>28.83555483381549</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.26686573864662</v>
+        <v>22.26686573864673</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.28848214487248</v>
+        <v>26.28848214487247</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.88191074974321</v>
+        <v>28.88191074974317</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.04145140066753</v>
+        <v>31.04145140066754</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.05640435677772</v>
+        <v>23.05640435677774</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.0215982949869</v>
+        <v>43.02159829498684</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.68561363091369</v>
+        <v>47.6856136309136</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.06480276965598</v>
+        <v>38.06480276965601</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.72333666098694</v>
+        <v>47.72333666098692</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>55.16189938401214</v>
+        <v>55.16189938401212</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.27897373593879</v>
+        <v>61.27897373593871</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.33643152799849</v>
+        <v>49.33643152799848</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.70248177021783</v>
+        <v>42.70248177021782</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>47.12117121105909</v>
+        <v>47.12117121105911</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.53826489802274</v>
+        <v>37.5382648980227</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.06365282393524</v>
+        <v>50.06365282393525</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.14595839145787</v>
+        <v>57.14595839145785</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>63.3882045855552</v>
+        <v>63.38820458555515</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.41993973277992</v>
+        <v>50.41993973277994</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.46806484047687</v>
+        <v>38.46806484047681</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.62816308135334</v>
+        <v>42.62816308135328</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.29549092392089</v>
+        <v>35.29549092392083</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.69023957814371</v>
+        <v>50.6902395781437</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>56.48503272187364</v>
+        <v>56.48503272187358</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>62.89069869550734</v>
+        <v>62.8906986955074</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.53890062411579</v>
+        <v>50.53890062411583</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.62147023054955</v>
+        <v>10.62147023054962</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>13.309563219262</v>
+        <v>13.30956321926209</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.35918197008353</v>
+        <v>13.35918197008358</v>
       </c>
     </row>
     <row r="533">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>5.844009582303521</v>
+        <v>5.844009582303531</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.92821362766432</v>
+        <v>16.92821362766435</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.36670948252453</v>
+        <v>23.36670948252452</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.99461425026265</v>
+        <v>24.99461425026267</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.40938894333751</v>
+        <v>21.40938894333745</v>
       </c>
     </row>
     <row r="539">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.47462347430088</v>
+        <v>20.47462347430086</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.71798355829404</v>
+        <v>21.71798355829405</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.22290156729674</v>
+        <v>16.22290156729679</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.597101073564</v>
+        <v>19.59710107356402</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.54486568771461</v>
+        <v>14.54486568771464</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.13455239152103</v>
+        <v>17.13455239152102</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.40782713630954</v>
+        <v>18.40782713630952</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.78839569818799</v>
+        <v>13.78839569818802</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.36235613781262</v>
+        <v>15.36235613781255</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>8.500095550131778</v>
+        <v>8.500095550131796</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.338233904815194</v>
+        <v>8.338233904815183</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.806534311662471</v>
+        <v>5.806534311662478</v>
       </c>
     </row>
     <row r="553">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.1824092192176</v>
+        <v>19.18240921921758</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.0715592630663</v>
+        <v>20.07155926306627</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.28693329725537</v>
+        <v>15.28693329725535</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.7171639785855</v>
+        <v>23.71716397858551</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.40715565494427</v>
+        <v>25.40715565494428</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.52299812350812</v>
+        <v>20.5229981235081</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.65095124550609</v>
+        <v>33.65095124550606</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>41.57034504433393</v>
+        <v>41.57034504433396</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>45.29993802804022</v>
+        <v>45.29993802804027</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.67211375435849</v>
+        <v>36.67211375435856</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.26966889994018</v>
+        <v>21.26966889994017</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.49795293738001</v>
+        <v>22.49795293737999</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.89908630725077</v>
+        <v>17.89908630725076</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.77030486062918</v>
+        <v>33.77030486062915</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.81614138771246</v>
+        <v>40.81614138771248</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>44.31853316558246</v>
+        <v>44.31853316558237</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.76128617073783</v>
+        <v>34.76128617073787</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.05688078306207</v>
+        <v>14.05688078306212</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.0050251454132</v>
+        <v>15.00502514541316</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>11.92214804558068</v>
+        <v>11.92214804558066</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.18774855513132</v>
+        <v>32.18774855513129</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.72115661157643</v>
+        <v>36.72115661157635</v>
       </c>
     </row>
     <row r="576">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.62417800166234</v>
+        <v>31.62417800166231</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.13699947783665</v>
+        <v>3.136999477836667</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>5.69628239846778</v>
+        <v>5.696282398467844</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.276396998611517</v>
+        <v>5.276396998611528</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.061796864937634</v>
+        <v>6.061796864937648</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-0.4099468250470686</v>
+        <v>-0.4099468250470188</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.438893394015309</v>
+        <v>5.438893394015256</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.40021475781295</v>
+        <v>10.40021475781289</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.85440598137947</v>
+        <v>10.85440598137951</v>
       </c>
     </row>
     <row r="586">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>6.852182772828403</v>
+        <v>6.852182772828357</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.955292327946715</v>
+        <v>5.955292327946694</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.515013698854236</v>
+        <v>9.515013698854222</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.664690120998308</v>
+        <v>9.664690120998277</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.182959402636563</v>
+        <v>7.182959402636623</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.049539835429464</v>
+        <v>5.049539835429457</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.662082980908</v>
+        <v>6.662082980907915</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>9.269436848688844</v>
+        <v>9.269436848688791</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>9.834542937404628</v>
+        <v>9.834542937404592</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.167444622441579</v>
+        <v>8.167444622441494</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>4.027029028772368</v>
+        <v>4.027029028772393</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>3.008565686846289</v>
+        <v>3.008565686846271</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2.524887773244767</v>
+        <v>2.524887773244735</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.399846824797216</v>
+        <v>2.399846824797223</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.57712891361364</v>
+        <v>10.57712891361358</v>
       </c>
     </row>
     <row r="602">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.1438812127727</v>
+        <v>14.14388121277271</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.94845749578997</v>
+        <v>11.94845749578998</v>
       </c>
     </row>
     <row r="605">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.971596692475668</v>
+        <v>9.971596692475774</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.217450448920999</v>
+        <v>8.217450448921007</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.89171582633581</v>
+        <v>22.8917158263358</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.82344736176551</v>
+        <v>29.8234473617655</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.95833534855065</v>
+        <v>31.95833534855067</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.92543766344767</v>
+        <v>26.92543766344764</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>7.003246829811662</v>
+        <v>7.00324682981168</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.166168757211015</v>
+        <v>7.166168757211071</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.175682363420858</v>
+        <v>6.175682363420876</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.21540623829025</v>
+        <v>23.21540623829022</v>
       </c>
     </row>
     <row r="616">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.24877162599347</v>
+        <v>31.24877162599348</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.72541869235576</v>
+        <v>25.72541869235574</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4.756473903852072</v>
+        <v>4.756473903852093</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.066945991172766</v>
+        <v>5.066945991172734</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>5.312327442471819</v>
+        <v>5.31232744247178</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.37712376869714</v>
+        <v>23.37712376869712</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.30722352615371</v>
+        <v>27.30722352615368</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.51034624000981</v>
+        <v>29.51034624000986</v>
       </c>
     </row>
     <row r="625">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.92500259805256</v>
+        <v>16.92500259805258</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.885648167318</v>
+        <v>19.88564816731793</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.42960178728443</v>
+        <v>21.4296017872844</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.75149730281346</v>
+        <v>19.75149730281343</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>6.424208597970278</v>
+        <v>6.424208597970235</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.85387318252534</v>
+        <v>32.85387318252541</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>43.38743047761877</v>
+        <v>43.38743047761878</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.45804345810681</v>
+        <v>47.4580434581068</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.84142284079209</v>
+        <v>42.84142284079208</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.49928263128972</v>
+        <v>24.49928263128983</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.96477715297132</v>
+        <v>35.96477715297124</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.70078002576822</v>
+        <v>44.70078002576818</v>
       </c>
     </row>
     <row r="638">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.2761771185628</v>
+        <v>42.27617711856283</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.93492911630971</v>
+        <v>25.93492911630968</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.16056626688014</v>
+        <v>29.16056626688008</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.92880563028758</v>
+        <v>31.92880563028766</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.63404718474953</v>
+        <v>34.63404718474952</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.36532808411797</v>
+        <v>30.36532808411798</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.452107131903</v>
+        <v>25.45210713190298</v>
       </c>
     </row>
     <row r="646">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.76590146435797</v>
+        <v>10.76590146435796</v>
       </c>
     </row>
     <row r="648">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.43500612111132</v>
+        <v>15.43500612111137</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.98764410222313</v>
+        <v>17.98764410222308</v>
       </c>
     </row>
     <row r="651">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>13.80301922995684</v>
+        <v>13.80301922995685</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.91419222803718</v>
+        <v>33.91419222803713</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.29942263013685</v>
+        <v>37.29942263013687</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.62039217319072</v>
+        <v>32.62039217319075</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.64292704631097</v>
+        <v>42.64292704631084</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.61948453253396</v>
+        <v>52.6194845325339</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.81486696131149</v>
+        <v>57.8148669613114</v>
       </c>
     </row>
     <row r="659">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.84549337229943</v>
+        <v>33.84549337229948</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.82941686918039</v>
+        <v>36.82941686918051</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.12022139740095</v>
+        <v>32.12022139740102</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.25291341845283</v>
+        <v>44.25291341845286</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.23562943813385</v>
+        <v>52.23562943813383</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>57.13461863722908</v>
+        <v>57.13461863722912</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.63641220531461</v>
+        <v>47.63641220531458</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.08728910163913</v>
+        <v>26.08728910163916</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.42311341215475</v>
+        <v>28.42311341215479</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.05165322423329</v>
+        <v>25.05165322423332</v>
       </c>
     </row>
     <row r="670">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.18070949732996</v>
+        <v>45.18070949732994</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.95816859028069</v>
+        <v>48.95816859028064</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>39.57135752369277</v>
+        <v>39.57135752369267</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.65364319151017</v>
+        <v>35.65364319151021</v>
       </c>
     </row>
     <row r="675">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.09815084005059</v>
+        <v>38.09815084005058</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.78808179201986</v>
+        <v>28.78808179201983</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.33020950131881</v>
+        <v>21.33020950131889</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>43.77439746583128</v>
+        <v>43.77439746583134</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.06576826643736</v>
+        <v>49.06576826643738</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.13087531049344</v>
+        <v>54.13087531049345</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.92107548503822</v>
+        <v>43.92107548503823</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.01914103614787</v>
+        <v>39.01914103614794</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.88355775511668</v>
+        <v>40.88355775511667</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.18576949098047</v>
+        <v>44.18576949098044</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>48.61200078966358</v>
+        <v>48.6120007896636</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.68113020973558</v>
+        <v>36.68113020973566</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.06140656132905</v>
+        <v>38.06140656132908</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.92274070445367</v>
+        <v>41.9227407044537</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.50039489472192</v>
+        <v>43.50039489472191</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.69931497711637</v>
+        <v>47.69931497711639</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.48933305652754</v>
+        <v>35.48933305652756</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.00012669042734</v>
+        <v>36.00012669042736</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.51013521571931</v>
+        <v>24.51013521571932</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.46762810617978</v>
+        <v>26.46762810617979</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.30551660433621</v>
+        <v>20.30551660433625</v>
       </c>
     </row>
     <row r="697">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.29819615259748</v>
+        <v>32.29819615259745</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.52848293102469</v>
+        <v>24.5284829310247</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.45533110092853</v>
+        <v>42.45533110092855</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.89433100191006</v>
+        <v>46.89433100191012</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.18659240389235</v>
+        <v>38.18659240389236</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.56240987324604</v>
+        <v>47.56240987324612</v>
       </c>
     </row>
     <row r="705">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>59.42271604856274</v>
+        <v>59.42271604856278</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.9381208876772</v>
+        <v>47.93812088767721</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.83803400086916</v>
+        <v>40.83803400086914</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.74170605654781</v>
+        <v>44.74170605654789</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.33751597124152</v>
+        <v>36.33751597124154</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.0226626742154</v>
+        <v>46.02266267421545</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>51.472884013285</v>
+        <v>51.47288401328505</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.68094541342637</v>
+        <v>56.68094541342647</v>
       </c>
     </row>
     <row r="714">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.8577023894549</v>
+        <v>35.85770238945486</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.10009305316866</v>
+        <v>39.10009305316869</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.97583729417553</v>
+        <v>32.97583729417549</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.32558758463494</v>
+        <v>46.32558758463503</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>50.04821830077938</v>
+        <v>50.0482183007794</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.62911294944207</v>
+        <v>54.6291129494421</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>43.93018671284676</v>
+        <v>43.93018671284678</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.19883101146441</v>
+        <v>39.19883101146439</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.21371437060681</v>
+        <v>31.21371437060676</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.24172662777625</v>
+        <v>34.24172662777623</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.04400969512054</v>
+        <v>28.04400969512044</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.42614446081519</v>
+        <v>22.42614446081518</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>44.71500942095835</v>
+        <v>44.71500942095852</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>45.00834447829909</v>
+        <v>45.00834447829908</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.85562215768803</v>
+        <v>49.85562215768805</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.98861150092073</v>
+        <v>39.98861150092075</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.09702543844537</v>
+        <v>40.09702543844541</v>
       </c>
     </row>
     <row r="732">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.34326310124484</v>
+        <v>41.34326310124488</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>45.81786742842726</v>
+        <v>45.81786742842733</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.65828510631894</v>
+        <v>32.65828510631889</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.44171351634429</v>
+        <v>38.44171351634421</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.26458790820678</v>
+        <v>45.26458790820674</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.73065218120288</v>
+        <v>38.73065218120286</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.52588807966615</v>
+        <v>42.52588807966617</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.28878833932938</v>
+        <v>29.28878833932943</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>39.3481222496208</v>
+        <v>39.34812224962079</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.74016576569177</v>
+        <v>24.74016576569169</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.6202699636181</v>
+        <v>26.62026996361806</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.45582439366902</v>
+        <v>19.45582439366903</v>
       </c>
     </row>
     <row r="745">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.89218429043543</v>
+        <v>29.89218429043549</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.61572533659711</v>
+        <v>31.61572533659712</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.07927661832297</v>
+        <v>23.07927661832298</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>46.69987243230204</v>
+        <v>46.69987243230202</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.81200926554155</v>
+        <v>51.81200926554165</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.837624534675</v>
+        <v>42.83762453467496</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.74055468088873</v>
+        <v>47.74055468088862</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.78754477135748</v>
+        <v>55.78754477135746</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.87256685618155</v>
+        <v>61.87256685618152</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.40624179438636</v>
+        <v>50.40624179438639</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.25536717159947</v>
+        <v>43.25536717159945</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.0409443877116</v>
+        <v>48.04094438771159</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.55071557229461</v>
+        <v>38.55071557229466</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.16018867372271</v>
+        <v>47.16018867372264</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.03025427810519</v>
+        <v>53.03025427810515</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.93518952794413</v>
+        <v>58.93518952794409</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.21275973354274</v>
+        <v>46.2127597335428</v>
       </c>
     </row>
     <row r="763">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>41.8652064659518</v>
+        <v>41.86520646595181</v>
       </c>
     </row>
     <row r="765">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.2632835211858</v>
+        <v>50.26328352118583</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.92288920684268</v>
+        <v>53.92288920684271</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>59.30540252581319</v>
+        <v>59.30540252581321</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>46.94672016912108</v>
+        <v>46.94672016912109</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.18187158634034</v>
+        <v>37.18187158634035</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.58414061565139</v>
+        <v>26.58414061565151</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.37983973725833</v>
+        <v>28.37983973725835</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.96172208173562</v>
+        <v>21.96172208173568</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.92862956705354</v>
+        <v>38.92862956705356</v>
       </c>
     </row>
     <row r="775">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.8580047309968</v>
+        <v>43.85800473099679</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.98571387559147</v>
+        <v>47.98571387559148</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.27989988323153</v>
+        <v>37.27989988323161</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.89007987321961</v>
+        <v>53.8900798732195</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.21569440181526</v>
+        <v>50.21569440181536</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.56869455908144</v>
+        <v>45.56869455908148</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.99966343036704</v>
+        <v>49.99966343036716</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.03031266110448</v>
+        <v>36.03031266110447</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>55.08522165690431</v>
+        <v>55.08522165690426</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>49.15909457692032</v>
+        <v>49.15909457692035</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.40313220866599</v>
+        <v>39.40313220866601</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.50975618762746</v>
+        <v>43.50975618762747</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.25914116363493</v>
+        <v>30.25914116363492</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>55.24559286837935</v>
+        <v>55.2455928683794</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.51967911951657</v>
+        <v>29.51967911951661</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.46651203582038</v>
+        <v>30.46651203582043</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.73806333866625</v>
+        <v>24.73806333866619</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.08844627676064</v>
+        <v>43.08844627676067</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.26978317475094</v>
+        <v>36.26978317475093</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.47039005742327</v>
+        <v>37.47039005742334</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.46634591697733</v>
+        <v>30.46634591697743</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.47467578886505</v>
+        <v>48.47467578886513</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.08245064438435</v>
+        <v>52.08245064438442</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.28709464759584</v>
+        <v>45.28709464759589</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.19346972011698</v>
+        <v>61.19346972011689</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.43041899122447</v>
+        <v>60.43041899122438</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>65.36830610320274</v>
+        <v>65.3683061032027</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>56.1421764778314</v>
+        <v>56.14217647783144</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.96523581138185</v>
+        <v>47.9652358113818</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.61871504913292</v>
+        <v>51.61871504913293</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.93664742741458</v>
+        <v>43.9366474274146</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>63.60246929312513</v>
+        <v>63.60246929312512</v>
       </c>
     </row>
     <row r="808">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>65.00703168266682</v>
+        <v>65.00703168266678</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.16243532553889</v>
+        <v>54.1624353255389</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.42875979501997</v>
+        <v>43.42875979502008</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>47.16746722838764</v>
+        <v>47.16746722838771</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.95902554258865</v>
+        <v>39.95902554258861</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>65.50810911614339</v>
+        <v>65.50810911614346</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>60.15325664142824</v>
+        <v>60.15325664142818</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>65.01431559520137</v>
+        <v>65.01431559520128</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>53.72243869479266</v>
+        <v>53.72243869479261</v>
       </c>
     </row>
     <row r="818">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.78762083080337</v>
+        <v>22.78762083080336</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.96103462810579</v>
+        <v>24.96103462810574</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.60159574495966</v>
+        <v>18.60159574495969</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.87889069345232</v>
+        <v>16.87889069345235</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.7996722411698</v>
+        <v>40.79967224116982</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.09130337412953</v>
+        <v>47.09130337412955</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>52.27620696126192</v>
+        <v>52.27620696126193</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.55970375901332</v>
+        <v>42.55970375901325</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.16337552790256</v>
+        <v>39.16337552790255</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.36431032175414</v>
+        <v>38.36431032175413</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.0895723834766</v>
+        <v>42.08957238347657</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>46.6468312812363</v>
+        <v>46.64683128123628</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.15402061369602</v>
+        <v>34.15402061369604</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.48035936325773</v>
+        <v>38.4803593632578</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.02207575418569</v>
+        <v>30.02207575418565</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.0100062894992</v>
+        <v>35.01000628949917</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.23075646515655</v>
+        <v>38.23075646515652</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.56088595976401</v>
+        <v>27.56088595976399</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.06132612976039</v>
+        <v>30.06132612976054</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.22139210433594</v>
+        <v>19.2213921043359</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.77058010094239</v>
+        <v>20.77058010094242</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>14.26721827554584</v>
+        <v>14.2672182755459</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.84327901133873</v>
+        <v>21.84327901133877</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.93533446108413</v>
+        <v>24.93533446108421</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.53560384132501</v>
+        <v>26.53560384132496</v>
       </c>
     </row>
     <row r="844">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.76660559928578</v>
+        <v>42.76660559928568</v>
       </c>
     </row>
     <row r="846">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.16578435943328</v>
+        <v>38.16578435943327</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.90652255015056</v>
+        <v>46.90652255015051</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.64999985801434</v>
+        <v>54.64999985801444</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.562525200655</v>
+        <v>60.56252520065511</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.52101118793669</v>
+        <v>49.52101118793657</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.5661167160372</v>
+        <v>40.56611671603721</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.77583457588128</v>
+        <v>44.77583457588136</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.54724604435941</v>
+        <v>35.54724604435943</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>46.50764452095407</v>
+        <v>46.5076445209541</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.56656200912971</v>
+        <v>52.56656200912972</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.05818343744755</v>
+        <v>58.05818343744747</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.15497897586619</v>
+        <v>46.15497897586621</v>
       </c>
     </row>
     <row r="859">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.57626016339261</v>
+        <v>30.57626016339264</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.74709460823691</v>
+        <v>23.74709460823688</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.84886629363717</v>
+        <v>42.84886629363719</v>
       </c>
     </row>
     <row r="863">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.97947152203901</v>
+        <v>50.97947152203908</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.52971509285189</v>
+        <v>40.52971509285184</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.42206832076655</v>
+        <v>12.42206832076657</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>13.34692754219968</v>
+        <v>13.3469275421997</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.6313698165497</v>
+        <v>13.63136981654969</v>
       </c>
     </row>
     <row r="869">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>14.09477518832322</v>
+        <v>14.09477518832325</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.08817064978902</v>
+        <v>20.08817064978903</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.59139635475722</v>
+        <v>24.59139635475721</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.40635497351965</v>
+        <v>26.40635497351972</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.00374625753149</v>
+        <v>22.0037462575315</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.71035645220049</v>
+        <v>35.71035645220047</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.69404229853335</v>
+        <v>19.69404229853332</v>
       </c>
     </row>
     <row r="877">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.92135056541174</v>
+        <v>23.92135056541184</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.94682675849663</v>
+        <v>17.94682675849668</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.34270428743903</v>
+        <v>31.34270428743902</v>
       </c>
     </row>
     <row r="881">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.52071434862255</v>
+        <v>20.52071434862253</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.57451176023254</v>
+        <v>21.57451176023251</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.30214953654549</v>
+        <v>16.30214953654546</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.80324029009644</v>
+        <v>32.80324029009643</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.73140461092936</v>
+        <v>16.73140461092937</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.76994888163206</v>
+        <v>17.76994888163202</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>12.82891207684453</v>
+        <v>12.8289120768446</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.61159702258986</v>
+        <v>14.61159702258985</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.81435023209492</v>
+        <v>15.81435023209484</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.58077533980747</v>
+        <v>16.58077533980744</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>11.92584527217239</v>
+        <v>11.92584527217237</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.6035446649494</v>
+        <v>39.60354466494931</v>
       </c>
     </row>
     <row r="894">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.59367098080886</v>
+        <v>35.59367098080875</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.27388879365277</v>
+        <v>45.27388879365272</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.48028481668723</v>
+        <v>52.48028481668719</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.42171819523867</v>
+        <v>57.42171819523864</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.31515806340458</v>
+        <v>48.31515806340456</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.35429800414698</v>
+        <v>34.35429800414701</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.25689032761814</v>
+        <v>37.25689032761817</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.39056369635916</v>
+        <v>30.390563696359</v>
       </c>
     </row>
     <row r="903">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.6608658428335</v>
+        <v>49.66086584283346</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>53.80707879550845</v>
+        <v>53.80707879550843</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.96936443993562</v>
+        <v>43.96936443993567</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.32821458402616</v>
+        <v>31.3282145840262</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.29560048790457</v>
+        <v>33.29560048790459</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>27.5937079799684</v>
+        <v>27.59370797996836</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.32166882202129</v>
+        <v>42.32166882202126</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.04013945594168</v>
+        <v>43.04013945594169</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.19171572465846</v>
+        <v>45.19171572465839</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.59779540141606</v>
+        <v>35.59779540141603</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>11.2828087137788</v>
+        <v>11.28280871377889</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.57311256568566</v>
+        <v>12.57311256568564</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.07397987047167</v>
+        <v>13.07397987047171</v>
       </c>
     </row>
     <row r="917">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.01580008497044</v>
+        <v>16.01580008497043</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.64702770715971</v>
+        <v>22.64702770715973</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.11179237759204</v>
+        <v>31.11179237759209</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.92813577028372</v>
+        <v>33.92813577028375</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.61429742548286</v>
+        <v>28.61429742548283</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.47227104369738</v>
+        <v>31.47227104369733</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>32.97203118249234</v>
+        <v>32.97203118249237</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.09079125808557</v>
+        <v>38.09079125808547</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.48607168132056</v>
+        <v>41.4860716813206</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>32.69517615026693</v>
+        <v>32.69517615026695</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.71992954367261</v>
+        <v>35.71992954367268</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.40770528787314</v>
+        <v>32.40770528787309</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.67140383767479</v>
+        <v>32.67140383767486</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.77955218578692</v>
+        <v>35.77955218578701</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.49558924334835</v>
+        <v>28.49558924334841</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.81820345931835</v>
+        <v>35.81820345931837</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.34929805240106</v>
+        <v>16.34929805240107</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.45853206012872</v>
+        <v>16.45853206012873</v>
       </c>
     </row>
     <row r="936">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>13.63068428327825</v>
+        <v>13.63068428327826</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.38775144827638</v>
+        <v>14.38775144827633</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.00947022241969</v>
+        <v>14.00947022241958</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.230272274171497</v>
+        <v>9.230272274171579</v>
       </c>
     </row>
     <row r="941">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>38.89596796964339</v>
+        <v>38.89596796964334</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.84545718961608</v>
+        <v>32.84545718961597</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.51893555941769</v>
+        <v>38.51893555941776</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.59053442628864</v>
+        <v>45.59053442628866</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.1336756179206</v>
+        <v>49.13367561792062</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.35560333636718</v>
+        <v>41.35560333636712</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.24975774157798</v>
+        <v>38.249757741578</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>41.18806109345535</v>
+        <v>41.18806109345527</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.95179263468246</v>
+        <v>33.9517926346826</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>43.57964755643943</v>
+        <v>43.57964755643945</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.2547503378492</v>
+        <v>47.25475033784917</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>50.88637551586822</v>
+        <v>50.88637551586821</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.01906646355084</v>
+        <v>41.01906646355081</v>
       </c>
     </row>
     <row r="955">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.71712598106815</v>
+        <v>36.71712598106819</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.95199049523658</v>
+        <v>29.95199049523665</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.67848929765486</v>
+        <v>41.67848929765496</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.36103789319506</v>
+        <v>42.36103789319504</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>45.48548229657428</v>
+        <v>45.48548229657415</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.75898603633114</v>
+        <v>35.75898603633109</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.29575120990625</v>
+        <v>39.29575120990628</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.2972096555256</v>
+        <v>33.29720965552556</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.75866498394449</v>
+        <v>35.75866498394448</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.21109370658803</v>
+        <v>30.211093706588</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.25389053417283</v>
+        <v>24.25389053417284</v>
       </c>
     </row>
     <row r="967">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>46.65041809609365</v>
+        <v>46.65041809609372</v>
       </c>
     </row>
     <row r="969">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>41.23965076831652</v>
+        <v>41.23965076831649</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.43904276338565</v>
+        <v>39.43904276338566</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.64255682522609</v>
+        <v>43.64255682522608</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>43.55571421129918</v>
+        <v>43.55571421129913</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.98451526273564</v>
+        <v>46.9845152627357</v>
       </c>
     </row>
     <row r="975">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.20818989882495</v>
+        <v>39.20818989882494</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>45.27389860481688</v>
+        <v>45.27389860481694</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.16266132555636</v>
+        <v>42.16266132555637</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>45.21217432361266</v>
+        <v>45.21217432361264</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.08077898128245</v>
+        <v>32.08077898128244</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.28334481502925</v>
+        <v>39.2833448150292</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.73210095373755</v>
+        <v>27.7321009537376</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.05400360598588</v>
+        <v>30.05400360598589</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>23.7913320041519</v>
+        <v>23.79133200415194</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>27.95523600889127</v>
+        <v>27.95523600889132</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.68327208527353</v>
+        <v>31.68327208527352</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.69730493483883</v>
+        <v>33.69730493483885</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.92863188315093</v>
+        <v>25.92863188315095</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.735188956994</v>
+        <v>44.73518895699397</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>49.37350187149151</v>
+        <v>49.37350187149146</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>40.88964978914188</v>
+        <v>40.88964978914194</v>
       </c>
     </row>
     <row r="992">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>54.25829933409941</v>
+        <v>54.25829933409946</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>59.94935375095356</v>
+        <v>59.94935375095357</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>48.97986792527961</v>
+        <v>48.97986792527958</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>43.19142044852028</v>
+        <v>43.19142044852032</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>47.46914322609686</v>
+        <v>47.46914322609688</v>
       </c>
     </row>
     <row r="998">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>54.07755268063416</v>
+        <v>54.07755268063415</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>59.54487716673419</v>
+        <v>59.54487716673427</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>47.44641779966801</v>
+        <v>47.44641779966815</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.81326080705425</v>
+        <v>39.81326080705428</v>
       </c>
     </row>
     <row r="1004">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>35.91783743289292</v>
+        <v>35.91783743289291</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>48.54083882421484</v>
+        <v>48.54083882421482</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>52.49722392827157</v>
+        <v>52.49722392827159</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>57.43485267191511</v>
+        <v>57.43485267191505</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>45.1986934734977</v>
+        <v>45.19869347349771</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.04228793286318</v>
+        <v>19.04228793286324</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>18.64889860872411</v>
+        <v>18.64889860872415</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.62868467476146</v>
+        <v>20.62868467476154</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>15.01559822063776</v>
+        <v>15.01559822063779</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.22128194292364</v>
+        <v>20.2212819429237</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.55131481073686</v>
+        <v>40.55131481073688</v>
       </c>
     </row>
     <row r="1016">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>50.29089563060263</v>
+        <v>50.29089563060261</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>41.06584977499116</v>
+        <v>41.06584977499121</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.25386213118675</v>
+        <v>39.25386213118677</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>39.6221011760225</v>
+        <v>39.62210117602257</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>42.03602467652948</v>
+        <v>42.0360246765295</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>46.63285686657722</v>
+        <v>46.63285686657733</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>34.55920342380787</v>
+        <v>34.5592034238078</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>38.81361763700517</v>
+        <v>38.81361763700522</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.00937404926113</v>
+        <v>33.00937404926118</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>34.35663597439647</v>
+        <v>34.35663597439638</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>37.78011798995944</v>
+        <v>37.78011798995941</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>27.04680152127758</v>
+        <v>27.04680152127759</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>35.01809757382697</v>
+        <v>35.01809757382702</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.84562956150627</v>
+        <v>23.84562956150625</v>
       </c>
     </row>
     <row r="1031">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>19.4825547580019</v>
+        <v>19.48255475800196</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>21.04814744798683</v>
+        <v>21.04814744798687</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>23.08994158383664</v>
+        <v>23.08994158383663</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>24.37706786727903</v>
+        <v>24.37706786727901</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>17.46428898720482</v>
+        <v>17.4642889872049</v>
       </c>
     </row>
     <row r="1037">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>49.51863994079145</v>
+        <v>49.51863994079158</v>
       </c>
     </row>
     <row r="1039">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>46.81046445943248</v>
+        <v>46.81046445943247</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>52.96886183681089</v>
+        <v>52.96886183681097</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>58.60644230429845</v>
+        <v>58.60644230429848</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>47.25766958519348</v>
+        <v>47.25766958519355</v>
       </c>
     </row>
     <row r="1044">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>47.24577912285385</v>
+        <v>47.24577912285393</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>38.22423800780987</v>
+        <v>38.22423800780983</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>46.09100167669126</v>
+        <v>46.09100167669128</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>50.60804615231803</v>
+        <v>50.60804615231805</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>55.7985430035688</v>
+        <v>55.79854300356875</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>43.68009838993276</v>
+        <v>43.68009838993272</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.21849813819627</v>
+        <v>35.21849813819633</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>38.69848216980814</v>
+        <v>38.69848216980812</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.96139299989722</v>
+        <v>31.96139299989721</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>40.44856933938019</v>
+        <v>40.44856933938017</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.09027715821914</v>
+        <v>43.0902771582191</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>46.82453584386831</v>
+        <v>46.82453584386824</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.57123962561042</v>
+        <v>36.57123962561041</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.573</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.53</v>
+        <v>17.002</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.579</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.187</v>
+        <v>19.421</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.974</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.436</v>
+        <v>1.291</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.25826457352369</v>
+        <v>15.75182863207842</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12.90023290991046</v>
+        <v>18.96674931621206</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>13.47452265412116</v>
+        <v>18.95547041116174</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>11.61670385013495</v>
+        <v>18.40547986439484</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.91734765941964</v>
+        <v>20.70293829971478</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.01855031410208</v>
+        <v>20.92105373272059</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>24.68733330600898</v>
+        <v>25.63197048186418</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.94969162805223</v>
+        <v>26.49866000591112</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.3310412801569</v>
+        <v>24.748555118389</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.60645363821652</v>
+        <v>40.38285364643036</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.81190606024347</v>
+        <v>18.59960010409818</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.86701212297615</v>
+        <v>22.33547420601203</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.88981286238029</v>
+        <v>22.86462290029633</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.87556049491861</v>
+        <v>20.67358412783233</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>39.21253584989919</v>
+        <v>36.19051730137146</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>18.71251779664692</v>
+        <v>18.52854782277795</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>17.51895690719768</v>
+        <v>20.73343563151652</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19.15934893672996</v>
+        <v>21.1995029463302</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>12.51346300808001</v>
+        <v>19.33137643216482</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>39.81664481867558</v>
+        <v>35.30379944780378</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.3908096000891</v>
+        <v>26.11084559216807</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.38332521410372</v>
+        <v>26.37931086068016</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.79031052922161</v>
+        <v>23.18165004086222</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.04362188800184</v>
+        <v>18.89579223228371</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>23.74484568301672</v>
+        <v>24.97308968719468</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.13339651390505</v>
+        <v>25.25917428445789</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>18.42674799670941</v>
+        <v>22.27634097134521</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>51.18217548638553</v>
+        <v>46.20423898209253</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>55.62835222566679</v>
+        <v>49.53203494941617</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>47.60859721448315</v>
+        <v>44.60328014399634</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.72428546388635</v>
+        <v>44.2394999143898</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>60.63763535050304</v>
+        <v>53.31702494719275</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>66.65468725524617</v>
+        <v>57.14367470667312</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>57.08395611449322</v>
+        <v>51.60282237432504</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>45.68475810746432</v>
+        <v>41.0329582023741</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>49.55682537110408</v>
+        <v>43.00379932519613</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>41.6482116902811</v>
+        <v>39.10841295690213</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>46.70501596212934</v>
+        <v>42.5007301090238</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>56.88279046154751</v>
+        <v>48.52856653076178</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>62.55200983185988</v>
+        <v>52.02195265721198</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>51.97808939960865</v>
+        <v>46.53950720009354</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>39.49467262560394</v>
+        <v>37.24285569862042</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>42.5978342676101</v>
+        <v>38.84249286799974</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.03608046626608</v>
+        <v>35.69498862010384</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>48.73355092350332</v>
+        <v>43.94426473871368</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>55.54506918518568</v>
+        <v>49.2739875647779</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>60.57189860080854</v>
+        <v>52.7208443581909</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>49.93159824050479</v>
+        <v>46.88720306970816</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.80144251792991</v>
+        <v>35.18977197953469</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>34.20305028036936</v>
+        <v>33.73862559099543</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38.22433331888243</v>
+        <v>36.00347492647562</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.95197157107998</v>
+        <v>29.89016931365208</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>24.34514521086762</v>
+        <v>24.36335237592366</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.57895915367484</v>
+        <v>39.57632074546149</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>46.3036697403395</v>
+        <v>41.75783725665801</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.5487146751683</v>
+        <v>45.45452694499029</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.73219608445078</v>
+        <v>39.00447305020539</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.8668518057278</v>
+        <v>42.28109692895864</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.21358809143881</v>
+        <v>37.29392381482209</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.31486941957435</v>
+        <v>37.91401022049708</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>46.8799501538607</v>
+        <v>40.78996904895519</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>32.10442082782485</v>
+        <v>33.77229353593797</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.07301779184986</v>
+        <v>38.41670822235446</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.51306131909713</v>
+        <v>40.31050968137209</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>42.01800331197258</v>
+        <v>39.88349193583809</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>47.23834365383527</v>
+        <v>42.99044186905327</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.99496152852448</v>
+        <v>36.01848879259278</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.30675931034091</v>
+        <v>38.31200873792883</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.14588072574584</v>
+        <v>29.49129177923997</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.0197530268897</v>
+        <v>30.81328196128586</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23.89721356907242</v>
+        <v>26.76590583981135</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.04140791110462</v>
+        <v>32.05517791962135</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.66606152553571</v>
+        <v>34.33719866028127</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>38.90145968293716</v>
+        <v>35.79910019150822</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.21547668266985</v>
+        <v>30.32103081892579</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>50.67210718321336</v>
+        <v>46.37692762880511</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>56.36699411921818</v>
+        <v>50.06982816021853</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.87737831177478</v>
+        <v>43.33461167161389</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53.51778066419226</v>
+        <v>47.80739740597123</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>59.7811864791209</v>
+        <v>52.33410358734259</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>67.1649016510398</v>
+        <v>57.03616724977076</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>52.30842947801348</v>
+        <v>48.63420856372719</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>47.91728393344884</v>
+        <v>43.15684934128711</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.98326772756749</v>
+        <v>46.18427699947873</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>42.126656555683</v>
+        <v>40.40300216301869</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>52.47564134436318</v>
+        <v>46.25656436151432</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>58.06843161644706</v>
+        <v>50.722427306407</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>65.14576552202888</v>
+        <v>54.95820575814444</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>49.9400769976456</v>
+        <v>47.25399248310685</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>43.28618512678901</v>
+        <v>40.75348495863688</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>47.46874955234748</v>
+        <v>43.2280371444824</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>39.47838052224817</v>
+        <v>39.19336178691984</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>51.91512760170482</v>
+        <v>44.64870233909443</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>56.16153910848915</v>
+        <v>49.46804413369667</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>62.46923686627641</v>
+        <v>53.08810981468678</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>49.24756915782628</v>
+        <v>46.725842517834</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>27.97231352553898</v>
+        <v>27.2729235580304</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.08323302368739</v>
+        <v>27.02004649475333</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.96930265941695</v>
+        <v>28.38024618993867</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21.03024974691929</v>
+        <v>24.47747412489026</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.86237275439348</v>
+        <v>26.01157910710154</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.3669566710933</v>
+        <v>39.30690969027376</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>45.52683555055795</v>
+        <v>43.38683031378492</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50.71148147156686</v>
+        <v>46.60328789315486</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.15054793391992</v>
+        <v>40.73554859880528</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>46.78983048004568</v>
+        <v>43.15728394253509</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>37.36807706881594</v>
+        <v>36.37340835368489</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.16212083593684</v>
+        <v>37.6846859773496</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>44.84591355130113</v>
+        <v>40.51744356305071</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>31.2786153328071</v>
+        <v>32.24572321991653</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.00962157181057</v>
+        <v>41.73072399697079</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.17096910691087</v>
+        <v>39.82870957432145</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.16728434942051</v>
+        <v>40.65369517191564</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>47.11004605782871</v>
+        <v>43.86050322443189</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.98171313510385</v>
+        <v>35.84414758993525</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.07823776593101</v>
+        <v>40.97150278657951</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>30.09391604957299</v>
+        <v>30.90008519457814</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.10338852173478</v>
+        <v>32.20029954375548</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24.33849181767981</v>
+        <v>28.22368115609414</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>32.72974818748492</v>
+        <v>31.73954563465676</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>35.22856800761458</v>
+        <v>34.80540725338426</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>38.12634925721403</v>
+        <v>36.122624543676</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.15441192393868</v>
+        <v>31.2454526216785</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.87603086766865</v>
+        <v>47.33789088911179</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>57.56199796070116</v>
+        <v>50.79900652315269</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45.71461628304536</v>
+        <v>44.2879732031201</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>53.18938372822527</v>
+        <v>46.11477562872726</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>61.21981995704549</v>
+        <v>51.70999584245052</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>68.0315811395503</v>
+        <v>55.68888287039351</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>54.60310380859039</v>
+        <v>48.86770032953893</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>49.98525764567569</v>
+        <v>45.71405058897184</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.33199703393622</v>
+        <v>49.06532124865691</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>43.54735191686757</v>
+        <v>42.54903680530332</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>53.00099628363421</v>
+        <v>45.55334116146201</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60.09540280554538</v>
+        <v>50.80256628124501</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>66.92811212077397</v>
+        <v>54.9648921699812</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>52.46963801762995</v>
+        <v>47.41385559870999</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.83992166684875</v>
+        <v>42.56666724579942</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.95294386434806</v>
+        <v>45.91100559295344</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>40.11102778264004</v>
+        <v>40.08849211723339</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>54.42318179491526</v>
+        <v>47.53533318681691</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>59.57401117010781</v>
+        <v>51.70243256431819</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>66.46164092174621</v>
+        <v>56.22090675486827</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>52.33446677092637</v>
+        <v>48.29397070877632</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.1854901433484</v>
+        <v>19.36537764429549</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.8648420753981</v>
+        <v>27.93618195999578</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.13071760230677</v>
+        <v>29.16128227181147</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>33.42071152106626</v>
+        <v>32.59963131486513</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>14.99264840520562</v>
+        <v>16.08192066562614</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.49615424862095</v>
+        <v>24.67963077729767</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.0282543351651</v>
+        <v>33.65288267581742</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.05088510238261</v>
+        <v>35.68479552516514</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40.93408277551518</v>
+        <v>36.71768617146694</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>44.66776408646619</v>
+        <v>43.7088228993054</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>21.39331437366248</v>
+        <v>22.86705555168606</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.0422666849928</v>
+        <v>32.04519880999904</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.89910083898785</v>
+        <v>33.96964437796291</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>35.75145308590648</v>
+        <v>34.98928331089095</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40.0366430136734</v>
+        <v>35.94876035843454</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>23.42232800254567</v>
+        <v>23.62707399426058</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.69597988722986</v>
+        <v>31.25807981708206</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>35.43958986973684</v>
+        <v>33.18204609771844</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>35.6647002314089</v>
+        <v>34.82395917590534</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>34.75708670326672</v>
+        <v>32.0149560153686</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.73615806855273</v>
+        <v>21.49716410470963</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.90251933817004</v>
+        <v>21.52587323263722</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>14.13106301151196</v>
+        <v>19.60233084103592</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>17.70012514142536</v>
+        <v>18.50026684477071</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.93922752921573</v>
+        <v>23.684412728478</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>24.39087478138015</v>
+        <v>24.06424801595806</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>19.76204494012758</v>
+        <v>22.94550691200291</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>51.12257059835477</v>
+        <v>47.59821169886611</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>55.80602202428427</v>
+        <v>51.1233367752578</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>46.84181384720137</v>
+        <v>44.75825764064049</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>49.57231923914671</v>
+        <v>47.1188803301924</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.28072031567311</v>
+        <v>53.51739331595591</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>65.89325466722811</v>
+        <v>57.43369290768588</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>56.03492544797591</v>
+        <v>50.76551887330552</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>45.88400631441017</v>
+        <v>40.9611420919068</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.90732679008278</v>
+        <v>43.08962395050532</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>41.56550239810906</v>
+        <v>38.63557260129021</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>46.27477534044426</v>
+        <v>41.40022569078027</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>55.63257967739573</v>
+        <v>48.89233556616831</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>60.56804365059974</v>
+        <v>51.60524475913935</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>50.26627595158398</v>
+        <v>46.40126178312791</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>34.59230749305603</v>
+        <v>33.46956597308115</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>37.86238904131512</v>
+        <v>34.97253767524742</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.65598414930662</v>
+        <v>32.22954892731213</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>43.71908103915315</v>
+        <v>39.83515657758068</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>49.15489155886646</v>
+        <v>44.58154675349809</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>53.54506182481515</v>
+        <v>46.97876354003226</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>44.54137727477254</v>
+        <v>42.75761649913457</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>23.45041198380459</v>
+        <v>24.05505811908262</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.73685785348414</v>
+        <v>22.9799080176344</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>21.16416881051498</v>
+        <v>23.98573635246255</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>10.5316762024583</v>
+        <v>20.58390990949117</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>27.73830175974652</v>
+        <v>26.480474599987</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.39357923636344</v>
+        <v>35.99760358483397</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>34.74646019681864</v>
+        <v>33.00405526334088</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>38.87692954899832</v>
+        <v>35.09404611684091</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>19.80010851638281</v>
+        <v>23.3589510705833</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>46.64170626325974</v>
+        <v>44.73139046338838</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.08834729155001</v>
+        <v>34.99668701857656</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.98794208003606</v>
+        <v>33.85522255060044</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>38.01559930887082</v>
+        <v>35.70853910718542</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>15.90521392449342</v>
+        <v>23.63535344758394</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.45931901216977</v>
+        <v>43.26789356217542</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>42.42050084318342</v>
+        <v>39.46406183603417</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.92642120299066</v>
+        <v>35.50437531688008</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>38.03143486458448</v>
+        <v>37.79798211641611</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>16.70779748449015</v>
+        <v>24.18492152876606</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.9841838631007</v>
+        <v>42.97044623615149</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.25972761593607</v>
+        <v>32.56456367927331</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>37.24273369901326</v>
+        <v>34.02278782816852</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.36801199020879</v>
+        <v>30.64606017414093</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.80778712465072</v>
+        <v>29.84586395825482</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>34.89019961034812</v>
+        <v>34.13164651418059</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>37.32558489641815</v>
+        <v>35.15478889340512</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.70358130720281</v>
+        <v>31.66041844541207</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>56.08442116250885</v>
+        <v>50.44663980953099</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>61.94402613410014</v>
+        <v>54.22625024349642</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>50.94051431568251</v>
+        <v>47.71041846989555</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>50.42051547442504</v>
+        <v>46.3377909515665</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>61.30969448232714</v>
+        <v>52.73983586057267</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>67.71305052126496</v>
+        <v>56.82705614122712</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>56.13773047055987</v>
+        <v>50.29075983459291</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>53.4845477051532</v>
+        <v>48.37353208651335</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.17216035844604</v>
+        <v>51.97440939066293</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>47.64901748480916</v>
+        <v>45.22931012431292</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>48.70293763658874</v>
+        <v>42.69523903255756</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>58.09146891090809</v>
+        <v>50.19962970291253</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>64.32091083150839</v>
+        <v>53.94886248559246</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>51.5545737009847</v>
+        <v>47.68800312854309</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.98782908945989</v>
+        <v>45.73992708320348</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.94384355625847</v>
+        <v>49.5514441102445</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.76804031772824</v>
+        <v>43.87791571368278</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.27559011798078</v>
+        <v>48.05561378743106</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>61.29015999574135</v>
+        <v>52.42051779353854</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>68.03720430821842</v>
+        <v>56.80755976941599</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>54.77321876643801</v>
+        <v>49.4749295666155</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>31.32018955976078</v>
+        <v>29.63076506912311</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>21.64875073893567</v>
+        <v>24.1236988192548</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>24.62976647629171</v>
+        <v>25.80535299126979</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.39613106083955</v>
+        <v>20.14111752973761</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.13004435015175</v>
+        <v>31.30055263964447</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.72010353235893</v>
+        <v>34.04803243866398</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.45139306572332</v>
+        <v>30.82202013853255</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>34.956541165259</v>
+        <v>32.66365958052649</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>14.44590130233812</v>
+        <v>21.84054218204176</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>48.29908702820521</v>
+        <v>44.6387497201729</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>37.46968428769195</v>
+        <v>35.49723972075981</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>32.4415127838998</v>
+        <v>33.8422024256575</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.81080744823183</v>
+        <v>35.53281669970104</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>12.06411233808194</v>
+        <v>23.27695913873888</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>47.59866618049882</v>
+        <v>44.92950894912289</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>43.30954553450452</v>
+        <v>39.5925076314405</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>35.0318072507818</v>
+        <v>35.31380009751474</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>39.04322147245455</v>
+        <v>37.46732514803953</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>14.55251622961501</v>
+        <v>23.81722206992691</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.28419067269371</v>
+        <v>44.81464402424184</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37.55573334998023</v>
+        <v>35.45467566869002</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>41.66469629159236</v>
+        <v>37.61081655255713</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.54433251401051</v>
+        <v>32.68797345155966</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.03905672608322</v>
+        <v>32.35173215289936</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>37.38152994186963</v>
+        <v>35.70512103181862</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>40.72847837135241</v>
+        <v>37.28458053440663</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.91531141928338</v>
+        <v>32.13239111377384</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>55.08996155387103</v>
+        <v>49.7680478761238</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>61.53512849492305</v>
+        <v>53.7197705700701</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>49.200126764264</v>
+        <v>46.80999249359751</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>51.23979033478015</v>
+        <v>45.19023835250454</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>59.33456509847559</v>
+        <v>51.29918248475285</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>66.08420548359138</v>
+        <v>55.37681204772076</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>53.09101739102245</v>
+        <v>48.83387006797508</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>53.75347587507018</v>
+        <v>48.60302939107729</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>60.17196901177265</v>
+        <v>52.71572723065516</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>47.51488383627088</v>
+        <v>45.15645843143639</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>52.45712546559395</v>
+        <v>45.92091350838997</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>60.24377555158691</v>
+        <v>51.96463880177485</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>67.09029207155699</v>
+        <v>56.22573354945804</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>53.25267487127801</v>
+        <v>49.05827060104928</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.93873861229967</v>
+        <v>47.14258887993526</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>58.16871114877085</v>
+        <v>51.11683376117067</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>47.39812607051823</v>
+        <v>44.89932954656383</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>53.56667653870433</v>
+        <v>47.05039176964534</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>58.9930717056416</v>
+        <v>50.89017095675909</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>65.62949261185875</v>
+        <v>55.13620947301671</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.70735615679548</v>
+        <v>47.50406784100514</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>10.99104031381193</v>
+        <v>15.73200919793986</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>12.27510478124108</v>
+        <v>19.03944636509233</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>12.67278438324018</v>
+        <v>18.94981757491164</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>10.09545738902716</v>
+        <v>18.5849462008732</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.52852194952511</v>
+        <v>21.92074419597763</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>15.57416159212597</v>
+        <v>19.35384973872952</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>20.86662389387143</v>
+        <v>24.18878468617532</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>22.5964102858631</v>
+        <v>24.76979810243153</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>17.47674082409165</v>
+        <v>22.97121924499857</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.71136134261246</v>
+        <v>33.82631523272251</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>13.40665516367604</v>
+        <v>16.03484256146473</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>16.86396758060351</v>
+        <v>20.20019471096607</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>18.16766370328969</v>
+        <v>20.29625714140681</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>11.17855068270375</v>
+        <v>17.73182001447788</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.13530157235775</v>
+        <v>33.49470915074429</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>13.66973088019441</v>
+        <v>15.15754267894057</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>15.35729177212722</v>
+        <v>18.34597953928777</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>16.58307933554059</v>
+        <v>18.44788033268077</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>10.04824805719997</v>
+        <v>16.55718450849759</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>33.06073327019734</v>
+        <v>31.18478415956077</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>22.78935309088802</v>
+        <v>26.2712010667222</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>24.37273559679355</v>
+        <v>27.01108736485004</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>18.52235061710879</v>
+        <v>24.66844592243101</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>20.16058805424889</v>
+        <v>21.49213787439911</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.50854197622317</v>
+        <v>26.68875516314573</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.24621167770706</v>
+        <v>27.08819960144875</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>20.73240451742306</v>
+        <v>24.43284006461019</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>40.4883541720107</v>
+        <v>37.16248688641117</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>44.34123986779788</v>
+        <v>39.79266761439099</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.24766001891525</v>
+        <v>34.87081165863103</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>44.93175673747267</v>
+        <v>41.72843272329263</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.7300821422914</v>
+        <v>46.8300632104935</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>59.04629321203792</v>
+        <v>50.3022323057405</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>49.89427365656458</v>
+        <v>45.11851845461043</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.67062205608057</v>
+        <v>37.00645770273627</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>41.04639483515127</v>
+        <v>39.01367716806488</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.33716819379843</v>
+        <v>35.08368538159591</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.01365652307154</v>
+        <v>42.03853342776761</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>53.50452683271021</v>
+        <v>47.01558905579675</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>58.76000260805885</v>
+        <v>50.39683008292693</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>48.84548383725141</v>
+        <v>45.13741897404532</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>32.98213064264053</v>
+        <v>32.43306704906802</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.03148876974539</v>
+        <v>34.17144962354141</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.72544630437686</v>
+        <v>30.94167425818435</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>47.52277928267797</v>
+        <v>43.68201509092619</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>53.86697223918023</v>
+        <v>47.84878017807415</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>59.16456793691469</v>
+        <v>51.36433510140522</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>48.61385626682398</v>
+        <v>45.34504787891434</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>8.120321397739378</v>
+        <v>12.23689138369123</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>9.814639070881157</v>
+        <v>16.15532153139357</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.00132340968517</v>
+        <v>16.15144033653712</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>10.33702015703919</v>
+        <v>16.29180573658937</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>9.630880179502451</v>
+        <v>13.14312157962976</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>11.69585194854836</v>
+        <v>15.75947307031358</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>15.56733223799258</v>
+        <v>19.26457539064618</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>17.27842351622103</v>
+        <v>19.71308385365118</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>14.27080941236249</v>
+        <v>18.82300668444267</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>18.41010944422707</v>
+        <v>19.47445653858093</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>11.05493263861927</v>
+        <v>14.8120296724756</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>12.68164115267222</v>
+        <v>18.0486599120486</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>14.2334444862512</v>
+        <v>18.52979303047548</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>9.403748629662587</v>
+        <v>17.85514717360357</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>16.84267251732791</v>
+        <v>19.99374967753837</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>9.528712783466119</v>
+        <v>11.64731889060631</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>8.897499864186038</v>
+        <v>14.65560998456392</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>9.781892359099629</v>
+        <v>14.70723905747978</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>6.257439286426145</v>
+        <v>14.67896569805107</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>12.24985770803212</v>
+        <v>13.70329820396982</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>14.64712400712745</v>
+        <v>19.05737706238067</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.1618822027008</v>
+        <v>18.62124443134348</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>10.17604744777127</v>
+        <v>17.51689543920589</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>13.86639006443479</v>
+        <v>13.79666823906256</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>15.71692468242747</v>
+        <v>19.48699617133404</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>15.17824952853802</v>
+        <v>19.03573904283708</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>9.022112808050895</v>
+        <v>17.16868659170434</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>23.85591572231497</v>
+        <v>24.56280258527686</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.43581785226802</v>
+        <v>25.0431548360063</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.49907634742521</v>
+        <v>21.91642929752737</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>33.82407604730186</v>
+        <v>32.08412353121043</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>37.25674147985708</v>
+        <v>36.02418382285848</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>39.92670706635339</v>
+        <v>37.40796546118723</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.46306769876541</v>
+        <v>32.56788322697508</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.06689895484756</v>
+        <v>22.82130122627034</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>21.19913913543648</v>
+        <v>22.83085295097395</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.33319035997186</v>
+        <v>20.25421789675595</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>32.64926422366236</v>
+        <v>29.83293452287603</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>32.51345092345691</v>
+        <v>31.02161032135639</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>34.40244604429815</v>
+        <v>31.22389337295182</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.79693355568612</v>
+        <v>25.61154704708472</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>12.27643976057117</v>
+        <v>16.26366792892226</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>13.16483962037578</v>
+        <v>16.24924931542263</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.585763937848466</v>
+        <v>15.66168843040667</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>34.20401693378302</v>
+        <v>30.94040045603936</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>32.2253587629188</v>
+        <v>32.17113128006255</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>33.49784366847953</v>
+        <v>32.23331614921004</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>23.05487591163508</v>
+        <v>27.94690040392389</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>40.03998239441987</v>
+        <v>36.14762660245375</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>31.51250796191339</v>
+        <v>32.50294623157244</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>34.7001050550906</v>
+        <v>34.14623234553465</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.36377856601093</v>
+        <v>31.85311740163371</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.20801707977117</v>
+        <v>24.00085905135165</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>48.56470727908234</v>
+        <v>41.70497081266303</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>50.40196986273544</v>
+        <v>44.96880843332507</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.76678631682979</v>
+        <v>48.12475021893369</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>46.20782096253162</v>
+        <v>43.3012020689773</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>40.59354039080022</v>
+        <v>36.56374211924173</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>46.01702707763112</v>
+        <v>41.77940097948702</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>46.85685089788259</v>
+        <v>42.60276302733497</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>51.68013454042553</v>
+        <v>45.38640924143665</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>38.90304908187694</v>
+        <v>38.08227533973115</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>39.81720711865171</v>
+        <v>36.87410154842115</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>47.62853984695244</v>
+        <v>39.91375364097027</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.34991354818611</v>
+        <v>39.71682032289336</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>47.39216608460129</v>
+        <v>41.88543532287059</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.97989813567445</v>
+        <v>35.07354712967312</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>37.55115702794066</v>
+        <v>33.37640965705134</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.48386685225845</v>
+        <v>28.06132731023748</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.49357453244478</v>
+        <v>29.43079574397922</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.13965043590834</v>
+        <v>25.88338515040695</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>32.50177712205419</v>
+        <v>30.85251627008601</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.62183497220545</v>
+        <v>33.08320366964994</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>37.36741526486273</v>
+        <v>34.2806897560169</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.97957074482691</v>
+        <v>30.14942072300812</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.89538821544889</v>
+        <v>40.38224150507043</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.08763751436172</v>
+        <v>43.27295012469575</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.5552427355769</v>
+        <v>38.41962315632572</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>50.03448641553166</v>
+        <v>44.39347608227544</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>56.67362537800435</v>
+        <v>47.94754531043114</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.81561801971389</v>
+        <v>51.49819963149184</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>51.74888541335537</v>
+        <v>45.5653418758721</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>43.99817912787272</v>
+        <v>39.88124442889927</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>48.88682099426815</v>
+        <v>42.698520727195</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>39.25742419011323</v>
+        <v>37.59557117502139</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>51.14110262216889</v>
+        <v>45.98598158726781</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>56.85368619647727</v>
+        <v>49.8344835159171</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>63.0026125594114</v>
+        <v>53.69974247512167</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>51.03601877598413</v>
+        <v>47.37188625009733</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>37.61839198358142</v>
+        <v>34.91244679010517</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>42.15265107755993</v>
+        <v>37.42708593355388</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>34.05757944773903</v>
+        <v>33.46682982346908</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.37632527569757</v>
+        <v>45.05892053747704</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>55.8469265953532</v>
+        <v>48.54003562880001</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>61.79709754895451</v>
+        <v>52.44933350748043</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>49.87391005464013</v>
+        <v>46.01402792409615</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>6.54565665096958</v>
+        <v>12.86065880293</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.259639385645595</v>
+        <v>15.99216880260585</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>8.216233216698157</v>
+        <v>15.67202792422871</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>6.43063120403637</v>
+        <v>15.88121371889895</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>9.485305778641511</v>
+        <v>13.49023575496501</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.98342657833126</v>
+        <v>16.47138884382779</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>19.29373672850125</v>
+        <v>20.73523447964121</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>20.77192854803668</v>
+        <v>21.10129714476745</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>16.78657183308525</v>
+        <v>20.10964507766839</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>31.94528480188343</v>
+        <v>30.59750947132865</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>12.93710513113983</v>
+        <v>16.23292840224517</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.19770759530345</v>
+        <v>19.64422339325437</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>16.12930776023595</v>
+        <v>19.78311402338717</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>10.83491495103151</v>
+        <v>18.52008986441019</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.70271195021655</v>
+        <v>26.05422657634502</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>10.18305334719575</v>
+        <v>14.19219646452366</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>11.87489037746397</v>
+        <v>17.32857819391367</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.60507695313732</v>
+        <v>17.46278993817911</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.712828436242823</v>
+        <v>16.97786481371402</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>19.68033143119881</v>
+        <v>19.89843054742926</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>12.63111729240332</v>
+        <v>17.68344095282015</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>13.31504460876967</v>
+        <v>17.5610869814694</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>9.428358069059183</v>
+        <v>16.33998246290573</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>10.56877092433045</v>
+        <v>14.18437510116296</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.04058021393902</v>
+        <v>18.94326611664784</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>15.45164749397734</v>
+        <v>19.04107919407767</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>12.24097124912922</v>
+        <v>18.23668506675013</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>34.10662717337128</v>
+        <v>33.93848066720506</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.00842772812676</v>
+        <v>36.08595914650109</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.0210813623556</v>
+        <v>31.59061279481487</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>42.99054673446929</v>
+        <v>38.98018234628078</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>50.12083181425857</v>
+        <v>45.71013220913669</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>53.81827384015985</v>
+        <v>48.27852386912221</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>45.6701104526788</v>
+        <v>43.7946781513469</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.20391922197024</v>
+        <v>28.18049741558966</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.13018380583011</v>
+        <v>28.6360708598483</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>24.39121434585092</v>
+        <v>26.59958176039139</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.84324505220708</v>
+        <v>37.07807852453703</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.62845173880624</v>
+        <v>41.21291502812678</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>48.38199946082758</v>
+        <v>42.44101566204189</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.80187680460733</v>
+        <v>38.27760852784411</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.25350085890233</v>
+        <v>20.20830252462278</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>18.47270742192407</v>
+        <v>20.32512368460383</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>15.46661930505546</v>
+        <v>20.01319684966779</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.12218076874691</v>
+        <v>34.96240216057761</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.46686437759896</v>
+        <v>37.25033848108299</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.65360434501279</v>
+        <v>38.39811591831855</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>34.99576253467013</v>
+        <v>34.19822824343206</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>2.298932450206237</v>
+        <v>8.615574685522528</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>1.951328680208899</v>
+        <v>11.50822290748161</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>1.51252383384103</v>
+        <v>11.05376206247368</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>2.010058503484494</v>
+        <v>12.13788936472137</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.47948561217443</v>
+        <v>24.48666084635504</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>6.194204747061708</v>
+        <v>9.79524855134596</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>9.50979902449971</v>
+        <v>13.52466098458943</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.05513967037532</v>
+        <v>13.24518197842165</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>7.754359299751357</v>
+        <v>13.41224926532249</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>39.0573244547481</v>
+        <v>35.5042391923551</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>8.497312421762309</v>
+        <v>12.72008276637867</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>10.19064307916739</v>
+        <v>16.94023509349026</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>10.29451355486084</v>
+        <v>16.43689719627746</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>5.530494131882058</v>
+        <v>15.36262806121722</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.39779342270481</v>
+        <v>36.04265385914243</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.82748863804524</v>
+        <v>13.72896834236526</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>12.038407064119</v>
+        <v>16.40556889078479</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>12.64446285107802</v>
+        <v>16.03562923490629</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>8.693778822382853</v>
+        <v>15.97716281552252</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.64880991871381</v>
+        <v>33.76013887794972</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.62482927215991</v>
+        <v>28.08553847559171</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.83555483381549</v>
+        <v>29.07122583384358</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>22.26686573864673</v>
+        <v>26.4223611056923</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.28848214487247</v>
+        <v>26.57388684939747</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.88191074974317</v>
+        <v>29.64375387286956</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.04145140066754</v>
+        <v>30.31390120957166</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>23.05640435677774</v>
+        <v>26.61281721791806</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>43.02159829498684</v>
+        <v>39.09781327936081</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>47.6856136309136</v>
+        <v>41.83987616890794</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>38.06480276965601</v>
+        <v>37.10910395703662</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>47.72333666098692</v>
+        <v>44.27271732068164</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>55.16189938401212</v>
+        <v>48.57571695138294</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>61.27897373593871</v>
+        <v>52.45599580388618</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.33643152799848</v>
+        <v>45.88524159305295</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>42.70248177021782</v>
+        <v>39.69688320140554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>47.12117121105911</v>
+        <v>42.40840383652127</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>37.5382648980227</v>
+        <v>37.34660939548932</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>50.06365282393525</v>
+        <v>45.35864527116302</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>57.14595839145785</v>
+        <v>49.95208609505742</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>63.38820458555515</v>
+        <v>53.91567484099501</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>50.41993973277994</v>
+        <v>46.94891541646376</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.46806484047681</v>
+        <v>35.53441846160804</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>42.62816308135328</v>
+        <v>38.0919296866185</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.29549092392083</v>
+        <v>33.88673490119729</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>50.6902395781437</v>
+        <v>45.37854404115942</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>56.48503272187358</v>
+        <v>50.11060153907945</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>62.8906986955074</v>
+        <v>54.20977963862641</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>50.53890062411583</v>
+        <v>47.01233786089485</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>10.62147023054962</v>
+        <v>15.4659710219507</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>13.30956321926209</v>
+        <v>19.13875735241477</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>13.35918197008358</v>
+        <v>18.98878916401006</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.11374334519288</v>
+        <v>18.74423136830004</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>5.844009582303531</v>
+        <v>11.46357158040718</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.92821362766435</v>
+        <v>19.69447650765145</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.36670948252452</v>
+        <v>23.85345864275187</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>24.99461425026267</v>
+        <v>24.52787167586278</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>21.40938894333745</v>
+        <v>23.03209465366497</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>21.1559051275892</v>
+        <v>23.26544867261185</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>15.99083319920027</v>
+        <v>20.57954830061247</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>20.47462347430086</v>
+        <v>23.51828432390192</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>21.71798355829405</v>
+        <v>23.89454619334117</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.22290156729679</v>
+        <v>21.55025642729156</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.59710107356402</v>
+        <v>20.77483275611639</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>14.54486568771464</v>
+        <v>17.31967822108237</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.13455239152102</v>
+        <v>20.07648992050157</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.40782713630952</v>
+        <v>20.42017559795572</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.78839569818802</v>
+        <v>19.12844015308629</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.36235613781255</v>
+        <v>16.60709746809619</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>8.500095550131796</v>
+        <v>15.48471481033685</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>8.338233904815183</v>
+        <v>15.19529910245056</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>5.806534311662478</v>
+        <v>14.68738811208515</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.59298006677894</v>
+        <v>19.27998822298168</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>19.18240921921758</v>
+        <v>22.70329393120249</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.07155926306627</v>
+        <v>23.16365631660184</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>15.28693329725535</v>
+        <v>21.71397509172355</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>23.71716397858551</v>
+        <v>26.72275663949182</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.40715565494428</v>
+        <v>27.44088741009122</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.5229981235081</v>
+        <v>25.72205943110385</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.65095124550606</v>
+        <v>33.84497456630464</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>41.57034504433396</v>
+        <v>39.29024841690388</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>45.29993802804027</v>
+        <v>40.99866465156509</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.67211375435856</v>
+        <v>37.1538454295242</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.26966889994017</v>
+        <v>23.1558384754343</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.49795293737999</v>
+        <v>23.34530861191208</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>17.89908630725076</v>
+        <v>21.83261393531075</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.77030486062915</v>
+        <v>33.89271117570598</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>40.81614138771248</v>
+        <v>38.21335280710877</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>44.31853316558237</v>
+        <v>39.94044271254668</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.76128617073787</v>
+        <v>34.75354633022037</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>14.05688078306212</v>
+        <v>17.68889563098481</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>15.00502514541316</v>
+        <v>17.65432649352959</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>11.92214804558066</v>
+        <v>17.2985080629639</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.18774855513129</v>
+        <v>31.05915647869645</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.72115661157635</v>
+        <v>34.45891683236364</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.19233500885937</v>
+        <v>36.45037104627025</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.62417800166231</v>
+        <v>31.79282731536517</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>3.136999477836667</v>
+        <v>8.54247031235866</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>5.696282398467844</v>
+        <v>11.81873688540901</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>5.276396998611528</v>
+        <v>11.35405013928564</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>6.061796864937648</v>
+        <v>12.36743317341274</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-0.4099468250470188</v>
+        <v>8.409136068370984</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.438893394015256</v>
+        <v>11.30844861808655</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>10.40021475781289</v>
+        <v>14.80006806785985</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>10.85440598137951</v>
+        <v>14.67702661662791</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>9.771374956806682</v>
+        <v>14.64235421108394</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>6.852182772828357</v>
+        <v>10.78853613891313</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>5.955292327946694</v>
+        <v>12.69381366256653</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>9.515013698854222</v>
+        <v>16.42152814169015</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>9.664690120998277</v>
+        <v>16.26442178539499</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.182959402636623</v>
+        <v>16.00666599090395</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>5.049539835429457</v>
+        <v>10.02780771213315</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>6.662082980907915</v>
+        <v>10.99519497887387</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>9.269436848688791</v>
+        <v>14.01080794088176</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>9.834542937404592</v>
+        <v>13.79586247369195</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>8.167444622441494</v>
+        <v>14.28520063089471</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>4.027029028772393</v>
+        <v>9.298742855269591</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>3.008565686846271</v>
+        <v>11.89982811413276</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>2.524887773244735</v>
+        <v>11.41140039579058</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>2.399846824797223</v>
+        <v>12.30068357333619</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>10.57712891361358</v>
+        <v>15.81610412420559</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>13.96597387157745</v>
+        <v>19.03580117517601</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.14388121277271</v>
+        <v>19.15625607939199</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>11.94845749578998</v>
+        <v>18.86645839661837</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.316730280542338</v>
+        <v>14.12619158268589</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.971596692475774</v>
+        <v>13.92740087237456</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>8.217450448921007</v>
+        <v>14.13277731742132</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.8917158263358</v>
+        <v>23.61919289028483</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.8234473617655</v>
+        <v>29.70631773580114</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.95833534855067</v>
+        <v>30.42615206579161</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.92543766344764</v>
+        <v>28.35663512077702</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>7.00324682981168</v>
+        <v>12.93888269237954</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>7.166168757211071</v>
+        <v>12.65234578929633</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>6.175682363420876</v>
+        <v>13.23901344084054</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.21540623829022</v>
+        <v>23.7581846343178</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.41558869123664</v>
+        <v>29.09343420525346</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>31.24877162599348</v>
+        <v>29.87712391914714</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.72541869235574</v>
+        <v>27.82683745742148</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>4.756473903852093</v>
+        <v>11.94227291610833</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.066945991172734</v>
+        <v>11.67727455577737</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>5.31232744247178</v>
+        <v>12.45561185088226</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>23.37712376869712</v>
+        <v>24.08366444807795</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.30722352615368</v>
+        <v>27.49812586825987</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.51034624000986</v>
+        <v>28.51753997845204</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>24.58878620780849</v>
+        <v>26.55840907424998</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.92500259805258</v>
+        <v>21.54054104719851</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>19.88564816731793</v>
+        <v>23.83418752248884</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.4296017872844</v>
+        <v>24.44653168957671</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>19.75149730281343</v>
+        <v>23.1641710257116</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>6.424208597970235</v>
+        <v>13.17774413543981</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>32.85387318252541</v>
+        <v>32.68552832010973</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>43.38743047761878</v>
+        <v>39.21999489552982</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>47.4580434581068</v>
+        <v>41.70487232659196</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>42.84142284079208</v>
+        <v>38.20547860177909</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.49928263128983</v>
+        <v>24.31984991661365</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>35.96477715297124</v>
+        <v>34.69770813452212</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>44.70078002576818</v>
+        <v>41.14574865897188</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>48.69318625104076</v>
+        <v>43.68711755278981</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>42.27617711856283</v>
+        <v>40.22584321622031</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.93492911630968</v>
+        <v>27.38859938752962</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.16056626688008</v>
+        <v>28.76975844301443</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.92880563028766</v>
+        <v>31.97105357059272</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>34.63404718474952</v>
+        <v>33.22241176902486</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>30.36532808411798</v>
+        <v>32.56420333252489</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.45210713190298</v>
+        <v>24.97543637980701</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>10.35456471732467</v>
+        <v>16.52155583996463</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.76590146435796</v>
+        <v>16.40780345056552</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>7.92651376958645</v>
+        <v>16.2223936276571</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.43500612111137</v>
+        <v>18.40694228720659</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>17.98764410222308</v>
+        <v>20.99169958398185</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>18.85521972823438</v>
+        <v>21.04847725295976</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>13.80301922995685</v>
+        <v>19.45179798539809</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>33.91419222803713</v>
+        <v>30.94864343436248</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.29942263013687</v>
+        <v>32.57919185640774</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>32.62039217319075</v>
+        <v>30.80506071223235</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>42.64292704631084</v>
+        <v>38.13376081224549</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>52.6194845325339</v>
+        <v>45.73559740846357</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>57.8148669613114</v>
+        <v>48.67842396492772</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>49.38099854946675</v>
+        <v>43.91697847362899</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.84549337229948</v>
+        <v>33.69515191671503</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.82941686918051</v>
+        <v>35.32623059198281</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.12022139740102</v>
+        <v>33.62554829404875</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>44.25291341845286</v>
+        <v>40.19176019826482</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>52.23562943813383</v>
+        <v>47.48835457399496</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>57.13461863722912</v>
+        <v>50.45012046065558</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>47.63641220531458</v>
+        <v>45.42167550487939</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.08728910163916</v>
+        <v>27.58651972734869</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.42311341215479</v>
+        <v>28.93746710986477</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.05165322423332</v>
+        <v>28.10129456178119</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>42.4540909023189</v>
+        <v>38.68999808006768</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>45.18070949732994</v>
+        <v>41.50054587600314</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.95816859028064</v>
+        <v>43.77635708333701</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>39.57135752369267</v>
+        <v>38.23775883692799</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.65364319151021</v>
+        <v>33.32929740287327</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.20156405179097</v>
+        <v>33.8048550757642</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.09815084005058</v>
+        <v>35.41040385479001</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.78808179201983</v>
+        <v>30.68064089483278</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>21.33020950131889</v>
+        <v>21.73333391925939</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>43.77439746583134</v>
+        <v>39.68722705196627</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.06576826643738</v>
+        <v>43.92739141950565</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.13087531049345</v>
+        <v>46.91993783524284</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>43.92107548503823</v>
+        <v>42.0568614463277</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>39.01914103614794</v>
+        <v>36.7425221723112</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>40.88355775511667</v>
+        <v>37.36902735234621</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>44.18576949098044</v>
+        <v>39.67571918517184</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>48.6120007896636</v>
+        <v>42.05052849648427</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.68113020973566</v>
+        <v>35.52048889169436</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>38.06140656132908</v>
+        <v>35.06817452962847</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.9227407044537</v>
+        <v>39.11963065045489</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.50039489472191</v>
+        <v>40.64741132650697</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>47.69931497711639</v>
+        <v>43.24979120764198</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>35.48933305652756</v>
+        <v>36.17339923648508</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.00012669042736</v>
+        <v>32.96850301285059</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>24.51013521571932</v>
+        <v>25.61154564875499</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.46762810617979</v>
+        <v>26.54060350626279</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>20.30551660433625</v>
+        <v>23.44734355885788</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.09618076797316</v>
+        <v>27.15673113935378</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>30.41644597840052</v>
+        <v>30.19812171001818</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>32.29819615259745</v>
+        <v>30.88534070907852</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.5284829310247</v>
+        <v>27.19868277275935</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.45533110092855</v>
+        <v>39.17940641391768</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>46.89433100191012</v>
+        <v>41.99069935843055</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>38.18659240389236</v>
+        <v>37.34568816156095</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>47.56240987324612</v>
+        <v>42.05199678821683</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>53.88839151049437</v>
+        <v>46.75517144329343</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>59.42271604856278</v>
+        <v>50.34174654151078</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>47.93812088767721</v>
+        <v>44.19746913888326</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>40.83803400086914</v>
+        <v>38.82933982205993</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>44.74170605654789</v>
+        <v>41.33753297712186</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.33751597124154</v>
+        <v>36.47398935203552</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>46.02266267421545</v>
+        <v>39.67569414179401</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>51.47288401328505</v>
+        <v>45.38880233781778</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>56.68094541342647</v>
+        <v>48.49414889781393</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>44.61632434763941</v>
+        <v>42.62409014071851</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>35.85770238945486</v>
+        <v>34.42982339997056</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>39.10009305316869</v>
+        <v>36.57822929417287</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.97583729417549</v>
+        <v>33.59258311648427</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>46.32558758463503</v>
+        <v>40.79950805154312</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>50.0482183007794</v>
+        <v>44.93112232961964</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.6291129494421</v>
+        <v>47.58388900309146</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>43.93018671284678</v>
+        <v>42.03620410227597</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.19883101146439</v>
+        <v>37.25631213756792</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>31.21371437060676</v>
+        <v>32.75120191259565</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>34.24172662777623</v>
+        <v>34.63875279426978</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.04400969512044</v>
+        <v>31.57385435834839</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.42614446081518</v>
+        <v>22.31260221930205</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>44.71500942095852</v>
+        <v>39.75281554157394</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>45.00834447829908</v>
+        <v>41.36865263572596</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>49.85562215768805</v>
+        <v>44.13974596947133</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.98861150092075</v>
+        <v>39.78823208169328</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.09702543844541</v>
+        <v>36.38276865725613</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>42.74379597780009</v>
+        <v>39.25004212044583</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>41.34326310124488</v>
+        <v>39.91137079602579</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>45.81786742842733</v>
+        <v>42.30126019771443</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.65828510631889</v>
+        <v>34.58835477955105</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>38.44171351634421</v>
+        <v>35.56179167871117</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>45.26458790820674</v>
+        <v>39.21880211358381</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.73065218120286</v>
+        <v>38.93010591010187</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>42.52588807966617</v>
+        <v>40.9621564552872</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.28878833932943</v>
+        <v>33.29122610043203</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>39.34812224962079</v>
+        <v>35.10573223600596</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.74016576569169</v>
+        <v>25.65983337913323</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.62026996361806</v>
+        <v>26.41263906306935</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.45582439366903</v>
+        <v>23.46039504677298</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.0658407818913</v>
+        <v>28.04589825084306</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.89218429043549</v>
+        <v>31.04005742009891</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.61572533659712</v>
+        <v>31.74851270007659</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>23.07927661832298</v>
+        <v>28.03134109120624</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>46.69987243230202</v>
+        <v>40.52861723208979</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>51.81200926554165</v>
+        <v>43.4127483279395</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>42.83762453467496</v>
+        <v>38.99832566546054</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>47.74055468088862</v>
+        <v>41.70995810204661</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>55.78754477135746</v>
+        <v>47.00313812913955</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>61.87256685618152</v>
+        <v>50.4675071102883</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>50.40624179438639</v>
+        <v>44.46997120059744</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.25536717159945</v>
+        <v>38.9879264743265</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>48.04094438771159</v>
+        <v>41.74523520683903</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>38.55071557229466</v>
+        <v>36.60801753570135</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>47.16018867372264</v>
+        <v>42.69235576703571</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>53.03025427810515</v>
+        <v>47.18662321763202</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>58.93518952794409</v>
+        <v>50.79222600552531</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.2127597335428</v>
+        <v>44.11149785519596</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>37.75257104381377</v>
+        <v>36.11228797835799</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>41.86520646595181</v>
+        <v>38.71427254778656</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>34.07157686887646</v>
+        <v>34.76065133311554</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>50.26328352118583</v>
+        <v>42.5077551380237</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>53.92288920684271</v>
+        <v>46.76370333284447</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>59.30540252581321</v>
+        <v>50.25052358477362</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>46.94672016912109</v>
+        <v>43.62574196624406</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>37.18187158634035</v>
+        <v>37.13741098961547</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.58414061565151</v>
+        <v>29.40576778810818</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.37983973725835</v>
+        <v>30.57442296650067</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.96172208173568</v>
+        <v>26.28672659704969</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>38.92862956705356</v>
+        <v>35.70353831625116</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>46.42124235317571</v>
+        <v>42.79210235615507</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.85800473099679</v>
+        <v>40.78212055783686</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.98571387559148</v>
+        <v>43.33136698642072</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>37.27989988323161</v>
+        <v>37.3980916945527</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>53.8900798732195</v>
+        <v>47.03556555918358</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>50.21569440181536</v>
+        <v>43.39371169989209</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.56869455908148</v>
+        <v>41.16626189306494</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>49.99966343036716</v>
+        <v>43.65679191043536</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.03031266110447</v>
+        <v>35.69224784757431</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>55.08522165690426</v>
+        <v>47.14062473702035</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>49.15909457692035</v>
+        <v>44.2070908647017</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.40313220866601</v>
+        <v>39.95573121646485</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>43.50975618762747</v>
+        <v>42.36638468673941</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>30.25914116363492</v>
+        <v>34.15606325338625</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>55.2455928683794</v>
+        <v>47.03776518348708</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.51967911951661</v>
+        <v>30.13919229443969</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.46651203582043</v>
+        <v>30.60886230108308</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.73806333866619</v>
+        <v>27.92162170638603</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>43.08844627676067</v>
+        <v>41.09946339036789</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.26978317475093</v>
+        <v>35.50600802982363</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>37.47039005742334</v>
+        <v>36.0313073763863</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>30.46634591697743</v>
+        <v>32.36047311139353</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>48.47467578886513</v>
+        <v>43.02788891115421</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>52.08245064438442</v>
+        <v>45.15374117991755</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>45.28709464759589</v>
+        <v>41.56972983657805</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>61.19346972011689</v>
+        <v>52.70592329738761</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>60.43041899122438</v>
+        <v>50.93015167924975</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>65.3683061032027</v>
+        <v>53.81071431608571</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>56.14217647783144</v>
+        <v>48.9369916157014</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>47.9652358113818</v>
+        <v>42.72352477132005</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>51.61871504913293</v>
+        <v>44.89262391755505</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.9366474274146</v>
+        <v>40.81498853014109</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>63.60246929312512</v>
+        <v>54.659360211601</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>60.12343420939757</v>
+        <v>52.11965448300502</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>65.00703168266678</v>
+        <v>55.03978163532437</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>54.1624353255389</v>
+        <v>49.40605971137911</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>43.42875979502008</v>
+        <v>40.52744982769789</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>47.16746722838771</v>
+        <v>42.91576697589711</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.95902554258861</v>
+        <v>39.35498771392718</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>65.50810911614346</v>
+        <v>55.22845281258302</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>60.15325664142818</v>
+        <v>52.47091531205729</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>65.01431559520128</v>
+        <v>55.62736488818054</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>53.72243869479261</v>
+        <v>49.54174207732781</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.22465801744183</v>
+        <v>23.63789098806147</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.78762083080336</v>
+        <v>24.54841177194728</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>24.96103462810574</v>
+        <v>25.48782375274467</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>18.60159574495969</v>
+        <v>22.47273112755375</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>16.87889069345235</v>
+        <v>18.42470701988841</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.79967224116982</v>
+        <v>39.38358061253133</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>47.09130337412955</v>
+        <v>43.48829347045275</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>52.27620696126193</v>
+        <v>46.93900637324994</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.55970375901325</v>
+        <v>41.22124421878928</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>39.16337552790255</v>
+        <v>35.94290036965828</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.36431032175413</v>
+        <v>36.54516584793613</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.08957238347657</v>
+        <v>38.90330444027464</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>46.64683128123628</v>
+        <v>41.53826782928595</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>34.15402061369604</v>
+        <v>34.31116279134332</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>38.4803593632578</v>
+        <v>36.03479617268565</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.02207575418565</v>
+        <v>28.72041330772051</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>35.01000628949917</v>
+        <v>34.9116377522922</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>38.23075646515652</v>
+        <v>36.46827671037617</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.56088595976399</v>
+        <v>31.71293405439091</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.06132612976054</v>
+        <v>29.74115031640818</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.2213921043359</v>
+        <v>22.7402681887816</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>20.77058010094242</v>
+        <v>23.38873514128398</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>14.2672182755459</v>
+        <v>20.84439624101076</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.84327901133877</v>
+        <v>22.72571831579841</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>24.93533446108421</v>
+        <v>26.68927374836213</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.53560384132496</v>
+        <v>27.16627395500093</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>19.71946895532824</v>
+        <v>24.26010380825537</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>42.76660559928568</v>
+        <v>38.98101544636769</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>47.50380532124261</v>
+        <v>41.9836734135922</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.16578435943327</v>
+        <v>37.2035934251455</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>46.90652255015051</v>
+        <v>41.67244636217566</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>54.64999985801444</v>
+        <v>46.49335619852408</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>60.56252520065511</v>
+        <v>50.3070197981708</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>49.52101118793657</v>
+        <v>43.7663638293544</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>40.56611671603721</v>
+        <v>38.61782413296334</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>44.77583457588136</v>
+        <v>41.29402980746984</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>35.54724604435943</v>
+        <v>36.48684666531594</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>46.5076445209541</v>
+        <v>41.52364339697847</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>52.56656200912972</v>
+        <v>46.3552860804942</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.05818343744747</v>
+        <v>49.71668963007195</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>46.15497897586621</v>
+        <v>43.62114842735859</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.96717911099933</v>
+        <v>29.29654975518412</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.57626016339264</v>
+        <v>30.29619371624542</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>23.74709460823688</v>
+        <v>26.52926985810408</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>42.84886629363719</v>
+        <v>37.86285963660917</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>46.7675841619175</v>
+        <v>42.76133081140853</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>50.97947152203908</v>
+        <v>45.09522779724517</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>40.52971509285184</v>
+        <v>40.42897772778237</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>12.42206832076657</v>
+        <v>16.2387941141614</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>13.3469275421997</v>
+        <v>19.05945023433371</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>13.63136981654969</v>
+        <v>19.02168749358344</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>12.0189053918069</v>
+        <v>18.7103382050496</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>14.09477518832325</v>
+        <v>15.11509035398067</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>20.08817064978903</v>
+        <v>21.17603822905175</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>24.59139635475721</v>
+        <v>25.22849145394004</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.40635497351972</v>
+        <v>25.9067376232406</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.0037462575315</v>
+        <v>23.99371321480894</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>35.71035645220047</v>
+        <v>34.77411248162117</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>19.69404229853332</v>
+        <v>19.96716691804777</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.44804395248714</v>
+        <v>23.72210440657262</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.92135056541184</v>
+        <v>24.09160475892628</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.94682675849668</v>
+        <v>22.25602622051298</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>31.34270428743902</v>
+        <v>30.00646896686842</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>20.06991186665761</v>
+        <v>19.78293229287451</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.52071434862253</v>
+        <v>22.69787993926421</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>21.57451176023251</v>
+        <v>23.14218964069633</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>16.30214953654546</v>
+        <v>21.5395451135976</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.80324029009643</v>
+        <v>30.75000643186051</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>16.73140461092937</v>
+        <v>19.10678383458129</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.76994888163202</v>
+        <v>19.17399479273528</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>12.8289120768446</v>
+        <v>17.90604679592693</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>14.61159702258985</v>
+        <v>16.26552127496469</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.81435023209484</v>
+        <v>19.55157992053347</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>16.58077533980744</v>
+        <v>19.65743351329303</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>11.92584527217237</v>
+        <v>18.68039940736992</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>39.60354466494931</v>
+        <v>37.4361810857275</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>43.39950271358903</v>
+        <v>40.10219121938258</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>35.59367098080875</v>
+        <v>35.15608915527856</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.27388879365272</v>
+        <v>42.53191186120402</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.48028481668719</v>
+        <v>47.01806274689401</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>57.42171819523864</v>
+        <v>50.41884358951523</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>48.31515806340456</v>
+        <v>44.61143891892036</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>34.35429800414701</v>
+        <v>33.55095365793316</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.25689032761817</v>
+        <v>34.91807386859315</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>30.390563696359</v>
+        <v>31.89221912306804</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>44.42118131015999</v>
+        <v>40.12936267313262</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>49.66086584283346</v>
+        <v>43.8472036057296</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>53.80707879550843</v>
+        <v>46.23655015861075</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>43.96936443993567</v>
+        <v>41.0417460919024</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.3282145840262</v>
+        <v>32.06181012532586</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>33.29560048790459</v>
+        <v>33.17164243544559</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>27.59370797996836</v>
+        <v>30.51279011883395</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.32166882202126</v>
+        <v>38.35704927664609</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>43.04013945594169</v>
+        <v>39.49469752834933</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>45.19171572465839</v>
+        <v>40.69979840320327</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>35.59779540141603</v>
+        <v>35.47636295821567</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>11.28280871377889</v>
+        <v>13.7997630548863</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>12.57311256568564</v>
+        <v>17.19150672904435</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.07397987047171</v>
+        <v>16.96724496708291</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>12.23656212073051</v>
+        <v>16.91617399295574</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>16.01580008497043</v>
+        <v>16.57114624276867</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.64702770715973</v>
+        <v>21.15717102782241</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>31.11179237759209</v>
+        <v>28.02615074773677</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.92813577028375</v>
+        <v>28.76876706231592</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.61429742548283</v>
+        <v>26.93083975876814</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>31.47227104369733</v>
+        <v>28.85140778172483</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>32.97203118249237</v>
+        <v>35.3756143464642</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>38.09079125808547</v>
+        <v>38.0264824777755</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>41.4860716813206</v>
+        <v>40.26733754777658</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>32.69517615026695</v>
+        <v>35.71890995225378</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>35.71992954367268</v>
+        <v>33.36836012194373</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.40770528787309</v>
+        <v>30.6117229469535</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.67140383767486</v>
+        <v>33.46334677885151</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>35.77955218578701</v>
+        <v>35.57760368049505</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.49558924334841</v>
+        <v>32.74034758856799</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>35.81820345931837</v>
+        <v>31.29486004405923</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.34929805240107</v>
+        <v>20.11429328056425</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>16.45853206012873</v>
+        <v>19.89695740359728</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>11.63522562535228</v>
+        <v>17.86734929929632</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>13.63068428327826</v>
+        <v>14.0708742377438</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>14.38775144827633</v>
+        <v>17.18068189021202</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>14.00947022241958</v>
+        <v>16.81455590709439</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>9.230272274171579</v>
+        <v>15.05916488380872</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.11273497707151</v>
+        <v>33.38504413422366</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>38.89596796964334</v>
+        <v>34.48945209496311</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>32.84545718961597</v>
+        <v>32.20208452652028</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.51893555941776</v>
+        <v>35.0278357962972</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>45.59053442628866</v>
+        <v>41.53848756347853</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>49.13367561792062</v>
+        <v>43.32069288976039</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>41.35560333636712</v>
+        <v>39.70896158255866</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>38.249757741578</v>
+        <v>36.59800156907566</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>41.18806109345527</v>
+        <v>38.41672017407003</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.9517926346826</v>
+        <v>34.31010698454148</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>43.57964755643945</v>
+        <v>40.59839926611886</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>47.25475033784917</v>
+        <v>43.85615304977416</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>50.88637551586821</v>
+        <v>46.13431547195289</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>41.01906646355081</v>
+        <v>40.17580173254564</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>33.73654159021446</v>
+        <v>33.78484377318331</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.71712598106819</v>
+        <v>35.4900255858391</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>29.95199049523665</v>
+        <v>32.39343425022754</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>41.67848929765496</v>
+        <v>36.24335217163742</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>42.36103789319504</v>
+        <v>38.03949967341032</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>45.48548229657415</v>
+        <v>39.374004371274</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.75898603633109</v>
+        <v>33.95318067111672</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.29575120990628</v>
+        <v>36.83866202135241</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>33.29720965552556</v>
+        <v>33.0631573287168</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>35.75866498394448</v>
+        <v>34.72947096236485</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.211093706588</v>
+        <v>31.98621559751673</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>24.25389053417284</v>
+        <v>24.94588607269378</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>45.22359643964441</v>
+        <v>40.22499590492549</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>46.65041809609372</v>
+        <v>42.48630034367149</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>50.7627960635936</v>
+        <v>45.17578785912772</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>41.23965076831649</v>
+        <v>40.55457930717169</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>39.43904276338566</v>
+        <v>36.05155745914125</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>43.64255682522608</v>
+        <v>39.44355310302001</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>43.55571421129913</v>
+        <v>39.54235727673526</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.9845152627357</v>
+        <v>41.26872978007848</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>34.40199505017672</v>
+        <v>33.78533035237115</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>39.20818989882494</v>
+        <v>36.6540281870957</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>45.27389860481694</v>
+        <v>39.96848245870963</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>42.16266132555637</v>
+        <v>39.19379887268</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>45.21217432361264</v>
+        <v>41.10465579056825</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.08077898128244</v>
+        <v>33.35065034613532</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.2833448150292</v>
+        <v>35.79314696812596</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>27.7321009537376</v>
+        <v>29.44794511785555</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>30.05400360598589</v>
+        <v>30.61963581666669</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>23.79133200415194</v>
+        <v>27.97949469008235</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>27.95523600889132</v>
+        <v>27.83133925990668</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.68327208527352</v>
+        <v>31.74924742071741</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.69730493483885</v>
+        <v>32.5296965854753</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.92863188315095</v>
+        <v>28.9013591874004</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>44.73518895699397</v>
+        <v>39.76200927988909</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>49.37350187149146</v>
+        <v>42.51330449586358</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>40.88964978914194</v>
+        <v>37.91466538640542</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>47.12831674063972</v>
+        <v>42.73419894781819</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>54.25829933409946</v>
+        <v>46.91841286700237</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>59.94935375095357</v>
+        <v>50.47652951062219</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>48.97986792527958</v>
+        <v>44.58377893657136</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>43.19142044852032</v>
+        <v>39.7826659642344</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>47.46914322609688</v>
+        <v>42.33190364464343</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>38.70574736129635</v>
+        <v>37.41143844532083</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>48.5761231091026</v>
+        <v>43.33784582291841</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>54.07755268063415</v>
+        <v>47.56213648245164</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>59.54487716673427</v>
+        <v>51.02108900615273</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>47.44641779966815</v>
+        <v>44.63953579423502</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>39.81326080705428</v>
+        <v>37.99149372292669</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>43.96996590018315</v>
+        <v>40.77089646886949</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>35.91783743289291</v>
+        <v>36.05423557329772</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>48.54083882421482</v>
+        <v>42.02832258115006</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>52.49722392827159</v>
+        <v>44.90640565291852</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>57.43485267191505</v>
+        <v>48.08583993686945</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>45.19869347349771</v>
+        <v>41.17429690117498</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.04228793286324</v>
+        <v>20.05891057727281</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>18.64889860872415</v>
+        <v>22.24789672472944</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>20.62868467476154</v>
+        <v>22.8164611748203</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>15.01559822063779</v>
+        <v>20.5479986891659</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>20.2212819429237</v>
+        <v>21.86733719437747</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.55131481073688</v>
+        <v>39.22412069752085</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>45.26453888038169</v>
+        <v>42.38302206954373</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>50.29089563060261</v>
+        <v>45.75624123514403</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>41.06584977499121</v>
+        <v>40.35188871796421</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>39.25386213118677</v>
+        <v>35.36416674144557</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>39.62210117602257</v>
+        <v>37.20671696459664</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>42.0360246765295</v>
+        <v>38.68748701320567</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>46.63285686657733</v>
+        <v>41.47465673549198</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>34.5592034238078</v>
+        <v>34.48825171071502</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>38.81361763700522</v>
+        <v>36.27151072884206</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>33.00937404926118</v>
+        <v>32.5188635414147</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>34.35663597439638</v>
+        <v>34.78436552513249</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>37.78011798995941</v>
+        <v>36.84391796163142</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>27.04680152127759</v>
+        <v>31.16369200534814</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>35.01809757382702</v>
+        <v>31.62265028919223</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>23.84562956150625</v>
+        <v>25.92044781965323</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>25.81713896321065</v>
+        <v>26.69374551650023</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>19.48255475800196</v>
+        <v>24.45390560720008</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>21.04814744798687</v>
+        <v>21.54381964970774</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>23.08994158383663</v>
+        <v>25.70658257231643</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>24.37706786727901</v>
+        <v>26.07800140105631</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>17.4642889872049</v>
+        <v>23.28987177844637</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>44.4693300160433</v>
+        <v>38.89423691510412</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>49.51863994079158</v>
+        <v>41.92124477777889</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>40.47484205987212</v>
+        <v>37.05143473176593</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>46.81046445943247</v>
+        <v>42.73955282607353</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>52.96886183681097</v>
+        <v>46.13965853033982</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>58.60644230429848</v>
+        <v>49.85158733867404</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>47.25766958519355</v>
+        <v>43.26928125487285</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.65620953509973</v>
+        <v>39.26973981493359</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>47.24577912285393</v>
+        <v>42.10864550060956</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>38.22423800780983</v>
+        <v>36.71014329209617</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>46.09100167669128</v>
+        <v>41.82655647453942</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>50.60804615231805</v>
+        <v>45.41533114924395</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>55.79854300356875</v>
+        <v>48.48338749623142</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>43.68009838993272</v>
+        <v>42.3006343321609</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>35.21849813819633</v>
+        <v>34.36437034261715</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>38.69848216980812</v>
+        <v>36.42999695740632</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>31.96139299989721</v>
+        <v>32.97049930253631</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>40.44856933938017</v>
+        <v>36.07184840174863</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>43.0902771582191</v>
+        <v>39.57511728527623</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>46.82453584386824</v>
+        <v>41.29470417651652</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>36.57123962561041</v>
+        <v>36.30098553439759</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_5/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.466</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.009</v>
+        <v>16.535</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.263</v>
+        <v>0.538</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.746</v>
+        <v>18.015</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.006</v>
+        <v>2.125</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.28177712385625</v>
+        <v>12.89730002892763</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.38020675120216</v>
+        <v>15.56875422941578</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.26648803661881</v>
+        <v>15.72318588866783</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.32351728324411</v>
+        <v>14.58082653593121</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.74969416477527</v>
+        <v>19.29801106301369</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.31845801575529</v>
+        <v>18.97914626267449</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.57120764290166</v>
+        <v>24.48376834263234</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.90965077420014</v>
+        <v>25.74789231152839</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.30826620376159</v>
+        <v>23.10988851994585</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.96295222062491</v>
+        <v>42.36452272349894</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.84225034863321</v>
+        <v>16.14827394785054</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>27.01856430387906</v>
+        <v>20.06026792539033</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>27.15121561049845</v>
+        <v>20.91067538214519</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.42905401062778</v>
+        <v>17.44894104917127</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.17414755705932</v>
+        <v>38.40424537488065</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.81433982588852</v>
+        <v>16.41638858738435</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.31879714622526</v>
+        <v>17.9560001154741</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.45003432896944</v>
+        <v>18.76620323462691</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.91376974290784</v>
+        <v>15.64104551322453</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>32.58840009964897</v>
+        <v>37.38912640196982</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.86999311333677</v>
+        <v>24.93471519502928</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.90390765826373</v>
+        <v>25.49779620694839</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.66953581555719</v>
+        <v>20.404904254881</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.10341961606705</v>
+        <v>18.41423185016128</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.32137698315874</v>
+        <v>24.67000853199801</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.34798196785516</v>
+        <v>25.26824798136737</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.23623283571068</v>
+        <v>20.87962613752283</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>38.75712955162074</v>
+        <v>49.28275232609808</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40.47400677992025</v>
+        <v>53.29947281855669</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>38.12923106531556</v>
+        <v>46.55056350846628</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>38.46610292003089</v>
+        <v>47.52399255116056</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>42.11720900220318</v>
+        <v>59.47654685243322</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.07906370149564</v>
+        <v>64.47811698205014</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>41.36466994176791</v>
+        <v>56.98939534970867</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.04858592868369</v>
+        <v>44.08657928345472</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.93902761233452</v>
+        <v>46.80367485275888</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>35.39822434142467</v>
+        <v>40.94219047457703</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.12234583766299</v>
+        <v>45.40634672249132</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.74551429784113</v>
+        <v>53.48038230776081</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.4664060643923</v>
+        <v>58.13109801727331</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.95898634869859</v>
+        <v>50.37739795981656</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>34.26931047031045</v>
+        <v>38.87038755666099</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.0206645559147</v>
+        <v>41.12270186892599</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.74669328668585</v>
+        <v>36.262039133072</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>37.61189615125922</v>
+        <v>47.30544179275687</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>40.01699851818807</v>
+        <v>54.08478312990245</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>41.72648355948562</v>
+        <v>58.56195954860922</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>39.1135577196061</v>
+        <v>50.14947280228642</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>32.94357355395389</v>
+        <v>36.96488532578761</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>32.78653140527677</v>
+        <v>33.79236414990616</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.75517828792523</v>
+        <v>37.04803357285694</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>31.2967184989284</v>
+        <v>27.90547585442758</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.2160569335807</v>
+        <v>24.27236721053233</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>35.28284908478238</v>
+        <v>41.61260245095185</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.49455415501436</v>
+        <v>44.38540950607973</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>38.21029145290267</v>
+        <v>49.44905594257819</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.5397434465538</v>
+        <v>40.04271274089676</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>37.02585087856696</v>
+        <v>44.96336305429438</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>34.21236646691892</v>
+        <v>39.13916189602432</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.76812098374499</v>
+        <v>39.27432501671171</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.07986978811687</v>
+        <v>43.35017327188015</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.13087751702637</v>
+        <v>32.94038850955754</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.70381890867505</v>
+        <v>40.63281087194048</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.70608620076717</v>
+        <v>43.20711248818614</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>35.67722509373883</v>
+        <v>41.72894938718473</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>37.11473909342399</v>
+        <v>46.11947262079126</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>34.19449500764586</v>
+        <v>35.7126838828716</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>34.39051789128719</v>
+        <v>40.93059049263793</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.69062433233142</v>
+        <v>29.45418422044296</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>31.21888359808423</v>
+        <v>31.49463210661807</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.62678529414666</v>
+        <v>24.864552577251</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>31.16679229867133</v>
+        <v>32.98021904709097</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>33.05907468136255</v>
+        <v>34.98943430205754</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>33.65681538535988</v>
+        <v>37.1617439021968</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31.42407798238162</v>
+        <v>28.85515294154901</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.84344203477583</v>
+        <v>50.49109074120348</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.62843826930398</v>
+        <v>55.5069499079149</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>37.63073809289268</v>
+        <v>45.78693692419026</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.97270591737775</v>
+        <v>51.62049581778201</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.71878963832569</v>
+        <v>58.05818673159931</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.99467140119773</v>
+        <v>64.38413267325599</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40.23222191146054</v>
+        <v>52.47083936102106</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>37.27637546695462</v>
+        <v>46.3842879250488</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>38.68830709251198</v>
+        <v>50.55956849373283</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.25175547947713</v>
+        <v>42.06100044287038</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>38.94588814479965</v>
+        <v>49.88896927373939</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>40.7064862819264</v>
+        <v>56.00338338852084</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42.77185097575084</v>
+        <v>61.72751497946776</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>39.35681644045221</v>
+        <v>50.71496003557358</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>35.99970144383562</v>
+        <v>43.33237888518917</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37.18134505822471</v>
+        <v>46.75481373744521</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>35.49997842809752</v>
+        <v>40.66376926276821</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.13204149622561</v>
+        <v>48.1403781400874</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40.35940582912171</v>
+        <v>54.41223272980525</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.11210962582033</v>
+        <v>59.35052018432795</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>39.29036681638598</v>
+        <v>50.06567952567296</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.03257779579714</v>
+        <v>26.8905980278048</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.66488914728171</v>
+        <v>25.50356643184255</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>30.19685151155751</v>
+        <v>27.45186248104877</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.70926674290799</v>
+        <v>21.60924205936755</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.10997762141639</v>
+        <v>24.91544760428143</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>35.61467771154658</v>
+        <v>40.95935934793114</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>37.33698371379555</v>
+        <v>46.2152823879691</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>38.91363153429874</v>
+        <v>50.65568788561737</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.24516438945265</v>
+        <v>41.95366625293858</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>37.75615132475052</v>
+        <v>44.94786523250329</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>34.09571447099264</v>
+        <v>37.90322800727999</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.67684045025413</v>
+        <v>39.06227841072278</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>35.95130036556861</v>
+        <v>43.05986393644094</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>32.42111710279691</v>
+        <v>30.96338026770796</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.86226651690944</v>
+        <v>44.0971855685911</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>35.8468098277253</v>
+        <v>42.33644753454156</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.18377977211897</v>
+        <v>42.98942158651944</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>37.68724565550673</v>
+        <v>47.40637819787371</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>34.14805882281328</v>
+        <v>35.77724772081091</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.31891639504941</v>
+        <v>43.51519415207649</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>31.2769703478565</v>
+        <v>30.81287878336808</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>31.8079448806729</v>
+        <v>32.63811070838396</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>30.22192465785637</v>
+        <v>26.78170693099835</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>31.22142062373089</v>
+        <v>32.55604165201019</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>33.29738176554212</v>
+        <v>35.76265462258772</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>33.87276079520609</v>
+        <v>37.60681939163487</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>31.81762708633265</v>
+        <v>30.4502205434781</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>39.28855823858247</v>
+        <v>51.64020320397165</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41.00356998281092</v>
+        <v>56.20063366964776</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>37.99016408190901</v>
+        <v>47.38288875037757</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.08319819245519</v>
+        <v>48.72947372785946</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>41.11950770568861</v>
+        <v>57.35626162260526</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>43.08468343134531</v>
+        <v>62.67451014459461</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.01390864479025</v>
+        <v>53.2819642657217</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>38.48057170436098</v>
+        <v>49.63116929139847</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>40.1129415106861</v>
+        <v>54.12177993905537</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>37.15349912227668</v>
+        <v>44.90293903622817</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>38.91014290805867</v>
+        <v>48.26925230925053</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>40.8697000921637</v>
+        <v>56.21552734157581</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>42.89568210770101</v>
+        <v>61.81863923490388</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>39.41563262526513</v>
+        <v>51.2784032386126</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>37.00228687233548</v>
+        <v>45.57881690380867</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>38.60679352993063</v>
+        <v>50.15893432442236</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.06349827860623</v>
+        <v>41.64349528806052</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>39.86562879958053</v>
+        <v>51.08682744806285</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.24090140542263</v>
+        <v>57.09449727444294</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.45530443728997</v>
+        <v>63.21809241209478</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>39.92745378098726</v>
+        <v>51.92069808136291</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24.08971045220123</v>
+        <v>17.10191121056435</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.37163530282698</v>
+        <v>27.90339759233953</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.98244817734935</v>
+        <v>29.40394923134413</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>31.68559411315011</v>
+        <v>34.38280588654107</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.23717808784568</v>
+        <v>14.49302978713082</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.35138546974285</v>
+        <v>23.40224219465268</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32.27655768854571</v>
+        <v>35.33091724271923</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>33.2721918207662</v>
+        <v>38.06240132094324</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>33.84463589593636</v>
+        <v>39.74636818904864</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>38.11941501560305</v>
+        <v>44.83235661596227</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.36962147181853</v>
+        <v>21.15972746724643</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.54829738871082</v>
+        <v>32.79363403775248</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>32.48747552981649</v>
+        <v>35.2825092492607</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>33.06081351889898</v>
+        <v>36.81233638539817</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>33.14977580729548</v>
+        <v>38.06741699581024</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.6879254611674</v>
+        <v>22.30368564049339</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.11479246644468</v>
+        <v>31.78304377490583</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>32.0457422818798</v>
+        <v>34.29848190369433</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>32.9479749043393</v>
+        <v>36.61430375876984</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.99816996321731</v>
+        <v>33.19520332586639</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.58410869903352</v>
+        <v>19.1270124915987</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.4542630840937</v>
+        <v>19.38210480585091</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.9000167163646</v>
+        <v>15.97051085584893</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>23.82964827364076</v>
+        <v>16.37593102203097</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.65891078639267</v>
+        <v>21.77185256843748</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>27.73365787645525</v>
+        <v>22.3503350467229</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.49550022689608</v>
+        <v>20.52926942945843</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>39.50898479406384</v>
+        <v>51.28786308278275</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.27468544652692</v>
+        <v>55.64871646213388</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.28954893221311</v>
+        <v>47.44671855331493</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.02928541080533</v>
+        <v>50.07680945531513</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>42.25084636538865</v>
+        <v>59.45119305509817</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>44.22803858164839</v>
+        <v>64.50206353521075</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>41.05154012164675</v>
+        <v>55.62647243093355</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.07372052066081</v>
+        <v>43.82962302552896</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>37.09515957970849</v>
+        <v>46.76699818753247</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>35.15287000795605</v>
+        <v>40.15282597309481</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.62046390427522</v>
+        <v>44.93207492929523</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>39.99757719924778</v>
+        <v>54.31173054763063</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>41.36222474897244</v>
+        <v>58.00392465410809</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>38.93190966442081</v>
+        <v>50.51752816080908</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.40014569758609</v>
+        <v>34.1545209439051</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>33.0718445963714</v>
+        <v>36.23756596793367</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>31.98674279131834</v>
+        <v>32.08415228860878</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>35.49246456962653</v>
+        <v>42.47104512603317</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.77435619789722</v>
+        <v>48.46317688180827</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>38.96034351951434</v>
+        <v>51.64683075950023</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>37.10723242414399</v>
+        <v>45.64672663319631</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.90189381575477</v>
+        <v>24.96068561159562</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.46311626815414</v>
+        <v>22.78362252958691</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>27.84627367584374</v>
+        <v>24.21974321118203</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.63525805250949</v>
+        <v>16.84092124964148</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.39180279027404</v>
+        <v>25.61705933157822</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.27380302454485</v>
+        <v>37.06855842262729</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>32.76816134281319</v>
+        <v>33.94077333550387</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>33.6265820546523</v>
+        <v>37.0872799382102</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.44624401056386</v>
+        <v>21.2125561542936</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>38.64617722241961</v>
+        <v>47.16704927192103</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.67072897661269</v>
+        <v>36.16662632393365</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>33.41948563584091</v>
+        <v>33.9978356919182</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>34.14361692518968</v>
+        <v>36.86468259402292</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.95028061442772</v>
+        <v>19.60169202091119</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>37.49487846890965</v>
+        <v>45.53332375557738</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>35.90578845661759</v>
+        <v>41.83195347147384</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.05237823201701</v>
+        <v>34.86854062162002</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>34.97684793808842</v>
+        <v>38.35987689697742</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.00614733378976</v>
+        <v>19.93852690560359</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>37.64615226882825</v>
+        <v>45.49293979075335</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>31.98456909734368</v>
+        <v>33.1171474449072</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.61934338031561</v>
+        <v>35.14978348883704</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>31.25655098753164</v>
+        <v>30.16841832611641</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>30.12093516187069</v>
+        <v>29.88617491314961</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>32.81735734812399</v>
+        <v>35.00331497923029</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.27096952001847</v>
+        <v>36.43923295143282</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>31.79799341046336</v>
+        <v>31.31318432758679</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>40.7991024767521</v>
+        <v>55.71993882619847</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>42.66109306015454</v>
+        <v>60.73314600755657</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>39.63499115961531</v>
+        <v>51.73313546766641</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>39.56268274029586</v>
+        <v>49.03810044263369</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>41.798043833234</v>
+        <v>58.8203804708269</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>43.87430654582803</v>
+        <v>64.19569412373235</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>40.74227320434719</v>
+        <v>55.28305480530477</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>39.54470810753793</v>
+        <v>53.04686811632786</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>41.30807625483579</v>
+        <v>57.88320555652529</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>38.12862069019187</v>
+        <v>48.43422167756851</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>37.54532334704543</v>
+        <v>45.19118914140948</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40.49031505337141</v>
+        <v>55.66992236467232</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>42.34325666490268</v>
+        <v>60.65949200712402</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>39.51799526681726</v>
+        <v>52.00549665652542</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>38.47457469304052</v>
+        <v>49.78770314413682</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>40.3439627340109</v>
+        <v>54.9156951932804</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>37.80355677449757</v>
+        <v>46.77699684301835</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>40.16442216784478</v>
+        <v>51.66440674611305</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>41.51100540540862</v>
+        <v>58.24573945057616</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>43.69624945868565</v>
+        <v>64.11879591173356</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40.34118531920596</v>
+        <v>53.84835476552163</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>30.30704698644659</v>
+        <v>30.75294938693775</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.41066116241208</v>
+        <v>24.01573860156692</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.06299163054164</v>
+        <v>26.46457182897559</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.84660703313151</v>
+        <v>16.740398435255</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>31.04253915419238</v>
+        <v>30.86577716081232</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.94190535613967</v>
+        <v>34.55115712378957</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>31.64011612869986</v>
+        <v>29.98929952473641</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>32.37120633059816</v>
+        <v>32.77470212975952</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.66358939152941</v>
+        <v>17.02975570643849</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>38.5747073809919</v>
+        <v>47.23447832805348</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.64295849176479</v>
+        <v>36.84067349527865</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>33.24054188560132</v>
+        <v>33.76020542852203</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.89533524359419</v>
+        <v>36.35464342957719</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.54710913041835</v>
+        <v>18.27527010552014</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>38.57557625434913</v>
+        <v>48.37538792710534</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>35.8430855411099</v>
+        <v>42.1435228646576</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>33.95109697157147</v>
+        <v>35.39608097808976</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>34.84705983429917</v>
+        <v>38.58801962566619</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.79362409362317</v>
+        <v>18.82214046829806</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>38.31739355285347</v>
+        <v>48.43551661717687</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>33.5633587193398</v>
+        <v>36.32334732678101</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.52765437585316</v>
+        <v>39.36066700203936</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>32.47111088826729</v>
+        <v>32.08396270516093</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>31.49813729354234</v>
+        <v>33.05670555715663</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>33.65834881414195</v>
+        <v>36.83389436326235</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.36229186748392</v>
+        <v>39.08699556311867</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.16788210953092</v>
+        <v>31.44682292035255</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>40.4573323972327</v>
+        <v>54.79173222952092</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>42.41515423527414</v>
+        <v>60.03470950907617</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>39.21424514222436</v>
+        <v>50.44666730046831</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>38.61996908707373</v>
+        <v>47.90515672212578</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>40.97254047591213</v>
+        <v>56.84707661582689</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>42.99198464224312</v>
+        <v>62.2765090744371</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>40.03155518257905</v>
+        <v>53.13788572624826</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>39.84051447827483</v>
+        <v>53.45726199407953</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>41.82605793110913</v>
+        <v>59.0407466683093</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>38.36409477932987</v>
+        <v>48.25899141312902</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>39.10467451151397</v>
+        <v>49.12962812010085</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>41.47667218154531</v>
+        <v>57.73997517550663</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>43.59172682305808</v>
+        <v>63.4215817195395</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>40.28469228272472</v>
+        <v>53.39245990915438</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.20385333765331</v>
+        <v>51.69853435891079</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>41.12617560468584</v>
+        <v>57.15043559144503</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>38.39205821599845</v>
+        <v>47.9052696756951</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>39.74065847403145</v>
+        <v>51.29191227968203</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>41.05459174817317</v>
+        <v>56.62268658192014</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>43.13575688666819</v>
+        <v>62.32735957325218</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>39.66559655066309</v>
+        <v>51.23786830704776</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.49590009452193</v>
+        <v>12.82817562547902</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.76705641931769</v>
+        <v>16.03418240179499</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.62577932464147</v>
+        <v>15.99217962040311</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.7374992199189</v>
+        <v>15.21558178722944</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.58254209816315</v>
+        <v>20.70047997217391</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.37131220030277</v>
+        <v>16.94314335990589</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.81353949033809</v>
+        <v>22.60062264493535</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.98501007521401</v>
+        <v>23.55439986824535</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>27.39525185440578</v>
+        <v>20.67724118961945</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.28393468261905</v>
+        <v>34.78122290624691</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.52782294559706</v>
+        <v>13.09692854354383</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.06340868513397</v>
+        <v>17.39763225137075</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.93940755226563</v>
+        <v>17.71604478244769</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.10575390157414</v>
+        <v>13.62205469281472</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.94086520378237</v>
+        <v>34.71972377005989</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.01139039937549</v>
+        <v>12.39424364590341</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.15800285062039</v>
+        <v>14.97946566660384</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.03093492050852</v>
+        <v>15.31479845084175</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>24.54351053207174</v>
+        <v>12.10871106827118</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>30.64336012037652</v>
+        <v>32.27414499120451</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.01152243718892</v>
+        <v>25.38606087709156</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.28511360048128</v>
+        <v>26.51668951706016</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.4929393305469</v>
+        <v>22.63783463920938</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.29282771724941</v>
+        <v>20.34954201422605</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.12174744447546</v>
+        <v>25.7419417827679</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.22255898899772</v>
+        <v>26.40761427220342</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.24644765463672</v>
+        <v>22.229242677511</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>34.25591727306811</v>
+        <v>38.95534626893978</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>35.47842716284128</v>
+        <v>42.64251202727874</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>33.39648968778082</v>
+        <v>35.46663383399039</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.63021803410261</v>
+        <v>44.18200187346353</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>38.78234197321199</v>
+        <v>51.18736700196763</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>40.51253194876714</v>
+        <v>55.77987184083209</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>38.19854591544303</v>
+        <v>48.56076962997737</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.26599920428473</v>
+        <v>38.6216540543156</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>35.18085131186445</v>
+        <v>41.41825739373154</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.57044205172424</v>
+        <v>35.51985762084065</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.83371219875013</v>
+        <v>44.67234735436022</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>39.09560725699862</v>
+        <v>51.46704529726659</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>40.75583910096933</v>
+        <v>56.02450768016764</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>38.40976506628204</v>
+        <v>48.36383705309112</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.91729037464174</v>
+        <v>33.10747714967065</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.69669942191948</v>
+        <v>35.63064725157537</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>31.47152434293207</v>
+        <v>30.82588764461221</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.66025890928356</v>
+        <v>47.07429955496428</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>39.48552841623972</v>
+        <v>52.39066162019525</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.22594123719247</v>
+        <v>57.12607782749691</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>38.48773763345034</v>
+        <v>48.47861718230146</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>20.33618485208588</v>
+        <v>8.688786360033944</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>23.95191931652824</v>
+        <v>11.76733758175028</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>23.83720022719414</v>
+        <v>11.97979257778113</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.22984234437991</v>
+        <v>11.85656424658402</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>20.70639797585121</v>
+        <v>10.50856750511749</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.50280711776936</v>
+        <v>12.36008934526409</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.53866034866555</v>
+        <v>15.84279526117178</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.61508653009693</v>
+        <v>16.59412563256394</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.52131974233819</v>
+        <v>15.06049137713116</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.35644131205093</v>
+        <v>17.70805741640557</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.92965297654825</v>
+        <v>11.7033297872384</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>24.98654201938449</v>
+        <v>14.65224995218984</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.08160624258477</v>
+        <v>15.4771221877236</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.11701027326586</v>
+        <v>13.98335585845235</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>24.59465807265439</v>
+        <v>18.32601893034944</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>20.02883132835053</v>
+        <v>8.236291513948469</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.28651778012128</v>
+        <v>10.21295733031275</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.15611915736147</v>
+        <v>10.45559527624858</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.57928693771602</v>
+        <v>9.815691686761586</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>21.04727530902644</v>
+        <v>10.72686362018718</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.37596101262217</v>
+        <v>16.20406996369852</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.07990601454512</v>
+        <v>15.81070906959721</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>24.76785749368806</v>
+        <v>13.62592272363047</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.13004636570496</v>
+        <v>14.98041496977707</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.39478718829877</v>
+        <v>17.7507064998815</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.06678278343691</v>
+        <v>17.26334772430848</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.6532278694198</v>
+        <v>13.41604621839508</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.15919560843124</v>
+        <v>23.10987466817884</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.25811984911623</v>
+        <v>23.88200850287149</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>27.10754152481324</v>
+        <v>19.0900362098994</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>30.99023022406626</v>
+        <v>33.11515680152243</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.63502500630293</v>
+        <v>37.52624864949093</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.27219722301191</v>
+        <v>39.43114512847386</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>32.20576422954267</v>
+        <v>32.36969671068436</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>27.30289045060617</v>
+        <v>20.56947704001572</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>27.19481926491873</v>
+        <v>20.7345015138705</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.28038546564974</v>
+        <v>16.57070131356459</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.97283520823489</v>
+        <v>31.79368421623891</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>31.46017265694219</v>
+        <v>33.11711576051996</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>31.47552218791298</v>
+        <v>33.81974959351826</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.09344932269837</v>
+        <v>26.41048384317163</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>24.04438550463624</v>
+        <v>12.24954585464032</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>23.87890611676947</v>
+        <v>12.32754666613685</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>24.00939925962287</v>
+        <v>11.10737875454624</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>30.10919463768252</v>
+        <v>32.73277580239598</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>31.95217366559722</v>
+        <v>32.63007452061265</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>31.89057016572141</v>
+        <v>32.81615220008303</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>30.17104685131553</v>
+        <v>26.29745374972367</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>33.34211592436443</v>
+        <v>38.33303106234575</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>32.16762565888568</v>
+        <v>32.62417597014024</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.92464778167339</v>
+        <v>34.85244201508924</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>32.11165599354828</v>
+        <v>31.28840490040199</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>27.1062816960938</v>
+        <v>23.07947229649802</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.69325347398849</v>
+        <v>44.05383877090826</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>37.99449867943457</v>
+        <v>48.27949860650469</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>39.58919829046093</v>
+        <v>52.28999313332623</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>37.30097362867274</v>
+        <v>45.55167994008787</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.84046915885021</v>
+        <v>37.63553463738567</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.66372811094833</v>
+        <v>44.86903611921944</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>37.08346584437703</v>
+        <v>45.61169756170626</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>38.41468225974194</v>
+        <v>49.39862012768319</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.15685266579435</v>
+        <v>38.89032628059842</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.1485915393347</v>
+        <v>38.31568762187285</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.38948126599818</v>
+        <v>43.60367689649237</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.60075886785413</v>
+        <v>42.00864303269528</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.60419228082018</v>
+        <v>45.04325125684069</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.65427108058029</v>
+        <v>35.01601050878135</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>31.73699286998913</v>
+        <v>33.88643180502316</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>30.02804715181465</v>
+        <v>27.06973997001127</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.53441443446711</v>
+        <v>29.114636989422</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.24782021741392</v>
+        <v>23.44356661587403</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>30.60499362937511</v>
+        <v>31.71078251670821</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>32.40903584058945</v>
+        <v>33.50315188569419</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>32.92485432702394</v>
+        <v>35.23610631355285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>31.2178306812308</v>
+        <v>28.97185159593943</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.61262135647173</v>
+        <v>42.90736347942135</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>37.02252648490676</v>
+        <v>46.80755502714702</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>34.87286217813961</v>
+        <v>39.89318321705014</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>38.19796344322907</v>
+        <v>47.35371169354416</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.37786672369899</v>
+        <v>52.59994861863303</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>41.13085934251126</v>
+        <v>57.35957621633334</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.31012252027946</v>
+        <v>48.92752880114817</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>35.59682384069477</v>
+        <v>42.24868651364737</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.9252936662127</v>
+        <v>46.12513461451024</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.67402052936516</v>
+        <v>38.69862688485314</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>39.21229925193946</v>
+        <v>49.69837496899969</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>40.53753799194822</v>
+        <v>55.2104234889733</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>42.45422915328894</v>
+        <v>60.41500977473643</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.53357927537821</v>
+        <v>51.24307191007262</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.05309720848027</v>
+        <v>35.54345920534647</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.19010789203112</v>
+        <v>39.19099280375718</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>32.58622287704877</v>
+        <v>33.05835041471813</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>38.37926422610938</v>
+        <v>48.66368271881929</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>39.8085413126744</v>
+        <v>53.55333035340014</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>41.73727766867533</v>
+        <v>58.80306403307382</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>38.84071308477068</v>
+        <v>49.45907716271175</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>20.77299279511097</v>
+        <v>8.749321186236603</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>24.12002965788113</v>
+        <v>11.62792435363269</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>23.85682801696069</v>
+        <v>11.34865801302784</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>24.32040291098379</v>
+        <v>11.41469569139231</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.87955130057702</v>
+        <v>10.67548414082263</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>23.06256446063724</v>
+        <v>13.68043523730175</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.33613759046733</v>
+        <v>18.06851788305601</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.36544359046475</v>
+        <v>18.72624991058484</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.21431505139328</v>
+        <v>16.90362383752654</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>30.27092389705598</v>
+        <v>31.04790931775272</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.72709479673627</v>
+        <v>13.34075749597784</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.9038998197006</v>
+        <v>16.61112023254965</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.89531728690188</v>
+        <v>16.92120723655139</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.62433205092831</v>
+        <v>14.78632751034927</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>27.67794309518062</v>
+        <v>26.33101458490658</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.35155040294471</v>
+        <v>10.7390080783808</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.59534019460656</v>
+        <v>13.57987273677801</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.49692637651579</v>
+        <v>13.91497103890097</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>24.66324131720658</v>
+        <v>12.77355704181494</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.30894483745911</v>
+        <v>18.85177440345298</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.82600017364785</v>
+        <v>14.27100818314834</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.58507546571241</v>
+        <v>14.35752132257992</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>24.41982577756707</v>
+        <v>11.93469412319154</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>21.65554257451672</v>
+        <v>11.22754903276858</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.47935211649436</v>
+        <v>15.64207087163487</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.40664714270997</v>
+        <v>15.91156220056845</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.32161566434608</v>
+        <v>14.16884558388665</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.66792383286769</v>
+        <v>34.33461345933569</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.64720198048571</v>
+        <v>37.14929210109592</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>31.81168883506029</v>
+        <v>30.92685536234731</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>34.98925359578046</v>
+        <v>40.88680085828907</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>38.37290175105243</v>
+        <v>49.75336477595918</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>39.64088913102608</v>
+        <v>53.15495566188156</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>37.5982017009848</v>
+        <v>46.79210812486838</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.90371539665491</v>
+        <v>27.80216284291701</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>30.0285638880671</v>
+        <v>28.58260089284657</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.38362208277647</v>
+        <v>25.03697017303073</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>33.65415508953202</v>
+        <v>39.42999137052949</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.2295607995965</v>
+        <v>44.1470398046205</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.81387432456813</v>
+        <v>45.8119040021044</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.94450377894131</v>
+        <v>39.73540284016124</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.08586083226062</v>
+        <v>17.21484545624257</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.98029815181606</v>
+        <v>17.48183372030524</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.27416396708294</v>
+        <v>16.51468976359434</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>32.43536398649458</v>
+        <v>37.14652656820766</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>34.29279983657629</v>
+        <v>39.07757747393646</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>34.82979655381558</v>
+        <v>40.67595191917468</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.02783105547769</v>
+        <v>34.4574975317765</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.2454882219671</v>
+        <v>4.605183494210959</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.84257903759848</v>
+        <v>6.437290641663367</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>21.45987294547103</v>
+        <v>5.953209880500776</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.30695897003443</v>
+        <v>7.05854281329897</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.10120292855418</v>
+        <v>23.53617722813468</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>18.90690330987813</v>
+        <v>5.651479461559049</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.7028217239914</v>
+        <v>8.912386306201327</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.38016419665346</v>
+        <v>8.756326550140958</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>22.88860744636408</v>
+        <v>8.452947042860185</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.40656496671717</v>
+        <v>36.35274371354988</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>20.46646606781778</v>
+        <v>9.660028210900073</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>24.45152434249397</v>
+        <v>13.32048569353414</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>24.10086263082652</v>
+        <v>12.84046020918737</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>23.93019624000664</v>
+        <v>10.78320502689614</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>33.71236581503962</v>
+        <v>37.17683791984478</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>20.95998422478293</v>
+        <v>10.94474701349019</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>24.1655739024059</v>
+        <v>12.54619075462788</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.80314830771555</v>
+        <v>12.22949585088473</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>24.21848210861919</v>
+        <v>11.61637539990324</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>32.05799064293038</v>
+        <v>34.7018799389747</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.91381372940621</v>
+        <v>27.09991796218688</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.33597818255207</v>
+        <v>28.49753259082915</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.31481719821766</v>
+        <v>24.34771395147865</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.13163424878335</v>
+        <v>26.64280194299255</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.76394461951106</v>
+        <v>29.32890361922263</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.9937906718498</v>
+        <v>30.35630773707332</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.50461652339415</v>
+        <v>24.69728746048843</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>35.15807133609481</v>
+        <v>41.16581412840814</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>36.46649453072574</v>
+        <v>44.90585113945885</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>34.34753683208402</v>
+        <v>38.15761981942091</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.32155629502659</v>
+        <v>47.12873872454643</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>39.84584161112424</v>
+        <v>53.36601408850431</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>41.77367166245836</v>
+        <v>58.5175440078452</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>38.72901950565441</v>
+        <v>49.35416737493561</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>35.48006001021231</v>
+        <v>41.95654326612262</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.76238683571563</v>
+        <v>45.70689178563707</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.61108032532037</v>
+        <v>38.40980083647005</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.89378826997551</v>
+        <v>48.48276751494478</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>40.48893469739235</v>
+        <v>55.18258602450221</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>42.44780180973125</v>
+        <v>60.48998748368133</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>39.28985350689496</v>
+        <v>50.79721220531312</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>33.36999948148894</v>
+        <v>36.63029979751365</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>34.54981575262467</v>
+        <v>40.23674142065466</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.82939381120924</v>
+        <v>33.91399639752836</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.80130270742185</v>
+        <v>48.81345662564297</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>40.62155539533895</v>
+        <v>55.25477016305142</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>42.64952687003026</v>
+        <v>60.74988758729535</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>39.33992154765662</v>
+        <v>50.54469952123193</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.48521061886145</v>
+        <v>12.37996231919869</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.64988983770198</v>
+        <v>15.98158629481536</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.50571475986722</v>
+        <v>15.93336506124481</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.61305395719258</v>
+        <v>15.19571471397682</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>19.94367684858944</v>
+        <v>8.485064528649225</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>24.71438629153256</v>
+        <v>17.0570425361154</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>27.74349560118456</v>
+        <v>21.86668979530519</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>27.96493547786277</v>
+        <v>22.79734102345957</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>27.53069285137416</v>
+        <v>20.59671407956594</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.18828577047471</v>
+        <v>22.74098791340428</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.1008817916051</v>
+        <v>18.48605985344031</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>27.7054191173273</v>
+        <v>21.4604572007204</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.80755031462105</v>
+        <v>22.00377908988897</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>27.00589470788072</v>
+        <v>18.41431811161288</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.94007707794547</v>
+        <v>19.69002257759789</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>23.41243703096004</v>
+        <v>14.98155883603809</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.99847318866407</v>
+        <v>16.95517507438206</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.02520272562708</v>
+        <v>17.5208983193657</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.74471057713511</v>
+        <v>15.15091345663777</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.59426529723432</v>
+        <v>14.61477951610831</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>23.91219833485133</v>
+        <v>11.46372488301076</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>23.62696361188485</v>
+        <v>11.2147398664765</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>23.69870996373979</v>
+        <v>9.842602761370919</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>24.50896004733212</v>
+        <v>17.33736414508049</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>27.44347010256981</v>
+        <v>20.45492272188825</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>27.60785175488718</v>
+        <v>21.27836949504315</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.23679358177376</v>
+        <v>18.67645910085349</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.14774429533914</v>
+        <v>25.81870155051736</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.39853751182148</v>
+        <v>26.84581991669636</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.89463987885033</v>
+        <v>24.08904245338293</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>32.49599657453528</v>
+        <v>34.64306619116027</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>35.19429661573422</v>
+        <v>41.67014163837291</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>36.031126742022</v>
+        <v>43.93393476798877</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>34.34622896711443</v>
+        <v>38.51620248728676</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.50675697035671</v>
+        <v>21.1317303591394</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>27.46409828812787</v>
+        <v>21.5355965578914</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.1176330451894</v>
+        <v>18.88224866525611</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>32.13358528687602</v>
+        <v>34.92499111550033</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>34.74655024648345</v>
+        <v>40.25284495029163</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>35.57241712061202</v>
+        <v>42.60566495691154</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>33.27539781498544</v>
+        <v>35.15337606004037</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>24.85286428427814</v>
+        <v>14.08728518678887</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>24.65423513089235</v>
+        <v>14.25204559351543</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.94362260737143</v>
+        <v>13.11696591456284</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.57002690000933</v>
+        <v>31.27165209601791</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.93414906688888</v>
+        <v>35.12445380166966</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>33.84094691792053</v>
+        <v>38.01341003203472</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.91194785475643</v>
+        <v>30.91330421076148</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>18.36868458049106</v>
+        <v>4.360374783059754</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>21.94190370178319</v>
+        <v>6.46640902921936</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>21.59407140610413</v>
+        <v>6.100676060769747</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.44176274062989</v>
+        <v>6.948103194280996</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>18.40088725653156</v>
+        <v>4.316271687298876</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>20.23816986263041</v>
+        <v>7.597103815870263</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>23.41649374369266</v>
+        <v>10.32950057189156</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>23.19927979700514</v>
+        <v>10.39129069315072</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.51897367621868</v>
+        <v>9.827529431173293</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.51163457708809</v>
+        <v>7.049786428259008</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>20.60060627408724</v>
+        <v>9.233642444730084</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.16893618920589</v>
+        <v>12.5552828664345</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.94872941679416</v>
+        <v>12.54994121527231</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>24.20598245592453</v>
+        <v>11.64885747816285</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>19.31512522157198</v>
+        <v>6.108422155273853</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>19.58768269679195</v>
+        <v>7.330814606728573</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.99415132248803</v>
+        <v>9.452139672850571</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.6980479139601</v>
+        <v>9.388475426978935</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.3818427083117</v>
+        <v>9.436349232791144</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>18.7226612854673</v>
+        <v>5.277108909090025</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.04217170592795</v>
+        <v>6.906683077467147</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>21.69423067255358</v>
+        <v>6.503873985231998</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.46374255704569</v>
+        <v>7.063294476035708</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.76501284082733</v>
+        <v>12.822918283127</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.62663536486525</v>
+        <v>15.82187556314989</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.61204132911316</v>
+        <v>16.16665742197253</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.77785135384921</v>
+        <v>15.29094848063454</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.97049478097273</v>
+        <v>9.665944778656936</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.70116534188438</v>
+        <v>9.592744674190563</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>23.21512694244838</v>
+        <v>9.364822401834864</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.96137458050316</v>
+        <v>22.03071281090329</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>30.59764693535637</v>
+        <v>29.58303867842871</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>30.89086562633475</v>
+        <v>30.5811583237679</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>30.06811713699419</v>
+        <v>27.56921360663369</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.57562057662643</v>
+        <v>7.881749459431497</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.28108079234855</v>
+        <v>7.68651897979241</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.94973845105618</v>
+        <v>7.761522687204767</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.91546051949835</v>
+        <v>22.03839810961166</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>30.33204553056181</v>
+        <v>28.57760267238049</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.68834546711084</v>
+        <v>29.69918404275191</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.8419178597442</v>
+        <v>26.56259119604456</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.09155076418362</v>
+        <v>6.698658322453419</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>21.76089490475295</v>
+        <v>6.529036969931685</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.55789642878348</v>
+        <v>7.16222673671254</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>27.15003228633349</v>
+        <v>22.54266285898409</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.64307115480506</v>
+        <v>26.46868578098183</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.05335588898131</v>
+        <v>27.95584535472106</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.36888559378888</v>
+        <v>24.8672371782051</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.77682334266975</v>
+        <v>20.15082790398122</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.98079399291031</v>
+        <v>21.89477786268825</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.1861854162636</v>
+        <v>22.86633008034579</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.79830099031527</v>
+        <v>20.69171450064957</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.99838010407981</v>
+        <v>10.13891337924082</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>31.73009604405488</v>
+        <v>33.38955056860068</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.09319606319182</v>
+        <v>41.84015700487687</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.27159649076639</v>
+        <v>45.17000833964082</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.71302723992694</v>
+        <v>40.26599601887692</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>27.18071269100735</v>
+        <v>23.13267590450998</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.82356755168933</v>
+        <v>35.90511122768927</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.15745278926014</v>
+        <v>44.39663207264132</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>37.41006132032223</v>
+        <v>47.78910337559611</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.86062537437101</v>
+        <v>42.68481853075308</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.59374661744162</v>
+        <v>26.82373047995219</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.28217123975619</v>
+        <v>28.69717558004823</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.67930128826581</v>
+        <v>31.40843583937846</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>32.20424333229282</v>
+        <v>33.13450489366943</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>32.13954865028492</v>
+        <v>31.33890136743988</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>27.20086891777224</v>
+        <v>24.48221339770226</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.26915156009913</v>
+        <v>12.48456222044307</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>24.10224241398685</v>
+        <v>12.48832169252748</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>24.31623433031457</v>
+        <v>11.45771279053134</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>23.72918048535283</v>
+        <v>16.39995471022874</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.4553365734103</v>
+        <v>18.14306872141286</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.35639629543615</v>
+        <v>18.34235333476386</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.97412201451193</v>
+        <v>15.56958653564582</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>31.21066695878353</v>
+        <v>31.16342593366866</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>31.93792244662856</v>
+        <v>33.39747150987731</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>31.31359435057761</v>
+        <v>30.70333522579849</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.92664914241685</v>
+        <v>39.32321579357225</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>38.32119021720482</v>
+        <v>49.73324655346225</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>39.74686525326967</v>
+        <v>53.62366631001057</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>37.51634956256192</v>
+        <v>46.99158130467971</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>32.44555333621817</v>
+        <v>34.57736312311993</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.22625696520663</v>
+        <v>36.79325950448208</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>32.5795838444749</v>
+        <v>34.23941480230051</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.73752911170596</v>
+        <v>42.27213590496638</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.22129260503603</v>
+        <v>52.26508152089201</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>40.71878170366845</v>
+        <v>56.167897227643</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>38.37462599391117</v>
+        <v>49.11225323894335</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.60048950993881</v>
+        <v>26.5402943362655</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.18667496773468</v>
+        <v>28.48548639528948</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>30.06492150033774</v>
+        <v>26.88887948051121</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>34.69875865065161</v>
+        <v>41.02803361364469</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.41048813475548</v>
+        <v>44.28703460650154</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>37.50065014133413</v>
+        <v>47.38971459718386</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>35.07600625107415</v>
+        <v>39.390417263218</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.1804677625795</v>
+        <v>34.1832554893202</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.8267153078298</v>
+        <v>34.19960031173676</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>33.55644747363016</v>
+        <v>36.4488304986177</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>31.53214990043336</v>
+        <v>29.51941684821685</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.57382818970265</v>
+        <v>20.29209013734818</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.68690879813392</v>
+        <v>41.84863384772819</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.49325003131759</v>
+        <v>47.3928968832401</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.94577080974037</v>
+        <v>51.34013877514884</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.7918002677655</v>
+        <v>44.35733208538414</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>33.94118344650897</v>
+        <v>38.28697233049719</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>34.39338332078919</v>
+        <v>39.13066748188577</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>35.62426772004427</v>
+        <v>41.87599176909374</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.73960560807948</v>
+        <v>45.16237908549786</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>33.84628922286375</v>
+        <v>35.69421408239332</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.69851553948484</v>
+        <v>36.44503062810999</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>35.27613894429816</v>
+        <v>41.94429005814025</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.10426402652866</v>
+        <v>43.59523164091851</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>37.32842337945685</v>
+        <v>47.22416921815282</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>34.19293036163587</v>
+        <v>37.15373294388801</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.50967713939307</v>
+        <v>34.41756084141454</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.69661057592547</v>
+        <v>24.03975357183501</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.01304070686203</v>
+        <v>25.50761675896473</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.91308585985817</v>
+        <v>20.55214410261684</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.430545534387</v>
+        <v>27.31313730548028</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>31.00898502250429</v>
+        <v>29.91205409897105</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>31.22887445052936</v>
+        <v>30.98652938881699</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.83629009788288</v>
+        <v>25.22733896967296</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>35.23154186854091</v>
+        <v>41.40242199832463</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.56083534707881</v>
+        <v>45.28104870547445</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>34.59517158162713</v>
+        <v>38.58736304606072</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.89060268606023</v>
+        <v>44.54821400372332</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>38.77763616426608</v>
+        <v>51.0138206097924</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>40.55460515038303</v>
+        <v>55.83849200993762</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.71651961157587</v>
+        <v>47.11378756408568</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.03171636355552</v>
+        <v>40.86987705108969</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.16579720369675</v>
+        <v>44.38005547948769</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>34.13341756735664</v>
+        <v>37.15630773595421</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>35.65192746794099</v>
+        <v>42.0842110875681</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>38.36983010954304</v>
+        <v>49.40885089558703</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>39.84894519497201</v>
+        <v>53.61744603297514</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.26711781975284</v>
+        <v>45.13728113746231</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>32.89148601597854</v>
+        <v>35.26720072941738</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>33.86442457959889</v>
+        <v>38.27589184661556</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.76788467168797</v>
+        <v>33.6303443581837</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>35.8359860204633</v>
+        <v>44.05754291198317</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>37.99639919402345</v>
+        <v>48.9910471188708</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>39.276379039265</v>
+        <v>52.61701242403123</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.79883764335905</v>
+        <v>44.56327578141548</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>34.13429711441068</v>
+        <v>39.21631806179445</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>32.36660139846363</v>
+        <v>32.49117178638367</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>33.24477367755487</v>
+        <v>34.77650286039355</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>32.05665936864398</v>
+        <v>29.78380765956079</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.84171802639974</v>
+        <v>21.05657897259085</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>35.8966538222865</v>
+        <v>41.58811649996991</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.79816177195651</v>
+        <v>42.94285544895781</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>38.3210102835</v>
+        <v>46.41326867216041</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.45418454823252</v>
+        <v>39.9031981181221</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.08076843668375</v>
+        <v>37.47463933984173</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>35.4041603673368</v>
+        <v>40.91675867028219</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.87090207401366</v>
+        <v>40.37172016180877</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.95093388140008</v>
+        <v>43.64821875134402</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>33.57828618245626</v>
+        <v>33.44990478763899</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>33.43874426465753</v>
+        <v>36.68683769966967</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>34.66793534209565</v>
+        <v>40.51809374874607</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>35.11255623944437</v>
+        <v>37.33835156314938</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.00486789294348</v>
+        <v>40.24095593365859</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>32.70656277820615</v>
+        <v>30.21905495534771</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>32.80753387433182</v>
+        <v>36.60693961341519</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.75315237750403</v>
+        <v>24.25299334142103</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.01752504520157</v>
+        <v>25.48620071493735</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.98485260168944</v>
+        <v>20.74154794479779</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.73949353599229</v>
+        <v>28.06917484154529</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>31.27335345982426</v>
+        <v>31.02143117649899</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.54960849001077</v>
+        <v>32.08949954571076</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.04343635014463</v>
+        <v>26.51591911559712</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>35.98994182370419</v>
+        <v>43.26140818462342</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>37.37258618003018</v>
+        <v>47.07793401797111</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>35.40618293107241</v>
+        <v>40.87212532185144</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.06008320248473</v>
+        <v>43.61279094566443</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.08296772239661</v>
+        <v>51.26736649978491</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>40.81212033125196</v>
+        <v>55.94346679228852</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>38.00110927788282</v>
+        <v>47.47485129477454</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>35.26624432112117</v>
+        <v>40.84269349746423</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.55637574932453</v>
+        <v>44.50528692158738</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>34.34131939416084</v>
+        <v>37.34327509401236</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>37.36472637035402</v>
+        <v>45.35306557149192</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.16186913020597</v>
+        <v>51.557939699679</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>40.92595695609611</v>
+        <v>56.40577051741873</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.90421261827751</v>
+        <v>46.93314835864591</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>33.7657373102104</v>
+        <v>37.33485810188026</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.97968733136855</v>
+        <v>40.93374824623033</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.39797213862128</v>
+        <v>35.04700669054441</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>37.00430003815451</v>
+        <v>45.33020323437815</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>38.83347233916661</v>
+        <v>50.93201861102021</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>40.47988623274058</v>
+        <v>55.64615925632545</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.57938006211538</v>
+        <v>46.06099781885015</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.19644567368118</v>
+        <v>37.68497073424744</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>30.83432848329504</v>
+        <v>28.61401146872605</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.32553211221698</v>
+        <v>30.00040915196794</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.59440017681253</v>
+        <v>24.07202190474694</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>33.15382390748682</v>
+        <v>38.18784445073785</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.11951768037324</v>
+        <v>44.62405314498911</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>37.07197219211711</v>
+        <v>42.23845575643001</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>38.46930812354898</v>
+        <v>45.45353280671992</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.13935785084023</v>
+        <v>36.89728839464212</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>39.89811518463966</v>
+        <v>51.07910837467868</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.76117118113015</v>
+        <v>45.96722125555379</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.49667543444824</v>
+        <v>42.74472990342045</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>37.64029178624818</v>
+        <v>46.17280886204748</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>34.12873544978382</v>
+        <v>35.16506006103118</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>40.02309257273273</v>
+        <v>50.98401078130775</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>38.05433968179834</v>
+        <v>47.39560690649449</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.16733528251774</v>
+        <v>39.82047598910934</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.2747997594708</v>
+        <v>43.22021403026682</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>33.54525524899952</v>
+        <v>32.19051810354927</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>39.75367941969628</v>
+        <v>51.46204633645367</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>30.79599668185721</v>
+        <v>29.93147485722343</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>30.95379163725284</v>
+        <v>30.66568189415125</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.92106948811434</v>
+        <v>26.49344710151415</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.44823377561287</v>
+        <v>44.22916354453351</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>33.52506148277578</v>
+        <v>36.52067767422137</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>33.76107288862285</v>
+        <v>37.17861042322831</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>32.1141013073767</v>
+        <v>32.24888989684464</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>37.02887615992375</v>
+        <v>46.29514706145072</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.10747088917377</v>
+        <v>49.0747375858809</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.36707005059882</v>
+        <v>44.20698224838334</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>43.15247587777669</v>
+        <v>57.66851037701045</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>40.85448635459799</v>
+        <v>56.54212311297961</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>42.35587321060054</v>
+        <v>60.19611622018449</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>39.90092494897691</v>
+        <v>53.78048805536525</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.95534188414725</v>
+        <v>45.84243566170959</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.02185735823114</v>
+        <v>48.70799381124119</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.14371212378059</v>
+        <v>43.14150394307561</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>44.16806695564756</v>
+        <v>60.04875890662765</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>41.4571530450865</v>
+        <v>57.81921210560509</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>42.9777853081369</v>
+        <v>61.48271364920122</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.25528020687005</v>
+        <v>54.05727639307521</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.84963171620148</v>
+        <v>42.95448695979054</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>37.02942532725071</v>
+        <v>46.17590144291594</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>35.40336947099522</v>
+        <v>41.0262962389634</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>44.30845429465077</v>
+        <v>61.06515072489698</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.52105024447671</v>
+        <v>57.86272602975536</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>43.15048271712585</v>
+        <v>61.79135284113102</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.23864180277722</v>
+        <v>53.46326175191431</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.82253963700629</v>
+        <v>23.1122165043088</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.37482282045568</v>
+        <v>22.54528673498618</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.70229513753333</v>
+        <v>23.97418293101225</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>27.65297784228712</v>
+        <v>19.18396689977273</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>23.77322046356555</v>
+        <v>16.43769910975787</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>35.51614715733933</v>
+        <v>41.40869943789856</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>37.36619729632599</v>
+        <v>46.70866057195909</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>39.04298789566578</v>
+        <v>51.33193215313871</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.48716284315731</v>
+        <v>43.06191424745843</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>33.53098917625542</v>
+        <v>37.37421448809823</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>33.79536536667727</v>
+        <v>38.06877789367073</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>35.2902930328807</v>
+        <v>40.81168539158578</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.49672737833928</v>
+        <v>44.48510434889971</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>33.36616944990231</v>
+        <v>33.96027407271723</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>33.24491420936538</v>
+        <v>37.58085775928548</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.46457592594049</v>
+        <v>31.23596360355643</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>33.31186730900657</v>
+        <v>36.51330310115405</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.00334164122712</v>
+        <v>39.00891111412336</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>31.99708678481765</v>
+        <v>31.21563403095894</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.03557976199916</v>
+        <v>30.66598495286074</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>27.31729306493823</v>
+        <v>20.56961138871348</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>27.46038481110799</v>
+        <v>21.65980370629472</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.67379750289022</v>
+        <v>17.47312638277111</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.09552107598213</v>
+        <v>21.77837070987855</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.2939158439887</v>
+        <v>25.37712191392746</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.39090658993091</v>
+        <v>26.16256209418609</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.34551625215942</v>
+        <v>21.47165237933063</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>35.0904803547928</v>
+        <v>41.13843671710795</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.5088578185081</v>
+        <v>45.35302005405389</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.51353966118003</v>
+        <v>38.24823624852128</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.67447982085772</v>
+        <v>43.9877134688704</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>38.63861549756397</v>
+        <v>50.73485180607717</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>40.4697950465272</v>
+        <v>55.88423142969124</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>37.4714994686442</v>
+        <v>46.53317331953727</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.80220939981364</v>
+        <v>40.52435460717349</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>36.04043595548155</v>
+        <v>44.25114228847114</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.13174223541919</v>
+        <v>37.10569220589683</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.51877283902822</v>
+        <v>44.28744626963248</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>38.76163968785423</v>
+        <v>50.83780389167504</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.37615052250837</v>
+        <v>55.39536523624982</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>37.69928113977723</v>
+        <v>46.56684135561987</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>30.26508728234125</v>
+        <v>30.83859231098365</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>30.45160487361923</v>
+        <v>33.12105731203737</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.98495369277052</v>
+        <v>27.79313409045516</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>34.23571099918315</v>
+        <v>40.42133955193269</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.00480310223107</v>
+        <v>46.41416970353328</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.10339902629286</v>
+        <v>49.61503954365853</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.12803915531159</v>
+        <v>42.55119846908983</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.78466858266757</v>
+        <v>13.15378828252378</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.6322318910926</v>
+        <v>15.65050849310008</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.52759433253943</v>
+        <v>15.68643606466847</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.59373312930378</v>
+        <v>14.81445576869108</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>21.82631652452175</v>
+        <v>12.55286344118477</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.43853080036698</v>
+        <v>18.82565642254027</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.40303658043937</v>
+        <v>23.65311288629674</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.64455347514876</v>
+        <v>24.73211354914227</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>27.97470922145088</v>
+        <v>21.65097819044979</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>32.81449329133512</v>
+        <v>36.03938094237298</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>24.718157224758</v>
+        <v>17.45202730126424</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.75833345078484</v>
+        <v>21.47933210175101</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>27.84156212009797</v>
+        <v>22.08974045187672</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.23141448053304</v>
+        <v>19.1134544972148</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.02868461542376</v>
+        <v>30.81648641410303</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.64811068069995</v>
+        <v>18.05141219640683</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.29117715591416</v>
+        <v>20.50237775268812</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>27.45369607648075</v>
+        <v>21.19988053627722</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.95664165601467</v>
+        <v>18.59978263275814</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.16411588313371</v>
+        <v>31.79029998855503</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.42090184396233</v>
+        <v>16.00178699280169</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.29748168796295</v>
+        <v>16.31695949527515</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.09503466385947</v>
+        <v>13.89496881811854</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.52109499003949</v>
+        <v>13.88749025289983</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.74300007259933</v>
+        <v>16.52849270027264</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.6795050048337</v>
+        <v>16.8780473942231</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.60812428772469</v>
+        <v>14.91089279237533</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>34.31755148860528</v>
+        <v>38.92311764883054</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.564156269493</v>
+        <v>42.51654567521302</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>33.5245305696136</v>
+        <v>35.54108629743728</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.36538853652309</v>
+        <v>44.96990435489092</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>39.05809937132799</v>
+        <v>51.32255787634398</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>40.73059379875038</v>
+        <v>55.87125053166189</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>38.02772854155231</v>
+        <v>47.71858202783277</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>32.58258608965136</v>
+        <v>34.22919016018999</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>33.16969324199717</v>
+        <v>36.13113616128364</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>32.02917775251959</v>
+        <v>31.42512594751645</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>35.67027864622906</v>
+        <v>42.64722308495017</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>37.57754137044129</v>
+        <v>47.43708412904797</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>38.73469976686545</v>
+        <v>50.66677049283074</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.4238643727608</v>
+        <v>43.13196319233157</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>31.75113836048259</v>
+        <v>32.27282208492914</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>32.24205221237417</v>
+        <v>33.78967165552202</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>31.22994588257932</v>
+        <v>29.80567585972426</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>34.27050626554516</v>
+        <v>41.32303697135243</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>35.4449472193789</v>
+        <v>41.8317010006835</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.00155840435691</v>
+        <v>43.54102057930139</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>33.73996677226797</v>
+        <v>35.80965334339606</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.40521245210298</v>
+        <v>10.82520831476744</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>24.64825437774487</v>
+        <v>13.74898090030995</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>24.40739635839656</v>
+        <v>13.60746627069061</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>24.63874909375711</v>
+        <v>13.22778391008504</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>22.20016311300098</v>
+        <v>14.74575527894313</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>24.44835041578812</v>
+        <v>20.89605820872828</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>29.27190444041286</v>
+        <v>27.79509854610795</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>29.39079802839599</v>
+        <v>29.21854785852359</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.38855793357309</v>
+        <v>26.22130013805456</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>29.20979959903813</v>
+        <v>30.52684015416307</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>33.64101901946475</v>
+        <v>34.57664569583855</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>35.00537617766838</v>
+        <v>38.25016521020212</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.11533501066873</v>
+        <v>40.96820000726797</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>34.03023824822964</v>
+        <v>34.66155827793679</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>31.65099105896998</v>
+        <v>34.65043014732655</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.65128345556819</v>
+        <v>30.80788776163019</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.4917580986215</v>
+        <v>32.75975982117865</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>33.49376636502815</v>
+        <v>35.22093013464372</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>32.35479826693881</v>
+        <v>30.62834172882391</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.51237779469781</v>
+        <v>32.3760187335126</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.95707702991419</v>
+        <v>17.19027133425684</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.7086221438648</v>
+        <v>17.08144547134987</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.1029672473367</v>
+        <v>13.58026598638288</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>20.2196023151387</v>
+        <v>14.23241054362457</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>24.26136204247215</v>
+        <v>15.91031642786606</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.95337687913143</v>
+        <v>15.56231247806427</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>23.66390972864619</v>
+        <v>12.43334932074035</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>32.35678672181609</v>
+        <v>34.82414875229635</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>32.84693550713658</v>
+        <v>36.73293736422378</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>31.99899411174261</v>
+        <v>32.31319484953158</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>31.94748775637658</v>
+        <v>37.78270285457855</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.16142571831186</v>
+        <v>45.05906479458419</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>36.98305321385141</v>
+        <v>47.66164101045653</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>35.50030758104354</v>
+        <v>41.83664992599405</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>33.86513198364877</v>
+        <v>38.15205473106506</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>34.70906782391462</v>
+        <v>40.68855497247475</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>33.0507706246725</v>
+        <v>34.5256225163326</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>35.8586039297404</v>
+        <v>42.60942415245201</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>37.55967863284997</v>
+        <v>46.8705239032672</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>38.69069699797761</v>
+        <v>49.75039663441593</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.00541164183748</v>
+        <v>41.73662508775688</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>32.62434101524581</v>
+        <v>34.55024920883006</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>33.38578961960798</v>
+        <v>36.95787494271863</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.20717184406249</v>
+        <v>32.15995324278974</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.13427171804928</v>
+        <v>38.1957826790345</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>34.64602170119593</v>
+        <v>41.26793329721869</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>35.20054645209375</v>
+        <v>43.60059771903354</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>32.87632002661894</v>
+        <v>35.75299147290449</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>34.10619627022247</v>
+        <v>39.11951056076491</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>32.50877587092175</v>
+        <v>34.02904086541492</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.28677520605071</v>
+        <v>36.20051509694462</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.19732277085828</v>
+        <v>31.62498699834701</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>27.62520325341591</v>
+        <v>23.99681867531819</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.07312446081378</v>
+        <v>42.07172250135722</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>37.28312128066975</v>
+        <v>44.23288922895876</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>38.72020501126312</v>
+        <v>47.48710835319279</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.7118728131957</v>
+        <v>40.67726025066533</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>33.63280509221897</v>
+        <v>37.08818366410154</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>35.55722328490538</v>
+        <v>41.79545637474029</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>35.68263884657413</v>
+        <v>41.99961239756874</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.47285565419663</v>
+        <v>44.59067994631289</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>33.12068724486716</v>
+        <v>33.94118643730255</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.09288839715005</v>
+        <v>37.87615709388893</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.59700677190364</v>
+        <v>43.07990703789722</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>35.41092429520394</v>
+        <v>41.1998495053953</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.28398541656067</v>
+        <v>43.845643488553</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>32.81257689807654</v>
+        <v>32.58939674881579</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>33.51557894752055</v>
+        <v>37.55353402048171</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.64414746034044</v>
+        <v>29.05278744734114</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.14430265952104</v>
+        <v>30.74143580090793</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.18791007850125</v>
+        <v>26.66993796488646</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.08860210753486</v>
+        <v>27.74625257328533</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>31.81345018171774</v>
+        <v>32.0230421960266</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>32.10278453189945</v>
+        <v>33.15694535986157</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.68472862699783</v>
+        <v>27.74646772231073</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>35.32430761998096</v>
+        <v>42.42860147403978</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.64695964152116</v>
+        <v>46.15730940343222</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>34.64035919341633</v>
+        <v>39.78344074271128</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>37.53130618534708</v>
+        <v>44.95842720430936</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>38.89896426804275</v>
+        <v>51.32749491704662</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>40.67674848158596</v>
+        <v>56.02025964920398</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>37.97765630523963</v>
+        <v>47.92273269117057</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>35.52627428509125</v>
+        <v>42.31053535258007</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>36.73085023409735</v>
+        <v>45.74081325737329</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>34.52787979577378</v>
+        <v>38.67655485117356</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>37.77904164987866</v>
+        <v>46.2950244508115</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>39.43665803671141</v>
+        <v>52.5767410842225</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>41.13104106418916</v>
+        <v>57.14595300132878</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>38.20918943650464</v>
+        <v>48.16971726482844</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>34.7151889102881</v>
+        <v>39.92924434109707</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>36.03430486417808</v>
+        <v>43.73033828714826</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>34.00683443231729</v>
+        <v>36.84763030310504</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>36.79140615609344</v>
+        <v>45.07916833246219</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>37.88755231355552</v>
+        <v>48.80017675490818</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>39.40214430139099</v>
+        <v>53.10210276910886</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>36.26391577294748</v>
+        <v>43.095749012761</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>24.59633003777745</v>
+        <v>18.70364585933885</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>27.17323594216889</v>
+        <v>19.81367162600752</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>27.31534658414787</v>
+        <v>20.76057552510528</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.56680117800107</v>
+        <v>16.9975155324959</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.57208635067487</v>
+        <v>19.88193632511732</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>35.40567235352922</v>
+        <v>41.06168362101067</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>36.82459807138106</v>
+        <v>45.35966579738896</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>38.45153816837139</v>
+        <v>49.94100648537298</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>36.07220393812479</v>
+        <v>41.99526338380414</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>33.31476308864486</v>
+        <v>36.42530628597893</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>34.20870777237295</v>
+        <v>38.77167849582399</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>35.10287201573298</v>
+        <v>40.52336009520634</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>36.37971443373515</v>
+        <v>44.41632888904954</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>33.43534248787689</v>
+        <v>34.25709149576638</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>33.67706983882041</v>
+        <v>37.78769931771202</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.53578443787189</v>
+        <v>33.62575992892968</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>33.19508714841296</v>
+        <v>35.94370682418675</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>34.13204662367809</v>
+        <v>38.84646219193819</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>31.70755314957896</v>
+        <v>30.30446326744543</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>30.66797996304777</v>
+        <v>32.29884136655978</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>28.75904920066301</v>
+        <v>24.46891039897132</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>29.03397124155346</v>
+        <v>25.67013444900294</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>28.27156752428246</v>
+        <v>22.17702831573843</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>25.30579440822689</v>
+        <v>20.70243345216224</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>28.8573263679374</v>
+        <v>24.41539182221505</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>28.94846162004521</v>
+        <v>25.08289384616331</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>27.95885463579188</v>
+        <v>20.59576088618388</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>35.06700335075581</v>
+        <v>41.02562860444954</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>36.45429174680307</v>
+        <v>45.26738677336995</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.40310453834947</v>
+        <v>38.14774391997791</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>37.26784836313516</v>
+        <v>45.7106460309802</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>38.56138095430907</v>
+        <v>50.31829528589942</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>40.35898716256033</v>
+        <v>55.32561857010244</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>37.46101313770714</v>
+        <v>46.01236240075635</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.27459903807987</v>
+        <v>41.3442522664221</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>36.5936562057843</v>
+        <v>45.29107605025356</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>34.23604816119423</v>
+        <v>37.31533984186643</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>36.52561198232657</v>
+        <v>44.84490981051924</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>38.33320245503759</v>
+        <v>49.27605727978992</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>39.77881512885958</v>
+        <v>53.47659007402606</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>37.10292616510205</v>
+        <v>44.4363578064924</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>32.77576888913885</v>
+        <v>35.10821503459092</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>33.72067586028083</v>
+        <v>38.0611281055896</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>32.33264017693902</v>
+        <v>32.68595843520404</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>33.20909083921272</v>
+        <v>38.39677603386039</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>35.48905295778402</v>
+        <v>41.98403886509764</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>36.25391001956928</v>
+        <v>44.41037904941055</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>34.14103219926414</v>
+        <v>36.92528859153677</v>
       </c>
     </row>
   </sheetData>
